--- a/mapa-producao/Mapa_Producao.xlsx
+++ b/mapa-producao/Mapa_Producao.xlsx
@@ -460,7 +460,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H76"/>
+  <dimension ref="A1:H89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -529,15 +529,15 @@
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>29/05/2025</t>
+          <t>02/06/2025</t>
         </is>
       </c>
       <c r="C2" s="3" t="n">
-        <v>719065</v>
+        <v>717269</v>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>HOME ELDORADO 2.0</t>
+          <t>HOME GUARARAPES</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -557,7 +557,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>Entregue</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
@@ -569,70 +569,70 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>29/05/2025</t>
+          <t>02/06/2025</t>
         </is>
       </c>
       <c r="C3" s="4" t="n">
-        <v>719066</v>
+        <v>719080</v>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t>MODULO LATERAL OURO PRETO</t>
+          <t>PAINEL HOME MARAGOGI</t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
+          <t>Mapeado</t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="inlineStr">
+        <is>
+          <t>N/C</t>
+        </is>
+      </c>
+      <c r="G3" s="4" t="inlineStr">
+        <is>
           <t>Entregue</t>
         </is>
       </c>
-      <c r="F3" s="4" t="inlineStr">
-        <is>
-          <t>Remessa</t>
-        </is>
-      </c>
-      <c r="G3" s="4" t="inlineStr">
+      <c r="H3" s="4" t="inlineStr">
         <is>
           <t>Entregue</t>
-        </is>
-      </c>
-      <c r="H3" s="4" t="inlineStr">
-        <is>
-          <t>N/C</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>30/05/2025</t>
+          <t>02/06/2025</t>
         </is>
       </c>
       <c r="C4" s="3" t="n">
-        <v>719068</v>
+        <v>720465</v>
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
-          <t>RACK AURUM</t>
+          <t>HOME ELDORADO 2.0 + REFORCO EMBALAGEM</t>
         </is>
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>Entregue</t>
+          <t>Mapeado</t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr">
         <is>
-          <t>Remessa</t>
+          <t>N/C</t>
         </is>
       </c>
       <c r="G4" s="3" t="inlineStr">
         <is>
-          <t>Entregue</t>
+          <t>N/C</t>
         </is>
       </c>
       <c r="H4" s="3" t="inlineStr">
@@ -649,20 +649,20 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>30/05/2025</t>
+          <t>02/06/2025</t>
         </is>
       </c>
       <c r="C5" s="4" t="n">
-        <v>720854</v>
+        <v>720466</v>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t>KIT 6 PES PLASTICO RETANGULAR TABACO 100X50X40 ABA U 78X28</t>
+          <t>HOME GUARARAPES + REFORCO EMBALAGEM</t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>Entregue</t>
+          <t>Mapeado</t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
-          <t>Entregue</t>
+          <t>N/C</t>
         </is>
       </c>
       <c r="H5" s="4" t="inlineStr">
@@ -684,25 +684,25 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>30/05/2025</t>
+          <t>02/06/2025</t>
         </is>
       </c>
       <c r="C6" s="3" t="n">
-        <v>719074</v>
+        <v>720467</v>
       </c>
       <c r="D6" s="3" t="inlineStr">
         <is>
-          <t>COMPLEMENTO LATERAL SAO PAULO 2.2</t>
+          <t>PAINEL HOME ALVORADA + REFORCO EMBALAGEM</t>
         </is>
       </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t>Entregue</t>
+          <t>Mapeado</t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="G6" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/C</t>
         </is>
       </c>
       <c r="H6" s="3" t="inlineStr">
@@ -724,65 +724,65 @@
     <row r="7">
       <c r="A7" s="4" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>30/05/2025</t>
+          <t>02/06/2025</t>
         </is>
       </c>
       <c r="C7" s="4" t="n">
-        <v>719076</v>
+        <v>719085</v>
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t>ESTANTE NEW BAHIA</t>
+          <t>RACK ISTAMBUL</t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
+          <t>Mapeado</t>
+        </is>
+      </c>
+      <c r="F7" s="4" t="inlineStr">
+        <is>
           <t>Entregue</t>
         </is>
       </c>
-      <c r="F7" s="4" t="inlineStr">
+      <c r="G7" s="4" t="inlineStr">
         <is>
           <t>Entregue</t>
         </is>
       </c>
-      <c r="G7" s="4" t="inlineStr">
-        <is>
-          <t>Entregue</t>
-        </is>
-      </c>
       <c r="H7" s="4" t="inlineStr">
         <is>
-          <t>Entregue</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>30/05/2025</t>
+          <t>03/06/2025</t>
         </is>
       </c>
       <c r="C8" s="3" t="n">
-        <v>717269</v>
+        <v>719086</v>
       </c>
       <c r="D8" s="3" t="inlineStr">
         <is>
-          <t>HOME GUARARAPES</t>
+          <t>ESTANTE NEW LARA</t>
         </is>
       </c>
       <c r="E8" s="3" t="inlineStr">
         <is>
-          <t>Entregue</t>
+          <t>Mapeado</t>
         </is>
       </c>
       <c r="F8" s="3" t="inlineStr">
@@ -804,25 +804,25 @@
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>02/06/2025</t>
+          <t>03/06/2025</t>
         </is>
       </c>
       <c r="C9" s="4" t="n">
-        <v>719080</v>
+        <v>720837</v>
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t>PAINEL HOME MARAGOGI</t>
+          <t>SUPORTE DE TV UNIVERSAL 14 A 71 POLEGADAS + ADAPTADOR</t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t>Mapeado</t>
+          <t>N/C</t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
@@ -832,32 +832,32 @@
       </c>
       <c r="G9" s="4" t="inlineStr">
         <is>
-          <t>Entregue</t>
+          <t>Parcial</t>
         </is>
       </c>
       <c r="H9" s="4" t="inlineStr">
         <is>
-          <t>Parcial</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>02/06/2025</t>
+          <t>03/06/2025</t>
         </is>
       </c>
       <c r="C10" s="3" t="n">
-        <v>720465</v>
+        <v>719087</v>
       </c>
       <c r="D10" s="3" t="inlineStr">
         <is>
-          <t>HOME ELDORADO 2.0 + REFORCO EMBALAGEM</t>
+          <t>CABECEIRA LARANJEIRAS 2.4</t>
         </is>
       </c>
       <c r="E10" s="3" t="inlineStr">
@@ -872,7 +872,7 @@
       </c>
       <c r="G10" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Entregue</t>
         </is>
       </c>
       <c r="H10" s="3" t="inlineStr">
@@ -889,20 +889,20 @@
       </c>
       <c r="B11" s="4" t="inlineStr">
         <is>
-          <t>02/06/2025</t>
+          <t>03/06/2025</t>
         </is>
       </c>
       <c r="C11" s="4" t="n">
-        <v>720466</v>
+        <v>720849</v>
       </c>
       <c r="D11" s="4" t="inlineStr">
         <is>
-          <t>HOME GUARARAPES + REFORCO EMBALAGEM</t>
+          <t>KIT FITA LED LUZ BRANCA QUENTE 1 FITA (1600MM)</t>
         </is>
       </c>
       <c r="E11" s="4" t="inlineStr">
         <is>
-          <t>Mapeado</t>
+          <t>N/C</t>
         </is>
       </c>
       <c r="F11" s="4" t="inlineStr">
@@ -912,7 +912,7 @@
       </c>
       <c r="G11" s="4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Parcial</t>
         </is>
       </c>
       <c r="H11" s="4" t="inlineStr">
@@ -924,25 +924,25 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>02/06/2025</t>
+          <t>03/06/2025</t>
         </is>
       </c>
       <c r="C12" s="3" t="n">
-        <v>720467</v>
+        <v>719088</v>
       </c>
       <c r="D12" s="3" t="inlineStr">
         <is>
-          <t>PAINEL HOME ALVORADA + REFORCO EMBALAGEM</t>
+          <t>PAINEL HOME ARARUNA</t>
         </is>
       </c>
       <c r="E12" s="3" t="inlineStr">
         <is>
-          <t>Mapeado</t>
+          <t>Parcial</t>
         </is>
       </c>
       <c r="F12" s="3" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="G12" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Entregue</t>
         </is>
       </c>
       <c r="H12" s="3" t="inlineStr">
@@ -964,25 +964,25 @@
     <row r="13">
       <c r="A13" s="4" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B13" s="4" t="inlineStr">
         <is>
-          <t>02/06/2025</t>
+          <t>04/06/2025</t>
         </is>
       </c>
       <c r="C13" s="4" t="n">
-        <v>719085</v>
+        <v>714585</v>
       </c>
       <c r="D13" s="4" t="inlineStr">
         <is>
-          <t>RACK ISTAMBUL</t>
+          <t>RACK SANTORINI</t>
         </is>
       </c>
       <c r="E13" s="4" t="inlineStr">
         <is>
-          <t>Parcial</t>
+          <t>Mapeado</t>
         </is>
       </c>
       <c r="F13" s="4" t="inlineStr">
@@ -997,7 +997,7 @@
       </c>
       <c r="H13" s="4" t="inlineStr">
         <is>
-          <t>N/C</t>
+          <t>Separar</t>
         </is>
       </c>
     </row>
@@ -1009,20 +1009,20 @@
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>03/06/2025</t>
+          <t>04/06/2025</t>
         </is>
       </c>
       <c r="C14" s="3" t="n">
-        <v>719086</v>
+        <v>719067</v>
       </c>
       <c r="D14" s="3" t="inlineStr">
         <is>
-          <t>ESTANTE NEW LARA</t>
+          <t>HOME GUARARAPES</t>
         </is>
       </c>
       <c r="E14" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Mapeado</t>
         </is>
       </c>
       <c r="F14" s="3" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="G14" s="3" t="inlineStr">
         <is>
-          <t>Parcial</t>
+          <t>Separado</t>
         </is>
       </c>
       <c r="H14" s="3" t="inlineStr">
@@ -1044,35 +1044,35 @@
     <row r="15">
       <c r="A15" s="4" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B15" s="4" t="inlineStr">
         <is>
-          <t>03/06/2025</t>
+          <t>05/06/2025</t>
         </is>
       </c>
       <c r="C15" s="4" t="n">
-        <v>720837</v>
+        <v>714586</v>
       </c>
       <c r="D15" s="4" t="inlineStr">
         <is>
-          <t>SUPORTE DE TV UNIVERSAL 14 A 71 POLEGADAS + ADAPTADOR</t>
+          <t>APARADOR MONACO</t>
         </is>
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
-          <t>N/C</t>
+          <t>Mapeado</t>
         </is>
       </c>
       <c r="F15" s="4" t="inlineStr">
         <is>
-          <t>N/C</t>
+          <t>Entregue</t>
         </is>
       </c>
       <c r="G15" s="4" t="inlineStr">
         <is>
-          <t>Parcial</t>
+          <t>Entregue</t>
         </is>
       </c>
       <c r="H15" s="4" t="inlineStr">
@@ -1084,20 +1084,20 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>03/06/2025</t>
+          <t>05/06/2025</t>
         </is>
       </c>
       <c r="C16" s="3" t="n">
-        <v>719087</v>
+        <v>714589</v>
       </c>
       <c r="D16" s="3" t="inlineStr">
         <is>
-          <t>CABECEIRA LARANJEIRAS 2.4</t>
+          <t>MESA DE CENTRO MONACO</t>
         </is>
       </c>
       <c r="E16" s="3" t="inlineStr">
@@ -1107,12 +1107,12 @@
       </c>
       <c r="F16" s="3" t="inlineStr">
         <is>
-          <t>N/C</t>
+          <t>Entregue</t>
         </is>
       </c>
       <c r="G16" s="3" t="inlineStr">
         <is>
-          <t>Parcial</t>
+          <t>Entregue</t>
         </is>
       </c>
       <c r="H16" s="3" t="inlineStr">
@@ -1124,35 +1124,35 @@
     <row r="17">
       <c r="A17" s="4" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B17" s="4" t="inlineStr">
         <is>
-          <t>03/06/2025</t>
+          <t>05/06/2025</t>
         </is>
       </c>
       <c r="C17" s="4" t="n">
-        <v>720849</v>
+        <v>719090</v>
       </c>
       <c r="D17" s="4" t="inlineStr">
         <is>
-          <t>KIT FITA LED LUZ BRANCA QUENTE 1 FITA (1600MM)</t>
+          <t>HOME NAPOLI</t>
         </is>
       </c>
       <c r="E17" s="4" t="inlineStr">
         <is>
-          <t>N/C</t>
+          <t>Parcial</t>
         </is>
       </c>
       <c r="F17" s="4" t="inlineStr">
         <is>
-          <t>N/C</t>
+          <t>Entregue</t>
         </is>
       </c>
       <c r="G17" s="4" t="inlineStr">
         <is>
-          <t>Parcial</t>
+          <t>Entregue</t>
         </is>
       </c>
       <c r="H17" s="4" t="inlineStr">
@@ -1169,25 +1169,25 @@
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>03/06/2025</t>
+          <t>05/06/2025</t>
         </is>
       </c>
       <c r="C18" s="3" t="n">
-        <v>719088</v>
+        <v>720833</v>
       </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t>PAINEL HOME ARARUNA</t>
+          <t>BUFFET EVORA 1.6</t>
         </is>
       </c>
       <c r="E18" s="3" t="inlineStr">
         <is>
-          <t>Parcial</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F18" s="3" t="inlineStr">
         <is>
-          <t>N/C</t>
+          <t>Remessa</t>
         </is>
       </c>
       <c r="G18" s="3" t="inlineStr">
@@ -1209,15 +1209,15 @@
       </c>
       <c r="B19" s="4" t="inlineStr">
         <is>
-          <t>04/06/2025</t>
+          <t>06/06/2025</t>
         </is>
       </c>
       <c r="C19" s="4" t="n">
-        <v>719089</v>
+        <v>720834</v>
       </c>
       <c r="D19" s="4" t="inlineStr">
         <is>
-          <t>NICHO CURVO 1.4</t>
+          <t>RACK ESMERALDA</t>
         </is>
       </c>
       <c r="E19" s="4" t="inlineStr">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="F19" s="4" t="inlineStr">
         <is>
-          <t>N/C</t>
+          <t>Remessa</t>
         </is>
       </c>
       <c r="G19" s="4" t="inlineStr">
@@ -1244,20 +1244,20 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>04/06/2025</t>
+          <t>06/06/2025</t>
         </is>
       </c>
       <c r="C20" s="3" t="n">
-        <v>714585</v>
+        <v>720835</v>
       </c>
       <c r="D20" s="3" t="inlineStr">
         <is>
-          <t>RACK SANTORINI</t>
+          <t>PAINEL HOME HAVANA</t>
         </is>
       </c>
       <c r="E20" s="3" t="inlineStr">
@@ -1267,47 +1267,47 @@
       </c>
       <c r="F20" s="3" t="inlineStr">
         <is>
-          <t>Entregue</t>
+          <t>N/C</t>
         </is>
       </c>
       <c r="G20" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Parcial</t>
         </is>
       </c>
       <c r="H20" s="3" t="inlineStr">
         <is>
-          <t>Separar</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="4" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
-          <t>04/06/2025</t>
+          <t>06/06/2025</t>
         </is>
       </c>
       <c r="C21" s="4" t="n">
-        <v>719067</v>
+        <v>717275</v>
       </c>
       <c r="D21" s="4" t="inlineStr">
         <is>
-          <t>HOME GUARARAPES</t>
+          <t>HOME ELDORADO 2.0 JAMAR</t>
         </is>
       </c>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>Mapeado</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F21" s="4" t="inlineStr">
         <is>
-          <t>Entregue</t>
+          <t>Remessa</t>
         </is>
       </c>
       <c r="G21" s="4" t="inlineStr">
@@ -1317,27 +1317,27 @@
       </c>
       <c r="H21" s="4" t="inlineStr">
         <is>
-          <t>N/C</t>
+          <t>Separar</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>05/06/2025</t>
+          <t>09/06/2025</t>
         </is>
       </c>
       <c r="C22" s="3" t="n">
-        <v>714586</v>
+        <v>720836</v>
       </c>
       <c r="D22" s="3" t="inlineStr">
         <is>
-          <t>APARADOR MONACO</t>
+          <t>BUFFET 1.4 LUCCA PARTE 3</t>
         </is>
       </c>
       <c r="E22" s="3" t="inlineStr">
@@ -1347,12 +1347,12 @@
       </c>
       <c r="F22" s="3" t="inlineStr">
         <is>
-          <t>Entregue</t>
+          <t>N/C</t>
         </is>
       </c>
       <c r="G22" s="3" t="inlineStr">
         <is>
-          <t>Entregue</t>
+          <t>Parcial</t>
         </is>
       </c>
       <c r="H22" s="3" t="inlineStr">
@@ -1364,20 +1364,20 @@
     <row r="23">
       <c r="A23" s="4" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
-          <t>05/06/2025</t>
+          <t>09/06/2025</t>
         </is>
       </c>
       <c r="C23" s="4" t="n">
-        <v>714589</v>
+        <v>720838</v>
       </c>
       <c r="D23" s="4" t="inlineStr">
         <is>
-          <t>MESA DE CENTRO MONACO</t>
+          <t>PAINEL HOME LUGANO</t>
         </is>
       </c>
       <c r="E23" s="4" t="inlineStr">
@@ -1387,12 +1387,12 @@
       </c>
       <c r="F23" s="4" t="inlineStr">
         <is>
-          <t>Entregue</t>
+          <t>N/C</t>
         </is>
       </c>
       <c r="G23" s="4" t="inlineStr">
         <is>
-          <t>Entregue</t>
+          <t>Parcial</t>
         </is>
       </c>
       <c r="H23" s="4" t="inlineStr">
@@ -1404,20 +1404,20 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>05/06/2025</t>
+          <t>09/06/2025</t>
         </is>
       </c>
       <c r="C24" s="3" t="n">
-        <v>719090</v>
+        <v>720839</v>
       </c>
       <c r="D24" s="3" t="inlineStr">
         <is>
-          <t>HOME NAPOLI</t>
+          <t>AEREO 1.2M ALLURE</t>
         </is>
       </c>
       <c r="E24" s="3" t="inlineStr">
@@ -1432,12 +1432,12 @@
       </c>
       <c r="G24" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Parcial</t>
         </is>
       </c>
       <c r="H24" s="3" t="inlineStr">
         <is>
-          <t>N/C</t>
+          <t>Separar</t>
         </is>
       </c>
     </row>
@@ -1449,15 +1449,15 @@
       </c>
       <c r="B25" s="4" t="inlineStr">
         <is>
-          <t>05/06/2025</t>
+          <t>09/06/2025</t>
         </is>
       </c>
       <c r="C25" s="4" t="n">
-        <v>719070</v>
+        <v>720840</v>
       </c>
       <c r="D25" s="4" t="inlineStr">
         <is>
-          <t>NICHO CURVO 2.2</t>
+          <t>HOME ELDORADO 2.0</t>
         </is>
       </c>
       <c r="E25" s="4" t="inlineStr">
@@ -1467,37 +1467,37 @@
       </c>
       <c r="F25" s="4" t="inlineStr">
         <is>
-          <t>N/C</t>
+          <t>Remessa</t>
         </is>
       </c>
       <c r="G25" s="4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Parcial</t>
         </is>
       </c>
       <c r="H25" s="4" t="inlineStr">
         <is>
-          <t>N/C</t>
+          <t>Separar</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>05/06/2025</t>
+          <t>10/06/2025</t>
         </is>
       </c>
       <c r="C26" s="3" t="n">
-        <v>720833</v>
+        <v>720841</v>
       </c>
       <c r="D26" s="3" t="inlineStr">
         <is>
-          <t>BUFFET EVORA 1.6</t>
+          <t>PAINEL GENOVA 2.0</t>
         </is>
       </c>
       <c r="E26" s="3" t="inlineStr">
@@ -1512,7 +1512,7 @@
       </c>
       <c r="G26" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Parcial</t>
         </is>
       </c>
       <c r="H26" s="3" t="inlineStr">
@@ -1524,20 +1524,20 @@
     <row r="27">
       <c r="A27" s="4" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B27" s="4" t="inlineStr">
         <is>
-          <t>06/06/2025</t>
+          <t>10/06/2025</t>
         </is>
       </c>
       <c r="C27" s="4" t="n">
-        <v>720834</v>
+        <v>720843</v>
       </c>
       <c r="D27" s="4" t="inlineStr">
         <is>
-          <t>RACK ESMERALDA</t>
+          <t>BUFFET 1.4 LUCCA PARTE 2</t>
         </is>
       </c>
       <c r="E27" s="4" t="inlineStr">
@@ -1547,7 +1547,7 @@
       </c>
       <c r="F27" s="4" t="inlineStr">
         <is>
-          <t>Remessa</t>
+          <t>N/C</t>
         </is>
       </c>
       <c r="G27" s="4" t="inlineStr">
@@ -1564,20 +1564,20 @@
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>06/06/2025</t>
+          <t>10/06/2025</t>
         </is>
       </c>
       <c r="C28" s="3" t="n">
-        <v>720835</v>
+        <v>720844</v>
       </c>
       <c r="D28" s="3" t="inlineStr">
         <is>
-          <t>PAINEL HOME HAVANA</t>
+          <t>KIT FITA LED COB 9W BRANCA QUENTE 1 FITA (1150MM) - RACK SANTORINI</t>
         </is>
       </c>
       <c r="E28" s="3" t="inlineStr">
@@ -1597,27 +1597,27 @@
       </c>
       <c r="H28" s="3" t="inlineStr">
         <is>
-          <t>N/C</t>
+          <t>Separar</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="4" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B29" s="4" t="inlineStr">
         <is>
-          <t>06/06/2025</t>
+          <t>10/06/2025</t>
         </is>
       </c>
       <c r="C29" s="4" t="n">
-        <v>720836</v>
+        <v>715952</v>
       </c>
       <c r="D29" s="4" t="inlineStr">
         <is>
-          <t>BUFFET 1.4 LUCCA PARTE 3</t>
+          <t>APARADOR LISBOA</t>
         </is>
       </c>
       <c r="E29" s="4" t="inlineStr">
@@ -1644,20 +1644,20 @@
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>06/06/2025</t>
+          <t>10/06/2025</t>
         </is>
       </c>
       <c r="C30" s="3" t="n">
-        <v>720838</v>
+        <v>715953</v>
       </c>
       <c r="D30" s="3" t="inlineStr">
         <is>
-          <t>PAINEL HOME LUGANO</t>
+          <t>MESA DE CENTRO LISBOA</t>
         </is>
       </c>
       <c r="E30" s="3" t="inlineStr">
@@ -1689,15 +1689,15 @@
       </c>
       <c r="B31" s="4" t="inlineStr">
         <is>
-          <t>09/06/2025</t>
+          <t>10/06/2025</t>
         </is>
       </c>
       <c r="C31" s="4" t="n">
-        <v>720839</v>
+        <v>720845</v>
       </c>
       <c r="D31" s="4" t="inlineStr">
         <is>
-          <t>AEREO 1.2M ALLURE</t>
+          <t>PAINEL HOME ALVORADA</t>
         </is>
       </c>
       <c r="E31" s="4" t="inlineStr">
@@ -1717,7 +1717,7 @@
       </c>
       <c r="H31" s="4" t="inlineStr">
         <is>
-          <t>Separar</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
@@ -1729,15 +1729,15 @@
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>09/06/2025</t>
+          <t>10/06/2025</t>
         </is>
       </c>
       <c r="C32" s="3" t="n">
-        <v>720840</v>
+        <v>720846</v>
       </c>
       <c r="D32" s="3" t="inlineStr">
         <is>
-          <t>HOME ELDORADO 2.0</t>
+          <t>TAMPO BALCAO 1.2M SELENE</t>
         </is>
       </c>
       <c r="E32" s="3" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="F32" s="3" t="inlineStr">
         <is>
-          <t>Remessa</t>
+          <t>N/C</t>
         </is>
       </c>
       <c r="G32" s="3" t="inlineStr">
@@ -1757,7 +1757,7 @@
       </c>
       <c r="H32" s="3" t="inlineStr">
         <is>
-          <t>Separar</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
@@ -1769,15 +1769,15 @@
       </c>
       <c r="B33" s="4" t="inlineStr">
         <is>
-          <t>09/06/2025</t>
+          <t>10/06/2025</t>
         </is>
       </c>
       <c r="C33" s="4" t="n">
-        <v>720841</v>
+        <v>720847</v>
       </c>
       <c r="D33" s="4" t="inlineStr">
         <is>
-          <t>PAINEL GENOVA 2.0</t>
+          <t>AEREO 1.2M SELENE</t>
         </is>
       </c>
       <c r="E33" s="4" t="inlineStr">
@@ -1809,15 +1809,15 @@
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>10/06/2025</t>
+          <t>11/06/2025</t>
         </is>
       </c>
       <c r="C34" s="3" t="n">
-        <v>720843</v>
+        <v>720848</v>
       </c>
       <c r="D34" s="3" t="inlineStr">
         <is>
-          <t>BUFFET 1.4 LUCCA PARTE 2</t>
+          <t>PAINEL EXTENSIVEL TULUM</t>
         </is>
       </c>
       <c r="E34" s="3" t="inlineStr">
@@ -1844,20 +1844,20 @@
     <row r="35">
       <c r="A35" s="4" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B35" s="4" t="inlineStr">
         <is>
-          <t>10/06/2025</t>
+          <t>11/06/2025</t>
         </is>
       </c>
       <c r="C35" s="4" t="n">
-        <v>720844</v>
+        <v>720850</v>
       </c>
       <c r="D35" s="4" t="inlineStr">
         <is>
-          <t>KIT FITA LED COB 9W BRANCA QUENTE 1 FITA (1150MM) - RACK SANTORINI</t>
+          <t>RACK DUBAI 1.8</t>
         </is>
       </c>
       <c r="E35" s="4" t="inlineStr">
@@ -1867,7 +1867,7 @@
       </c>
       <c r="F35" s="4" t="inlineStr">
         <is>
-          <t>N/C</t>
+          <t>Remessa</t>
         </is>
       </c>
       <c r="G35" s="4" t="inlineStr">
@@ -1877,27 +1877,27 @@
       </c>
       <c r="H35" s="4" t="inlineStr">
         <is>
-          <t>Separar</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>10/06/2025</t>
+          <t>11/06/2025</t>
         </is>
       </c>
       <c r="C36" s="3" t="n">
-        <v>715952</v>
+        <v>720851</v>
       </c>
       <c r="D36" s="3" t="inlineStr">
         <is>
-          <t>APARADOR LISBOA</t>
+          <t>RACK COLORADO</t>
         </is>
       </c>
       <c r="E36" s="3" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="F36" s="3" t="inlineStr">
         <is>
-          <t>N/C</t>
+          <t>Remessa</t>
         </is>
       </c>
       <c r="G36" s="3" t="inlineStr">
@@ -1924,20 +1924,20 @@
     <row r="37">
       <c r="A37" s="4" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B37" s="4" t="inlineStr">
         <is>
-          <t>10/06/2025</t>
+          <t>11/06/2025</t>
         </is>
       </c>
       <c r="C37" s="4" t="n">
-        <v>715953</v>
+        <v>720852</v>
       </c>
       <c r="D37" s="4" t="inlineStr">
         <is>
-          <t>MESA DE CENTRO LISBOA</t>
+          <t>PAINEL HOME FRIBURGO</t>
         </is>
       </c>
       <c r="E37" s="4" t="inlineStr">
@@ -1964,20 +1964,20 @@
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>10/06/2025</t>
+          <t>12/06/2025</t>
         </is>
       </c>
       <c r="C38" s="3" t="n">
-        <v>717275</v>
+        <v>720853</v>
       </c>
       <c r="D38" s="3" t="inlineStr">
         <is>
-          <t>HOME ELDORADO 2.0 JAMAR</t>
+          <t>AEREO DUPLO 0.8M SELENE</t>
         </is>
       </c>
       <c r="E38" s="3" t="inlineStr">
@@ -1997,7 +1997,7 @@
       </c>
       <c r="H38" s="3" t="inlineStr">
         <is>
-          <t>Separar</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
@@ -2009,15 +2009,15 @@
       </c>
       <c r="B39" s="4" t="inlineStr">
         <is>
-          <t>10/06/2025</t>
+          <t>12/06/2025</t>
         </is>
       </c>
       <c r="C39" s="4" t="n">
-        <v>720845</v>
+        <v>720855</v>
       </c>
       <c r="D39" s="4" t="inlineStr">
         <is>
-          <t>PAINEL HOME ALVORADA</t>
+          <t>RACK CRONOS 1.8</t>
         </is>
       </c>
       <c r="E39" s="4" t="inlineStr">
@@ -2049,15 +2049,15 @@
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>10/06/2025</t>
+          <t>12/06/2025</t>
         </is>
       </c>
       <c r="C40" s="3" t="n">
-        <v>720846</v>
+        <v>720856</v>
       </c>
       <c r="D40" s="3" t="inlineStr">
         <is>
-          <t>TAMPO BALCAO 1.2M SELENE</t>
+          <t>HOME VIENA</t>
         </is>
       </c>
       <c r="E40" s="3" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="F40" s="3" t="inlineStr">
         <is>
-          <t>N/C</t>
+          <t>Remessa</t>
         </is>
       </c>
       <c r="G40" s="3" t="inlineStr">
@@ -2089,15 +2089,15 @@
       </c>
       <c r="B41" s="4" t="inlineStr">
         <is>
-          <t>10/06/2025</t>
+          <t>12/06/2025</t>
         </is>
       </c>
       <c r="C41" s="4" t="n">
-        <v>720847</v>
+        <v>720857</v>
       </c>
       <c r="D41" s="4" t="inlineStr">
         <is>
-          <t>AEREO 1.2M SELENE</t>
+          <t>PRATELEIRA 2.2</t>
         </is>
       </c>
       <c r="E41" s="4" t="inlineStr">
@@ -2107,7 +2107,7 @@
       </c>
       <c r="F41" s="4" t="inlineStr">
         <is>
-          <t>Remessa</t>
+          <t>N/C</t>
         </is>
       </c>
       <c r="G41" s="4" t="inlineStr">
@@ -2129,15 +2129,15 @@
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>11/06/2025</t>
+          <t>12/06/2025</t>
         </is>
       </c>
       <c r="C42" s="3" t="n">
-        <v>720848</v>
+        <v>720858</v>
       </c>
       <c r="D42" s="3" t="inlineStr">
         <is>
-          <t>PAINEL EXTENSIVEL TULUM</t>
+          <t>MULTIUSO RETRO MARSALA  PARTE 2</t>
         </is>
       </c>
       <c r="E42" s="3" t="inlineStr">
@@ -2164,20 +2164,20 @@
     <row r="43">
       <c r="A43" s="4" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="B43" s="4" t="inlineStr">
         <is>
-          <t>11/06/2025</t>
+          <t>12/06/2025</t>
         </is>
       </c>
       <c r="C43" s="4" t="n">
-        <v>720850</v>
+        <v>719069</v>
       </c>
       <c r="D43" s="4" t="inlineStr">
         <is>
-          <t>RACK DUBAI 1.8</t>
+          <t>MODULO RIPADO 0.4</t>
         </is>
       </c>
       <c r="E43" s="4" t="inlineStr">
@@ -2187,7 +2187,7 @@
       </c>
       <c r="F43" s="4" t="inlineStr">
         <is>
-          <t>Remessa</t>
+          <t>N/C</t>
         </is>
       </c>
       <c r="G43" s="4" t="inlineStr">
@@ -2204,20 +2204,20 @@
     <row r="44">
       <c r="A44" s="3" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>11/06/2025</t>
+          <t>13/06/2025</t>
         </is>
       </c>
       <c r="C44" s="3" t="n">
-        <v>720851</v>
+        <v>719071</v>
       </c>
       <c r="D44" s="3" t="inlineStr">
         <is>
-          <t>RACK COLORADO</t>
+          <t>PAINEL RIPADO MODULAR 1.4</t>
         </is>
       </c>
       <c r="E44" s="3" t="inlineStr">
@@ -2244,20 +2244,20 @@
     <row r="45">
       <c r="A45" s="4" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B45" s="4" t="inlineStr">
         <is>
-          <t>11/06/2025</t>
+          <t>13/06/2025</t>
         </is>
       </c>
       <c r="C45" s="4" t="n">
-        <v>720852</v>
+        <v>719091</v>
       </c>
       <c r="D45" s="4" t="inlineStr">
         <is>
-          <t>PAINEL HOME FRIBURGO</t>
+          <t>PRATELEIRA CURVA 2.2</t>
         </is>
       </c>
       <c r="E45" s="4" t="inlineStr">
@@ -2289,15 +2289,15 @@
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>12/06/2025</t>
+          <t>13/06/2025</t>
         </is>
       </c>
       <c r="C46" s="3" t="n">
-        <v>720853</v>
+        <v>719082</v>
       </c>
       <c r="D46" s="3" t="inlineStr">
         <is>
-          <t>AEREO DUPLO 0.8M SELENE</t>
+          <t>PRATELEIRA CURVA 1.4</t>
         </is>
       </c>
       <c r="E46" s="3" t="inlineStr">
@@ -2307,7 +2307,7 @@
       </c>
       <c r="F46" s="3" t="inlineStr">
         <is>
-          <t>Remessa</t>
+          <t>N/C</t>
         </is>
       </c>
       <c r="G46" s="3" t="inlineStr">
@@ -2329,30 +2329,30 @@
       </c>
       <c r="B47" s="4" t="inlineStr">
         <is>
-          <t>12/06/2025</t>
+          <t>13/06/2025</t>
         </is>
       </c>
       <c r="C47" s="4" t="n">
-        <v>720855</v>
+        <v>719089</v>
       </c>
       <c r="D47" s="4" t="inlineStr">
         <is>
-          <t>RACK CRONOS 1.8</t>
+          <t>NICHO CURVO 1.4</t>
         </is>
       </c>
       <c r="E47" s="4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Parcial</t>
         </is>
       </c>
       <c r="F47" s="4" t="inlineStr">
         <is>
-          <t>Remessa</t>
+          <t>N/C</t>
         </is>
       </c>
       <c r="G47" s="4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Entregue</t>
         </is>
       </c>
       <c r="H47" s="4" t="inlineStr">
@@ -2369,30 +2369,30 @@
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>12/06/2025</t>
+          <t>13/06/2025</t>
         </is>
       </c>
       <c r="C48" s="3" t="n">
-        <v>720856</v>
+        <v>719070</v>
       </c>
       <c r="D48" s="3" t="inlineStr">
         <is>
-          <t>HOME VIENA</t>
+          <t>NICHO CURVO 2.2</t>
         </is>
       </c>
       <c r="E48" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Mapeado</t>
         </is>
       </c>
       <c r="F48" s="3" t="inlineStr">
         <is>
-          <t>Remessa</t>
+          <t>N/C</t>
         </is>
       </c>
       <c r="G48" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Entregue</t>
         </is>
       </c>
       <c r="H48" s="3" t="inlineStr">
@@ -2404,20 +2404,20 @@
     <row r="49">
       <c r="A49" s="4" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B49" s="4" t="inlineStr">
         <is>
-          <t>12/06/2025</t>
+          <t>13/06/2025</t>
         </is>
       </c>
       <c r="C49" s="4" t="n">
-        <v>720857</v>
+        <v>723251</v>
       </c>
       <c r="D49" s="4" t="inlineStr">
         <is>
-          <t>PRATELEIRA 2.2</t>
+          <t>TORRE QUENTE 0.65M SELENE</t>
         </is>
       </c>
       <c r="E49" s="4" t="inlineStr">
@@ -2427,7 +2427,7 @@
       </c>
       <c r="F49" s="4" t="inlineStr">
         <is>
-          <t>N/C</t>
+          <t>Remessa</t>
         </is>
       </c>
       <c r="G49" s="4" t="inlineStr">
@@ -2444,20 +2444,20 @@
     <row r="50">
       <c r="A50" s="3" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>12/06/2025</t>
+          <t>13/06/2025</t>
         </is>
       </c>
       <c r="C50" s="3" t="n">
-        <v>720858</v>
+        <v>723252</v>
       </c>
       <c r="D50" s="3" t="inlineStr">
         <is>
-          <t>MULTIUSO RETRO MARSALA  PARTE 2</t>
+          <t>BALCAO 1.2M SELENE</t>
         </is>
       </c>
       <c r="E50" s="3" t="inlineStr">
@@ -2467,7 +2467,7 @@
       </c>
       <c r="F50" s="3" t="inlineStr">
         <is>
-          <t>N/C</t>
+          <t>Remessa</t>
         </is>
       </c>
       <c r="G50" s="3" t="inlineStr">
@@ -2484,20 +2484,20 @@
     <row r="51">
       <c r="A51" s="4" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B51" s="4" t="inlineStr">
         <is>
-          <t>12/06/2025</t>
+          <t>13/06/2025</t>
         </is>
       </c>
       <c r="C51" s="4" t="n">
-        <v>719069</v>
+        <v>723254</v>
       </c>
       <c r="D51" s="4" t="inlineStr">
         <is>
-          <t>MODULO RIPADO 0.4</t>
+          <t>TAMPO BALCAO 1.2M SELENE</t>
         </is>
       </c>
       <c r="E51" s="4" t="inlineStr">
@@ -2533,11 +2533,11 @@
         </is>
       </c>
       <c r="C52" s="3" t="n">
-        <v>719071</v>
+        <v>723255</v>
       </c>
       <c r="D52" s="3" t="inlineStr">
         <is>
-          <t>PAINEL RIPADO MODULAR 1.4</t>
+          <t>RACK ESMERALDA</t>
         </is>
       </c>
       <c r="E52" s="3" t="inlineStr">
@@ -2564,7 +2564,7 @@
     <row r="53">
       <c r="A53" s="4" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="B53" s="4" t="inlineStr">
@@ -2573,11 +2573,11 @@
         </is>
       </c>
       <c r="C53" s="4" t="n">
-        <v>719091</v>
+        <v>723256</v>
       </c>
       <c r="D53" s="4" t="inlineStr">
         <is>
-          <t>PRATELEIRA CURVA 2.2</t>
+          <t>KIT FITA LED LUZ BRANCA QUENTE 2 FITAS (1800MM) (FLOCO ISOPOR)</t>
         </is>
       </c>
       <c r="E53" s="4" t="inlineStr">
@@ -2604,20 +2604,20 @@
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>13/06/2025</t>
+          <t>16/06/2025</t>
         </is>
       </c>
       <c r="C54" s="3" t="n">
-        <v>719082</v>
+        <v>723257</v>
       </c>
       <c r="D54" s="3" t="inlineStr">
         <is>
-          <t>PRATELEIRA CURVA 1.4</t>
+          <t>BALCAO 0.8M SELENE</t>
         </is>
       </c>
       <c r="E54" s="3" t="inlineStr">
@@ -2627,7 +2627,7 @@
       </c>
       <c r="F54" s="3" t="inlineStr">
         <is>
-          <t>N/C</t>
+          <t>Remessa</t>
         </is>
       </c>
       <c r="G54" s="3" t="inlineStr">
@@ -2644,20 +2644,20 @@
     <row r="55">
       <c r="A55" s="4" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="B55" s="4" t="inlineStr">
         <is>
-          <t>13/06/2025</t>
+          <t>16/06/2025</t>
         </is>
       </c>
       <c r="C55" s="4" t="n">
-        <v>723251</v>
+        <v>723258</v>
       </c>
       <c r="D55" s="4" t="inlineStr">
         <is>
-          <t>TORRE QUENTE 0.65M SELENE</t>
+          <t>HOME ELDORADO 2.0</t>
         </is>
       </c>
       <c r="E55" s="4" t="inlineStr">
@@ -2667,7 +2667,7 @@
       </c>
       <c r="F55" s="4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Remessa</t>
         </is>
       </c>
       <c r="G55" s="4" t="inlineStr">
@@ -2677,27 +2677,27 @@
       </c>
       <c r="H55" s="4" t="inlineStr">
         <is>
-          <t>N/C</t>
+          <t>Separar</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t>13/06/2025</t>
+          <t>16/06/2025</t>
         </is>
       </c>
       <c r="C56" s="3" t="n">
-        <v>723252</v>
+        <v>723259</v>
       </c>
       <c r="D56" s="3" t="inlineStr">
         <is>
-          <t>BALCAO 1.2M SELENE</t>
+          <t>HOME ATLANTA</t>
         </is>
       </c>
       <c r="E56" s="3" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="F56" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Remessa</t>
         </is>
       </c>
       <c r="G56" s="3" t="inlineStr">
@@ -2724,20 +2724,20 @@
     <row r="57">
       <c r="A57" s="4" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B57" s="4" t="inlineStr">
         <is>
-          <t>13/06/2025</t>
+          <t>17/06/2025</t>
         </is>
       </c>
       <c r="C57" s="4" t="n">
-        <v>723254</v>
+        <v>723260</v>
       </c>
       <c r="D57" s="4" t="inlineStr">
         <is>
-          <t>TAMPO BALCAO 1.2M SELENE</t>
+          <t>PAINEL RIPADO MODULAR 1.4</t>
         </is>
       </c>
       <c r="E57" s="4" t="inlineStr">
@@ -2747,7 +2747,7 @@
       </c>
       <c r="F57" s="4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Remessa</t>
         </is>
       </c>
       <c r="G57" s="4" t="inlineStr">
@@ -2764,20 +2764,20 @@
     <row r="58">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>13/06/2025</t>
+          <t>17/06/2025</t>
         </is>
       </c>
       <c r="C58" s="3" t="n">
-        <v>723255</v>
+        <v>723261</v>
       </c>
       <c r="D58" s="3" t="inlineStr">
         <is>
-          <t>RACK ESMERALDA</t>
+          <t>MODULO RIPADO 0.4</t>
         </is>
       </c>
       <c r="E58" s="3" t="inlineStr">
@@ -2787,7 +2787,7 @@
       </c>
       <c r="F58" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/C</t>
         </is>
       </c>
       <c r="G58" s="3" t="inlineStr">
@@ -2804,20 +2804,20 @@
     <row r="59">
       <c r="A59" s="4" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="B59" s="4" t="inlineStr">
         <is>
-          <t>13/06/2025</t>
+          <t>17/06/2025</t>
         </is>
       </c>
       <c r="C59" s="4" t="n">
-        <v>723256</v>
+        <v>723262</v>
       </c>
       <c r="D59" s="4" t="inlineStr">
         <is>
-          <t>KIT FITA LED LUZ BRANCA QUENTE 2 FITAS (1800MM) (FLOCO ISOPOR)</t>
+          <t>HOME ALAGOAS</t>
         </is>
       </c>
       <c r="E59" s="4" t="inlineStr">
@@ -2827,7 +2827,7 @@
       </c>
       <c r="F59" s="4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/C</t>
         </is>
       </c>
       <c r="G59" s="4" t="inlineStr">
@@ -2844,20 +2844,20 @@
     <row r="60">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>16/06/2025</t>
+          <t>17/06/2025</t>
         </is>
       </c>
       <c r="C60" s="3" t="n">
-        <v>723257</v>
+        <v>723263</v>
       </c>
       <c r="D60" s="3" t="inlineStr">
         <is>
-          <t>BALCAO 0.8M SELENE</t>
+          <t>KIT FITA LED LUZ BRANCA QUENTE 1 FITA (1600MM)</t>
         </is>
       </c>
       <c r="E60" s="3" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="F60" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/C</t>
         </is>
       </c>
       <c r="G60" s="3" t="inlineStr">
@@ -2884,20 +2884,20 @@
     <row r="61">
       <c r="A61" s="4" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B61" s="4" t="inlineStr">
         <is>
-          <t>16/06/2025</t>
+          <t>18/06/2025</t>
         </is>
       </c>
       <c r="C61" s="4" t="n">
-        <v>723258</v>
+        <v>723264</v>
       </c>
       <c r="D61" s="4" t="inlineStr">
         <is>
-          <t>HOME ELDORADO 2.0</t>
+          <t>RACK DUBAI 1.6</t>
         </is>
       </c>
       <c r="E61" s="4" t="inlineStr">
@@ -2907,7 +2907,7 @@
       </c>
       <c r="F61" s="4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Remessa</t>
         </is>
       </c>
       <c r="G61" s="4" t="inlineStr">
@@ -2917,27 +2917,27 @@
       </c>
       <c r="H61" s="4" t="inlineStr">
         <is>
-          <t>Separar</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="3" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B62" s="3" t="inlineStr">
         <is>
-          <t>16/06/2025</t>
+          <t>18/06/2025</t>
         </is>
       </c>
       <c r="C62" s="3" t="n">
-        <v>723259</v>
+        <v>723265</v>
       </c>
       <c r="D62" s="3" t="inlineStr">
         <is>
-          <t>HOME ATLANTA</t>
+          <t>CABECEIRA ILHABELA</t>
         </is>
       </c>
       <c r="E62" s="3" t="inlineStr">
@@ -2947,7 +2947,7 @@
       </c>
       <c r="F62" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/C</t>
         </is>
       </c>
       <c r="G62" s="3" t="inlineStr">
@@ -2964,20 +2964,20 @@
     <row r="63">
       <c r="A63" s="4" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B63" s="4" t="inlineStr">
         <is>
-          <t>17/06/2025</t>
+          <t>18/06/2025</t>
         </is>
       </c>
       <c r="C63" s="4" t="n">
-        <v>723260</v>
+        <v>723266</v>
       </c>
       <c r="D63" s="4" t="inlineStr">
         <is>
-          <t>PAINEL RIPADO MODULAR 1.4</t>
+          <t>PAINEL HOME ARARUNA</t>
         </is>
       </c>
       <c r="E63" s="4" t="inlineStr">
@@ -2987,7 +2987,7 @@
       </c>
       <c r="F63" s="4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/C</t>
         </is>
       </c>
       <c r="G63" s="4" t="inlineStr">
@@ -3004,20 +3004,20 @@
     <row r="64">
       <c r="A64" s="3" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>17/06/2025</t>
+          <t>18/06/2025</t>
         </is>
       </c>
       <c r="C64" s="3" t="n">
-        <v>723261</v>
+        <v>723267</v>
       </c>
       <c r="D64" s="3" t="inlineStr">
         <is>
-          <t>MODULO RIPADO 0.4</t>
+          <t>PAINEL SANTORINI</t>
         </is>
       </c>
       <c r="E64" s="3" t="inlineStr">
@@ -3044,20 +3044,20 @@
     <row r="65">
       <c r="A65" s="4" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B65" s="4" t="inlineStr">
         <is>
-          <t>17/06/2025</t>
+          <t>23/06/2025</t>
         </is>
       </c>
       <c r="C65" s="4" t="n">
-        <v>723262</v>
+        <v>720859</v>
       </c>
       <c r="D65" s="4" t="inlineStr">
         <is>
-          <t>HOME ALAGOAS</t>
+          <t>BUFFET RETRO 1.4 PARTE 1</t>
         </is>
       </c>
       <c r="E65" s="4" t="inlineStr">
@@ -3067,7 +3067,7 @@
       </c>
       <c r="F65" s="4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Remessa</t>
         </is>
       </c>
       <c r="G65" s="4" t="inlineStr">
@@ -3084,20 +3084,20 @@
     <row r="66">
       <c r="A66" s="3" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B66" s="3" t="inlineStr">
         <is>
-          <t>17/06/2025</t>
+          <t>23/06/2025</t>
         </is>
       </c>
       <c r="C66" s="3" t="n">
-        <v>723263</v>
+        <v>723189</v>
       </c>
       <c r="D66" s="3" t="inlineStr">
         <is>
-          <t>KIT FITA LED LUZ BRANCA QUENTE 1 FITA (1600MM)</t>
+          <t>HOME MUNIQUE</t>
         </is>
       </c>
       <c r="E66" s="3" t="inlineStr">
@@ -3107,7 +3107,7 @@
       </c>
       <c r="F66" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Remessa</t>
         </is>
       </c>
       <c r="G66" s="3" t="inlineStr">
@@ -3124,20 +3124,20 @@
     <row r="67">
       <c r="A67" s="4" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B67" s="4" t="inlineStr">
         <is>
-          <t>18/06/2025</t>
+          <t>23/06/2025</t>
         </is>
       </c>
       <c r="C67" s="4" t="n">
-        <v>723264</v>
+        <v>723269</v>
       </c>
       <c r="D67" s="4" t="inlineStr">
         <is>
-          <t>RACK DUBAI 1.6</t>
+          <t>AEREO MICROONDAS 0.8M SELENE</t>
         </is>
       </c>
       <c r="E67" s="4" t="inlineStr">
@@ -3147,7 +3147,7 @@
       </c>
       <c r="F67" s="4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Remessa</t>
         </is>
       </c>
       <c r="G67" s="4" t="inlineStr">
@@ -3164,20 +3164,20 @@
     <row r="68">
       <c r="A68" s="3" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B68" s="3" t="inlineStr">
         <is>
-          <t>18/06/2025</t>
+          <t>23/06/2025</t>
         </is>
       </c>
       <c r="C68" s="3" t="n">
-        <v>723265</v>
+        <v>723270</v>
       </c>
       <c r="D68" s="3" t="inlineStr">
         <is>
-          <t>CABECEIRA ILHABELA</t>
+          <t>HOME VIENA</t>
         </is>
       </c>
       <c r="E68" s="3" t="inlineStr">
@@ -3187,7 +3187,7 @@
       </c>
       <c r="F68" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Remessa</t>
         </is>
       </c>
       <c r="G68" s="3" t="inlineStr">
@@ -3204,20 +3204,20 @@
     <row r="69">
       <c r="A69" s="4" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="B69" s="4" t="inlineStr">
         <is>
-          <t>18/06/2025</t>
+          <t>24/06/2025</t>
         </is>
       </c>
       <c r="C69" s="4" t="n">
-        <v>723266</v>
+        <v>724841</v>
       </c>
       <c r="D69" s="4" t="inlineStr">
         <is>
-          <t>PAINEL HOME ARARUNA</t>
+          <t>MESA DE TV AURUM</t>
         </is>
       </c>
       <c r="E69" s="4" t="inlineStr">
@@ -3244,20 +3244,20 @@
     <row r="70">
       <c r="A70" s="3" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B70" s="3" t="inlineStr">
         <is>
-          <t>23/06/2025</t>
+          <t>24/06/2025</t>
         </is>
       </c>
       <c r="C70" s="3" t="n">
-        <v>720859</v>
+        <v>724842</v>
       </c>
       <c r="D70" s="3" t="inlineStr">
         <is>
-          <t>BUFFET RETRO 1.4 PARTE 1</t>
+          <t>HOME GUARARAPES</t>
         </is>
       </c>
       <c r="E70" s="3" t="inlineStr">
@@ -3284,20 +3284,20 @@
     <row r="71">
       <c r="A71" s="4" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="B71" s="4" t="inlineStr">
         <is>
-          <t>23/06/2025</t>
+          <t>24/06/2025</t>
         </is>
       </c>
       <c r="C71" s="4" t="n">
-        <v>723189</v>
+        <v>724843</v>
       </c>
       <c r="D71" s="4" t="inlineStr">
         <is>
-          <t>HOME MUNIQUE</t>
+          <t>KIT FITA LED LUZ BRANCA QUENTE 2 FITAS (1800MM) (FLOCO ISOPOR)</t>
         </is>
       </c>
       <c r="E71" s="4" t="inlineStr">
@@ -3329,15 +3329,15 @@
       </c>
       <c r="B72" s="3" t="inlineStr">
         <is>
-          <t>23/06/2025</t>
+          <t>25/06/2025</t>
         </is>
       </c>
       <c r="C72" s="3" t="n">
-        <v>723269</v>
+        <v>724844</v>
       </c>
       <c r="D72" s="3" t="inlineStr">
         <is>
-          <t>AEREO MICROONDAS 0.8M SELENE</t>
+          <t>TORRE QUENTE 0.65M SELENE</t>
         </is>
       </c>
       <c r="E72" s="3" t="inlineStr">
@@ -3369,15 +3369,15 @@
       </c>
       <c r="B73" s="4" t="inlineStr">
         <is>
-          <t>23/06/2025</t>
+          <t>25/06/2025</t>
         </is>
       </c>
       <c r="C73" s="4" t="n">
-        <v>723270</v>
+        <v>724846</v>
       </c>
       <c r="D73" s="4" t="inlineStr">
         <is>
-          <t>HOME VIENA</t>
+          <t>PAINEL HOME FRIBURGO</t>
         </is>
       </c>
       <c r="E73" s="4" t="inlineStr">
@@ -3409,15 +3409,15 @@
       </c>
       <c r="B74" s="3" t="inlineStr">
         <is>
-          <t>30/06/2025</t>
+          <t>25/06/2025</t>
         </is>
       </c>
       <c r="C74" s="3" t="n">
-        <v>723271</v>
+        <v>724847</v>
       </c>
       <c r="D74" s="3" t="inlineStr">
         <is>
-          <t>CRISTALEIRA 0.7M ALLURE</t>
+          <t>PAINEL HOME MARAGOGI</t>
         </is>
       </c>
       <c r="E74" s="3" t="inlineStr">
@@ -3444,20 +3444,20 @@
     <row r="75">
       <c r="A75" s="4" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="B75" s="4" t="inlineStr">
         <is>
-          <t>07/07/2025</t>
+          <t>25/06/2025</t>
         </is>
       </c>
       <c r="C75" s="4" t="n">
-        <v>720860</v>
+        <v>724848</v>
       </c>
       <c r="D75" s="4" t="inlineStr">
         <is>
-          <t>APARADOR MONACO</t>
+          <t>KIT 8 PES PLASTICO RETANGULAR 100X50X40 ABA U 78X28</t>
         </is>
       </c>
       <c r="E75" s="4" t="inlineStr">
@@ -3489,33 +3489,553 @@
       </c>
       <c r="B76" s="3" t="inlineStr">
         <is>
+          <t>26/06/2025</t>
+        </is>
+      </c>
+      <c r="C76" s="3" t="n">
+        <v>724849</v>
+      </c>
+      <c r="D76" s="3" t="inlineStr">
+        <is>
+          <t>MULTIUSO RETRO  PARTE 1</t>
+        </is>
+      </c>
+      <c r="E76" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F76" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G76" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H76" s="3" t="inlineStr">
+        <is>
+          <t>N/C</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="4" t="inlineStr">
+        <is>
+          <t>VERDE</t>
+        </is>
+      </c>
+      <c r="B77" s="4" t="inlineStr">
+        <is>
+          <t>26/06/2025</t>
+        </is>
+      </c>
+      <c r="C77" s="4" t="n">
+        <v>724851</v>
+      </c>
+      <c r="D77" s="4" t="inlineStr">
+        <is>
+          <t>HOME ELDORADO 2.0</t>
+        </is>
+      </c>
+      <c r="E77" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F77" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G77" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H77" s="4" t="inlineStr">
+        <is>
+          <t>Separar</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="3" t="inlineStr">
+        <is>
+          <t>BRANCO</t>
+        </is>
+      </c>
+      <c r="B78" s="3" t="inlineStr">
+        <is>
+          <t>26/06/2025</t>
+        </is>
+      </c>
+      <c r="C78" s="3" t="n">
+        <v>724852</v>
+      </c>
+      <c r="D78" s="3" t="inlineStr">
+        <is>
+          <t>KIT FITA LED LUZ BRANCA QUENTE 1 FITA (1600MM)</t>
+        </is>
+      </c>
+      <c r="E78" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F78" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G78" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H78" s="3" t="inlineStr">
+        <is>
+          <t>N/C</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="4" t="inlineStr">
+        <is>
+          <t>AZUL</t>
+        </is>
+      </c>
+      <c r="B79" s="4" t="inlineStr">
+        <is>
+          <t>27/06/2025</t>
+        </is>
+      </c>
+      <c r="C79" s="4" t="n">
+        <v>724860</v>
+      </c>
+      <c r="D79" s="4" t="inlineStr">
+        <is>
+          <t>AEREO 1.2M SELENE</t>
+        </is>
+      </c>
+      <c r="E79" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F79" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G79" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H79" s="4" t="inlineStr">
+        <is>
+          <t>N/C</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="3" t="inlineStr">
+        <is>
+          <t>AMARELO</t>
+        </is>
+      </c>
+      <c r="B80" s="3" t="inlineStr">
+        <is>
+          <t>27/06/2025</t>
+        </is>
+      </c>
+      <c r="C80" s="3" t="n">
+        <v>724861</v>
+      </c>
+      <c r="D80" s="3" t="inlineStr">
+        <is>
+          <t>RACK CRONOS 2.2</t>
+        </is>
+      </c>
+      <c r="E80" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F80" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G80" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H80" s="3" t="inlineStr">
+        <is>
+          <t>N/C</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="4" t="inlineStr">
+        <is>
+          <t>VERDE</t>
+        </is>
+      </c>
+      <c r="B81" s="4" t="inlineStr">
+        <is>
+          <t>27/06/2025</t>
+        </is>
+      </c>
+      <c r="C81" s="4" t="n">
+        <v>724862</v>
+      </c>
+      <c r="D81" s="4" t="inlineStr">
+        <is>
+          <t>RACK GOLD</t>
+        </is>
+      </c>
+      <c r="E81" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F81" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G81" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H81" s="4" t="inlineStr">
+        <is>
+          <t>N/C</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="3" t="inlineStr">
+        <is>
+          <t>ROSA</t>
+        </is>
+      </c>
+      <c r="B82" s="3" t="inlineStr">
+        <is>
+          <t>28/06/2025</t>
+        </is>
+      </c>
+      <c r="C82" s="3" t="n">
+        <v>724863</v>
+      </c>
+      <c r="D82" s="3" t="inlineStr">
+        <is>
+          <t>BALCAO 0.8M SELENE</t>
+        </is>
+      </c>
+      <c r="E82" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F82" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G82" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H82" s="3" t="inlineStr">
+        <is>
+          <t>N/C</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="4" t="inlineStr">
+        <is>
+          <t>AZUL</t>
+        </is>
+      </c>
+      <c r="B83" s="4" t="inlineStr">
+        <is>
+          <t>28/06/2025</t>
+        </is>
+      </c>
+      <c r="C83" s="4" t="n">
+        <v>724865</v>
+      </c>
+      <c r="D83" s="4" t="inlineStr">
+        <is>
+          <t>TAMPO BALCAO 1.2M ALLURE/ATENA</t>
+        </is>
+      </c>
+      <c r="E83" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F83" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G83" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H83" s="4" t="inlineStr">
+        <is>
+          <t>N/C</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="3" t="inlineStr">
+        <is>
+          <t>AMARELO</t>
+        </is>
+      </c>
+      <c r="B84" s="3" t="inlineStr">
+        <is>
+          <t>28/06/2025</t>
+        </is>
+      </c>
+      <c r="C84" s="3" t="n">
+        <v>724866</v>
+      </c>
+      <c r="D84" s="3" t="inlineStr">
+        <is>
+          <t>PAINEL HOME HAVANA</t>
+        </is>
+      </c>
+      <c r="E84" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F84" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G84" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H84" s="3" t="inlineStr">
+        <is>
+          <t>N/C</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="4" t="inlineStr">
+        <is>
+          <t>VERDE</t>
+        </is>
+      </c>
+      <c r="B85" s="4" t="inlineStr">
+        <is>
+          <t>28/06/2025</t>
+        </is>
+      </c>
+      <c r="C85" s="4" t="n">
+        <v>724867</v>
+      </c>
+      <c r="D85" s="4" t="inlineStr">
+        <is>
+          <t>PRATELEIRA 1.4</t>
+        </is>
+      </c>
+      <c r="E85" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F85" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G85" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H85" s="4" t="inlineStr">
+        <is>
+          <t>N/C</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="3" t="inlineStr">
+        <is>
+          <t>ROSA</t>
+        </is>
+      </c>
+      <c r="B86" s="3" t="inlineStr">
+        <is>
+          <t>30/06/2025</t>
+        </is>
+      </c>
+      <c r="C86" s="3" t="n">
+        <v>724868</v>
+      </c>
+      <c r="D86" s="3" t="inlineStr">
+        <is>
+          <t>PAINEL HOME LUGANO</t>
+        </is>
+      </c>
+      <c r="E86" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F86" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G86" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H86" s="3" t="inlineStr">
+        <is>
+          <t>N/C</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="4" t="inlineStr">
+        <is>
+          <t>AZUL</t>
+        </is>
+      </c>
+      <c r="B87" s="4" t="inlineStr">
+        <is>
+          <t>30/06/2025</t>
+        </is>
+      </c>
+      <c r="C87" s="4" t="n">
+        <v>723271</v>
+      </c>
+      <c r="D87" s="4" t="inlineStr">
+        <is>
+          <t>CRISTALEIRA 0.7M ALLURE</t>
+        </is>
+      </c>
+      <c r="E87" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F87" s="4" t="inlineStr">
+        <is>
+          <t>Remessa</t>
+        </is>
+      </c>
+      <c r="G87" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H87" s="4" t="inlineStr">
+        <is>
+          <t>Separar</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="3" t="inlineStr">
+        <is>
+          <t>AZUL</t>
+        </is>
+      </c>
+      <c r="B88" s="3" t="inlineStr">
+        <is>
           <t>07/07/2025</t>
         </is>
       </c>
-      <c r="C76" s="3" t="n">
+      <c r="C88" s="3" t="n">
+        <v>720860</v>
+      </c>
+      <c r="D88" s="3" t="inlineStr">
+        <is>
+          <t>APARADOR MONACO</t>
+        </is>
+      </c>
+      <c r="E88" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F88" s="3" t="inlineStr">
+        <is>
+          <t>Remessa</t>
+        </is>
+      </c>
+      <c r="G88" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H88" s="3" t="inlineStr">
+        <is>
+          <t>N/C</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="4" t="inlineStr">
+        <is>
+          <t>AMARELO</t>
+        </is>
+      </c>
+      <c r="B89" s="4" t="inlineStr">
+        <is>
+          <t>07/07/2025</t>
+        </is>
+      </c>
+      <c r="C89" s="4" t="n">
         <v>720861</v>
       </c>
-      <c r="D76" s="3" t="inlineStr">
+      <c r="D89" s="4" t="inlineStr">
         <is>
           <t>MESA DE CENTRO MONACO</t>
         </is>
       </c>
-      <c r="E76" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F76" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G76" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H76" s="3" t="inlineStr">
+      <c r="E89" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F89" s="4" t="inlineStr">
+        <is>
+          <t>Remessa</t>
+        </is>
+      </c>
+      <c r="G89" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H89" s="4" t="inlineStr">
         <is>
           <t>N/C</t>
         </is>

--- a/mapa-producao/Mapa_Producao.xlsx
+++ b/mapa-producao/Mapa_Producao.xlsx
@@ -524,60 +524,60 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>02/06/2025</t>
+          <t>03/06/2025</t>
         </is>
       </c>
       <c r="C2" s="3" t="n">
-        <v>717269</v>
+        <v>719080</v>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>HOME GUARARAPES</t>
+          <t>PAINEL HOME MARAGOGI</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>Mapeado</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>N/C</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Entregue</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>Entregue</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Entregue</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>N/C</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>02/06/2025</t>
+          <t>03/06/2025</t>
         </is>
       </c>
       <c r="C3" s="4" t="n">
-        <v>719080</v>
+        <v>720465</v>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t>PAINEL HOME MARAGOGI</t>
+          <t>HOME ELDORADO 2.0 + REFORCO EMBALAGEM</t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
@@ -592,12 +592,12 @@
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t>Entregue</t>
+          <t>N/C</t>
         </is>
       </c>
       <c r="H3" s="4" t="inlineStr">
         <is>
-          <t>Entregue</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
@@ -609,15 +609,15 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>02/06/2025</t>
+          <t>03/06/2025</t>
         </is>
       </c>
       <c r="C4" s="3" t="n">
-        <v>720465</v>
+        <v>720466</v>
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
-          <t>HOME ELDORADO 2.0 + REFORCO EMBALAGEM</t>
+          <t>HOME GUARARAPES + REFORCO EMBALAGEM</t>
         </is>
       </c>
       <c r="E4" s="3" t="inlineStr">
@@ -649,15 +649,15 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>02/06/2025</t>
+          <t>03/06/2025</t>
         </is>
       </c>
       <c r="C5" s="4" t="n">
-        <v>720466</v>
+        <v>720467</v>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t>HOME GUARARAPES + REFORCO EMBALAGEM</t>
+          <t>PAINEL HOME ALVORADA + REFORCO EMBALAGEM</t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -684,20 +684,20 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>02/06/2025</t>
+          <t>03/06/2025</t>
         </is>
       </c>
       <c r="C6" s="3" t="n">
-        <v>720467</v>
+        <v>719085</v>
       </c>
       <c r="D6" s="3" t="inlineStr">
         <is>
-          <t>PAINEL HOME ALVORADA + REFORCO EMBALAGEM</t>
+          <t>RACK ISTAMBUL</t>
         </is>
       </c>
       <c r="E6" s="3" t="inlineStr">
@@ -707,12 +707,12 @@
       </c>
       <c r="F6" s="3" t="inlineStr">
         <is>
-          <t>N/C</t>
+          <t>Entregue</t>
         </is>
       </c>
       <c r="G6" s="3" t="inlineStr">
         <is>
-          <t>N/C</t>
+          <t>Entregue</t>
         </is>
       </c>
       <c r="H6" s="3" t="inlineStr">
@@ -724,20 +724,20 @@
     <row r="7">
       <c r="A7" s="4" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>02/06/2025</t>
+          <t>03/06/2025</t>
         </is>
       </c>
       <c r="C7" s="4" t="n">
-        <v>719085</v>
+        <v>719086</v>
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t>RACK ISTAMBUL</t>
+          <t>ESTANTE NEW LARA</t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
@@ -764,30 +764,30 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>03/06/2025</t>
+          <t>04/06/2025</t>
         </is>
       </c>
       <c r="C8" s="3" t="n">
-        <v>719086</v>
+        <v>720837</v>
       </c>
       <c r="D8" s="3" t="inlineStr">
         <is>
-          <t>ESTANTE NEW LARA</t>
+          <t>SUPORTE DE TV UNIVERSAL 14 A 71 POLEGADAS + ADAPTADOR</t>
         </is>
       </c>
       <c r="E8" s="3" t="inlineStr">
         <is>
-          <t>Mapeado</t>
+          <t>N/C</t>
         </is>
       </c>
       <c r="F8" s="3" t="inlineStr">
         <is>
-          <t>Entregue</t>
+          <t>N/C</t>
         </is>
       </c>
       <c r="G8" s="3" t="inlineStr">
@@ -804,25 +804,25 @@
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>03/06/2025</t>
+          <t>04/06/2025</t>
         </is>
       </c>
       <c r="C9" s="4" t="n">
-        <v>720837</v>
+        <v>719087</v>
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t>SUPORTE DE TV UNIVERSAL 14 A 71 POLEGADAS + ADAPTADOR</t>
+          <t>CABECEIRA LARANJEIRAS 2.4</t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t>N/C</t>
+          <t>Mapeado</t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
@@ -832,7 +832,7 @@
       </c>
       <c r="G9" s="4" t="inlineStr">
         <is>
-          <t>Parcial</t>
+          <t>Entregue</t>
         </is>
       </c>
       <c r="H9" s="4" t="inlineStr">
@@ -844,25 +844,25 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>03/06/2025</t>
+          <t>04/06/2025</t>
         </is>
       </c>
       <c r="C10" s="3" t="n">
-        <v>719087</v>
+        <v>720849</v>
       </c>
       <c r="D10" s="3" t="inlineStr">
         <is>
-          <t>CABECEIRA LARANJEIRAS 2.4</t>
+          <t>KIT FITA LED LUZ BRANCA QUENTE 1 FITA (1600MM)</t>
         </is>
       </c>
       <c r="E10" s="3" t="inlineStr">
         <is>
-          <t>Mapeado</t>
+          <t>N/C</t>
         </is>
       </c>
       <c r="F10" s="3" t="inlineStr">
@@ -884,25 +884,25 @@
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B11" s="4" t="inlineStr">
         <is>
-          <t>03/06/2025</t>
+          <t>04/06/2025</t>
         </is>
       </c>
       <c r="C11" s="4" t="n">
-        <v>720849</v>
+        <v>719088</v>
       </c>
       <c r="D11" s="4" t="inlineStr">
         <is>
-          <t>KIT FITA LED LUZ BRANCA QUENTE 1 FITA (1600MM)</t>
+          <t>PAINEL HOME ARARUNA</t>
         </is>
       </c>
       <c r="E11" s="4" t="inlineStr">
         <is>
-          <t>N/C</t>
+          <t>Parcial</t>
         </is>
       </c>
       <c r="F11" s="4" t="inlineStr">
@@ -912,7 +912,7 @@
       </c>
       <c r="G11" s="4" t="inlineStr">
         <is>
-          <t>Parcial</t>
+          <t>Entregue</t>
         </is>
       </c>
       <c r="H11" s="4" t="inlineStr">
@@ -924,30 +924,30 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>03/06/2025</t>
+          <t>04/06/2025</t>
         </is>
       </c>
       <c r="C12" s="3" t="n">
-        <v>719088</v>
+        <v>714585</v>
       </c>
       <c r="D12" s="3" t="inlineStr">
         <is>
-          <t>PAINEL HOME ARARUNA</t>
+          <t>RACK SANTORINI</t>
         </is>
       </c>
       <c r="E12" s="3" t="inlineStr">
         <is>
-          <t>Parcial</t>
+          <t>Mapeado</t>
         </is>
       </c>
       <c r="F12" s="3" t="inlineStr">
         <is>
-          <t>N/C</t>
+          <t>Entregue</t>
         </is>
       </c>
       <c r="G12" s="3" t="inlineStr">
@@ -957,27 +957,27 @@
       </c>
       <c r="H12" s="3" t="inlineStr">
         <is>
-          <t>N/C</t>
+          <t>Entregue</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="B13" s="4" t="inlineStr">
         <is>
-          <t>04/06/2025</t>
+          <t>05/06/2025</t>
         </is>
       </c>
       <c r="C13" s="4" t="n">
-        <v>714585</v>
+        <v>719067</v>
       </c>
       <c r="D13" s="4" t="inlineStr">
         <is>
-          <t>RACK SANTORINI</t>
+          <t>HOME GUARARAPES</t>
         </is>
       </c>
       <c r="E13" s="4" t="inlineStr">
@@ -997,27 +997,27 @@
       </c>
       <c r="H13" s="4" t="inlineStr">
         <is>
-          <t>Separar</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>04/06/2025</t>
+          <t>05/06/2025</t>
         </is>
       </c>
       <c r="C14" s="3" t="n">
-        <v>719067</v>
+        <v>714586</v>
       </c>
       <c r="D14" s="3" t="inlineStr">
         <is>
-          <t>HOME GUARARAPES</t>
+          <t>APARADOR MONACO</t>
         </is>
       </c>
       <c r="E14" s="3" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="G14" s="3" t="inlineStr">
         <is>
-          <t>Separado</t>
+          <t>Entregue</t>
         </is>
       </c>
       <c r="H14" s="3" t="inlineStr">
@@ -1044,7 +1044,7 @@
     <row r="15">
       <c r="A15" s="4" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B15" s="4" t="inlineStr">
@@ -1053,11 +1053,11 @@
         </is>
       </c>
       <c r="C15" s="4" t="n">
-        <v>714586</v>
+        <v>714589</v>
       </c>
       <c r="D15" s="4" t="inlineStr">
         <is>
-          <t>APARADOR MONACO</t>
+          <t>MESA DE CENTRO MONACO</t>
         </is>
       </c>
       <c r="E15" s="4" t="inlineStr">
@@ -1084,7 +1084,7 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1093,16 +1093,16 @@
         </is>
       </c>
       <c r="C16" s="3" t="n">
-        <v>714589</v>
+        <v>719090</v>
       </c>
       <c r="D16" s="3" t="inlineStr">
         <is>
-          <t>MESA DE CENTRO MONACO</t>
+          <t>HOME NAPOLI</t>
         </is>
       </c>
       <c r="E16" s="3" t="inlineStr">
         <is>
-          <t>Mapeado</t>
+          <t>Parcial</t>
         </is>
       </c>
       <c r="F16" s="3" t="inlineStr">
@@ -1124,30 +1124,30 @@
     <row r="17">
       <c r="A17" s="4" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B17" s="4" t="inlineStr">
         <is>
-          <t>05/06/2025</t>
+          <t>06/06/2025</t>
         </is>
       </c>
       <c r="C17" s="4" t="n">
-        <v>719090</v>
+        <v>720833</v>
       </c>
       <c r="D17" s="4" t="inlineStr">
         <is>
-          <t>HOME NAPOLI</t>
+          <t>BUFFET EVORA 1.6</t>
         </is>
       </c>
       <c r="E17" s="4" t="inlineStr">
         <is>
-          <t>Parcial</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F17" s="4" t="inlineStr">
         <is>
-          <t>Entregue</t>
+          <t>Remessa</t>
         </is>
       </c>
       <c r="G17" s="4" t="inlineStr">
@@ -1164,20 +1164,20 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>05/06/2025</t>
+          <t>06/06/2025</t>
         </is>
       </c>
       <c r="C18" s="3" t="n">
-        <v>720833</v>
+        <v>717275</v>
       </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t>BUFFET EVORA 1.6</t>
+          <t>HOME ELDORADO 2.0 JAMAR</t>
         </is>
       </c>
       <c r="E18" s="3" t="inlineStr">
@@ -1192,19 +1192,19 @@
       </c>
       <c r="G18" s="3" t="inlineStr">
         <is>
-          <t>Parcial</t>
+          <t>Separado</t>
         </is>
       </c>
       <c r="H18" s="3" t="inlineStr">
         <is>
-          <t>N/C</t>
+          <t>Entregue</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="4" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B19" s="4" t="inlineStr">
@@ -1213,11 +1213,11 @@
         </is>
       </c>
       <c r="C19" s="4" t="n">
-        <v>720834</v>
+        <v>715952</v>
       </c>
       <c r="D19" s="4" t="inlineStr">
         <is>
-          <t>RACK ESMERALDA</t>
+          <t>APARADOR LISBOA</t>
         </is>
       </c>
       <c r="E19" s="4" t="inlineStr">
@@ -1227,12 +1227,12 @@
       </c>
       <c r="F19" s="4" t="inlineStr">
         <is>
-          <t>Remessa</t>
+          <t>N/C</t>
         </is>
       </c>
       <c r="G19" s="4" t="inlineStr">
         <is>
-          <t>Parcial</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H19" s="4" t="inlineStr">
@@ -1244,7 +1244,7 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1253,11 +1253,11 @@
         </is>
       </c>
       <c r="C20" s="3" t="n">
-        <v>720835</v>
+        <v>715953</v>
       </c>
       <c r="D20" s="3" t="inlineStr">
         <is>
-          <t>PAINEL HOME HAVANA</t>
+          <t>MESA DE CENTRO LISBOA</t>
         </is>
       </c>
       <c r="E20" s="3" t="inlineStr">
@@ -1272,7 +1272,7 @@
       </c>
       <c r="G20" s="3" t="inlineStr">
         <is>
-          <t>Parcial</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H20" s="3" t="inlineStr">
@@ -1284,7 +1284,7 @@
     <row r="21">
       <c r="A21" s="4" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B21" s="4" t="inlineStr">
@@ -1293,11 +1293,11 @@
         </is>
       </c>
       <c r="C21" s="4" t="n">
-        <v>717275</v>
+        <v>720834</v>
       </c>
       <c r="D21" s="4" t="inlineStr">
         <is>
-          <t>HOME ELDORADO 2.0 JAMAR</t>
+          <t>RACK ESMERALDA</t>
         </is>
       </c>
       <c r="E21" s="4" t="inlineStr">
@@ -1312,19 +1312,19 @@
       </c>
       <c r="G21" s="4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Entregue</t>
         </is>
       </c>
       <c r="H21" s="4" t="inlineStr">
         <is>
-          <t>Separar</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
@@ -1333,11 +1333,11 @@
         </is>
       </c>
       <c r="C22" s="3" t="n">
-        <v>720836</v>
+        <v>720835</v>
       </c>
       <c r="D22" s="3" t="inlineStr">
         <is>
-          <t>BUFFET 1.4 LUCCA PARTE 3</t>
+          <t>PAINEL HOME HAVANA</t>
         </is>
       </c>
       <c r="E22" s="3" t="inlineStr">
@@ -1364,7 +1364,7 @@
     <row r="23">
       <c r="A23" s="4" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B23" s="4" t="inlineStr">
@@ -1373,11 +1373,11 @@
         </is>
       </c>
       <c r="C23" s="4" t="n">
-        <v>720838</v>
+        <v>720836</v>
       </c>
       <c r="D23" s="4" t="inlineStr">
         <is>
-          <t>PAINEL HOME LUGANO</t>
+          <t>BUFFET 1.4 LUCCA PARTE 3</t>
         </is>
       </c>
       <c r="E23" s="4" t="inlineStr">
@@ -1397,14 +1397,14 @@
       </c>
       <c r="H23" s="4" t="inlineStr">
         <is>
-          <t>N/C</t>
+          <t>Separar</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1413,11 +1413,11 @@
         </is>
       </c>
       <c r="C24" s="3" t="n">
-        <v>720839</v>
+        <v>720838</v>
       </c>
       <c r="D24" s="3" t="inlineStr">
         <is>
-          <t>AEREO 1.2M ALLURE</t>
+          <t>PAINEL HOME LUGANO</t>
         </is>
       </c>
       <c r="E24" s="3" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="F24" s="3" t="inlineStr">
         <is>
-          <t>Remessa</t>
+          <t>N/C</t>
         </is>
       </c>
       <c r="G24" s="3" t="inlineStr">
@@ -1437,14 +1437,14 @@
       </c>
       <c r="H24" s="3" t="inlineStr">
         <is>
-          <t>Separar</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="4" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B25" s="4" t="inlineStr">
@@ -1453,11 +1453,11 @@
         </is>
       </c>
       <c r="C25" s="4" t="n">
-        <v>720840</v>
+        <v>720839</v>
       </c>
       <c r="D25" s="4" t="inlineStr">
         <is>
-          <t>HOME ELDORADO 2.0</t>
+          <t>AEREO 1.2M ALLURE</t>
         </is>
       </c>
       <c r="E25" s="4" t="inlineStr">
@@ -1484,20 +1484,20 @@
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>10/06/2025</t>
+          <t>09/06/2025</t>
         </is>
       </c>
       <c r="C26" s="3" t="n">
-        <v>720841</v>
+        <v>720840</v>
       </c>
       <c r="D26" s="3" t="inlineStr">
         <is>
-          <t>PAINEL GENOVA 2.0</t>
+          <t>HOME ELDORADO 2.0</t>
         </is>
       </c>
       <c r="E26" s="3" t="inlineStr">
@@ -1517,14 +1517,14 @@
       </c>
       <c r="H26" s="3" t="inlineStr">
         <is>
-          <t>N/C</t>
+          <t>Separar</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="4" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B27" s="4" t="inlineStr">
@@ -1533,11 +1533,11 @@
         </is>
       </c>
       <c r="C27" s="4" t="n">
-        <v>720843</v>
+        <v>720841</v>
       </c>
       <c r="D27" s="4" t="inlineStr">
         <is>
-          <t>BUFFET 1.4 LUCCA PARTE 2</t>
+          <t>PAINEL GENOVA 2.0</t>
         </is>
       </c>
       <c r="E27" s="4" t="inlineStr">
@@ -1547,12 +1547,12 @@
       </c>
       <c r="F27" s="4" t="inlineStr">
         <is>
-          <t>N/C</t>
+          <t>Remessa</t>
         </is>
       </c>
       <c r="G27" s="4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Parcial</t>
         </is>
       </c>
       <c r="H27" s="4" t="inlineStr">
@@ -1564,7 +1564,7 @@
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1573,11 +1573,11 @@
         </is>
       </c>
       <c r="C28" s="3" t="n">
-        <v>720844</v>
+        <v>720843</v>
       </c>
       <c r="D28" s="3" t="inlineStr">
         <is>
-          <t>KIT FITA LED COB 9W BRANCA QUENTE 1 FITA (1150MM) - RACK SANTORINI</t>
+          <t>BUFFET 1.4 LUCCA PARTE 2</t>
         </is>
       </c>
       <c r="E28" s="3" t="inlineStr">
@@ -1592,19 +1592,19 @@
       </c>
       <c r="G28" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/C</t>
         </is>
       </c>
       <c r="H28" s="3" t="inlineStr">
         <is>
-          <t>Separar</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="4" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="B29" s="4" t="inlineStr">
@@ -1613,11 +1613,11 @@
         </is>
       </c>
       <c r="C29" s="4" t="n">
-        <v>715952</v>
+        <v>720844</v>
       </c>
       <c r="D29" s="4" t="inlineStr">
         <is>
-          <t>APARADOR LISBOA</t>
+          <t>KIT FITA LED COB 9W BRANCA QUENTE 1 FITA (1150MM) - RACK SANTORINI</t>
         </is>
       </c>
       <c r="E29" s="4" t="inlineStr">
@@ -1632,7 +1632,7 @@
       </c>
       <c r="G29" s="4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Parcial</t>
         </is>
       </c>
       <c r="H29" s="4" t="inlineStr">
@@ -1653,11 +1653,11 @@
         </is>
       </c>
       <c r="C30" s="3" t="n">
-        <v>715953</v>
+        <v>720845</v>
       </c>
       <c r="D30" s="3" t="inlineStr">
         <is>
-          <t>MESA DE CENTRO LISBOA</t>
+          <t>PAINEL HOME ALVORADA</t>
         </is>
       </c>
       <c r="E30" s="3" t="inlineStr">
@@ -1667,7 +1667,7 @@
       </c>
       <c r="F30" s="3" t="inlineStr">
         <is>
-          <t>N/C</t>
+          <t>Remessa</t>
         </is>
       </c>
       <c r="G30" s="3" t="inlineStr">
@@ -1684,20 +1684,20 @@
     <row r="31">
       <c r="A31" s="4" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="B31" s="4" t="inlineStr">
         <is>
-          <t>10/06/2025</t>
+          <t>11/06/2025</t>
         </is>
       </c>
       <c r="C31" s="4" t="n">
-        <v>720845</v>
+        <v>720846</v>
       </c>
       <c r="D31" s="4" t="inlineStr">
         <is>
-          <t>PAINEL HOME ALVORADA</t>
+          <t>TAMPO BALCAO 1.2M SELENE</t>
         </is>
       </c>
       <c r="E31" s="4" t="inlineStr">
@@ -1707,12 +1707,12 @@
       </c>
       <c r="F31" s="4" t="inlineStr">
         <is>
-          <t>Remessa</t>
+          <t>N/C</t>
         </is>
       </c>
       <c r="G31" s="4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/C</t>
         </is>
       </c>
       <c r="H31" s="4" t="inlineStr">
@@ -1724,20 +1724,20 @@
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>10/06/2025</t>
+          <t>11/06/2025</t>
         </is>
       </c>
       <c r="C32" s="3" t="n">
-        <v>720846</v>
+        <v>720847</v>
       </c>
       <c r="D32" s="3" t="inlineStr">
         <is>
-          <t>TAMPO BALCAO 1.2M SELENE</t>
+          <t>AEREO 1.2M SELENE</t>
         </is>
       </c>
       <c r="E32" s="3" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="F32" s="3" t="inlineStr">
         <is>
-          <t>N/C</t>
+          <t>Remessa</t>
         </is>
       </c>
       <c r="G32" s="3" t="inlineStr">
@@ -1764,20 +1764,20 @@
     <row r="33">
       <c r="A33" s="4" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B33" s="4" t="inlineStr">
         <is>
-          <t>10/06/2025</t>
+          <t>11/06/2025</t>
         </is>
       </c>
       <c r="C33" s="4" t="n">
-        <v>720847</v>
+        <v>720848</v>
       </c>
       <c r="D33" s="4" t="inlineStr">
         <is>
-          <t>AEREO 1.2M SELENE</t>
+          <t>PAINEL EXTENSIVEL TULUM</t>
         </is>
       </c>
       <c r="E33" s="4" t="inlineStr">
@@ -1787,7 +1787,7 @@
       </c>
       <c r="F33" s="4" t="inlineStr">
         <is>
-          <t>Remessa</t>
+          <t>N/C</t>
         </is>
       </c>
       <c r="G33" s="4" t="inlineStr">
@@ -1804,7 +1804,7 @@
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
@@ -1813,11 +1813,11 @@
         </is>
       </c>
       <c r="C34" s="3" t="n">
-        <v>720848</v>
+        <v>720850</v>
       </c>
       <c r="D34" s="3" t="inlineStr">
         <is>
-          <t>PAINEL EXTENSIVEL TULUM</t>
+          <t>RACK DUBAI 1.8</t>
         </is>
       </c>
       <c r="E34" s="3" t="inlineStr">
@@ -1827,7 +1827,7 @@
       </c>
       <c r="F34" s="3" t="inlineStr">
         <is>
-          <t>N/C</t>
+          <t>Remessa</t>
         </is>
       </c>
       <c r="G34" s="3" t="inlineStr">
@@ -1844,7 +1844,7 @@
     <row r="35">
       <c r="A35" s="4" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="B35" s="4" t="inlineStr">
@@ -1853,11 +1853,11 @@
         </is>
       </c>
       <c r="C35" s="4" t="n">
-        <v>720850</v>
+        <v>720851</v>
       </c>
       <c r="D35" s="4" t="inlineStr">
         <is>
-          <t>RACK DUBAI 1.8</t>
+          <t>RACK COLORADO</t>
         </is>
       </c>
       <c r="E35" s="4" t="inlineStr">
@@ -1884,20 +1884,20 @@
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>11/06/2025</t>
+          <t>12/06/2025</t>
         </is>
       </c>
       <c r="C36" s="3" t="n">
-        <v>720851</v>
+        <v>720852</v>
       </c>
       <c r="D36" s="3" t="inlineStr">
         <is>
-          <t>RACK COLORADO</t>
+          <t>PAINEL HOME FRIBURGO</t>
         </is>
       </c>
       <c r="E36" s="3" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="F36" s="3" t="inlineStr">
         <is>
-          <t>Remessa</t>
+          <t>N/C</t>
         </is>
       </c>
       <c r="G36" s="3" t="inlineStr">
@@ -1924,20 +1924,20 @@
     <row r="37">
       <c r="A37" s="4" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B37" s="4" t="inlineStr">
         <is>
-          <t>11/06/2025</t>
+          <t>12/06/2025</t>
         </is>
       </c>
       <c r="C37" s="4" t="n">
-        <v>720852</v>
+        <v>720853</v>
       </c>
       <c r="D37" s="4" t="inlineStr">
         <is>
-          <t>PAINEL HOME FRIBURGO</t>
+          <t>AEREO DUPLO 0.8M SELENE</t>
         </is>
       </c>
       <c r="E37" s="4" t="inlineStr">
@@ -1947,7 +1947,7 @@
       </c>
       <c r="F37" s="4" t="inlineStr">
         <is>
-          <t>N/C</t>
+          <t>Remessa</t>
         </is>
       </c>
       <c r="G37" s="4" t="inlineStr">
@@ -1964,7 +1964,7 @@
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
@@ -1973,11 +1973,11 @@
         </is>
       </c>
       <c r="C38" s="3" t="n">
-        <v>720853</v>
+        <v>720855</v>
       </c>
       <c r="D38" s="3" t="inlineStr">
         <is>
-          <t>AEREO DUPLO 0.8M SELENE</t>
+          <t>RACK CRONOS 1.8</t>
         </is>
       </c>
       <c r="E38" s="3" t="inlineStr">
@@ -2004,7 +2004,7 @@
     <row r="39">
       <c r="A39" s="4" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="B39" s="4" t="inlineStr">
@@ -2013,11 +2013,11 @@
         </is>
       </c>
       <c r="C39" s="4" t="n">
-        <v>720855</v>
+        <v>720856</v>
       </c>
       <c r="D39" s="4" t="inlineStr">
         <is>
-          <t>RACK CRONOS 1.8</t>
+          <t>HOME VIENA</t>
         </is>
       </c>
       <c r="E39" s="4" t="inlineStr">
@@ -2044,7 +2044,7 @@
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
@@ -2053,11 +2053,11 @@
         </is>
       </c>
       <c r="C40" s="3" t="n">
-        <v>720856</v>
+        <v>720857</v>
       </c>
       <c r="D40" s="3" t="inlineStr">
         <is>
-          <t>HOME VIENA</t>
+          <t>PRATELEIRA 2.2</t>
         </is>
       </c>
       <c r="E40" s="3" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="F40" s="3" t="inlineStr">
         <is>
-          <t>Remessa</t>
+          <t>N/C</t>
         </is>
       </c>
       <c r="G40" s="3" t="inlineStr">
@@ -2084,20 +2084,20 @@
     <row r="41">
       <c r="A41" s="4" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B41" s="4" t="inlineStr">
         <is>
-          <t>12/06/2025</t>
+          <t>13/06/2025</t>
         </is>
       </c>
       <c r="C41" s="4" t="n">
-        <v>720857</v>
+        <v>720858</v>
       </c>
       <c r="D41" s="4" t="inlineStr">
         <is>
-          <t>PRATELEIRA 2.2</t>
+          <t>MULTIUSO RETRO MARSALA  PARTE 2</t>
         </is>
       </c>
       <c r="E41" s="4" t="inlineStr">
@@ -2124,20 +2124,20 @@
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>12/06/2025</t>
+          <t>13/06/2025</t>
         </is>
       </c>
       <c r="C42" s="3" t="n">
-        <v>720858</v>
+        <v>719069</v>
       </c>
       <c r="D42" s="3" t="inlineStr">
         <is>
-          <t>MULTIUSO RETRO MARSALA  PARTE 2</t>
+          <t>MODULO RIPADO 0.4</t>
         </is>
       </c>
       <c r="E42" s="3" t="inlineStr">
@@ -2164,20 +2164,20 @@
     <row r="43">
       <c r="A43" s="4" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B43" s="4" t="inlineStr">
         <is>
-          <t>12/06/2025</t>
+          <t>13/06/2025</t>
         </is>
       </c>
       <c r="C43" s="4" t="n">
-        <v>719069</v>
+        <v>719071</v>
       </c>
       <c r="D43" s="4" t="inlineStr">
         <is>
-          <t>MODULO RIPADO 0.4</t>
+          <t>PAINEL RIPADO MODULAR 1.4</t>
         </is>
       </c>
       <c r="E43" s="4" t="inlineStr">
@@ -2187,7 +2187,7 @@
       </c>
       <c r="F43" s="4" t="inlineStr">
         <is>
-          <t>N/C</t>
+          <t>Remessa</t>
         </is>
       </c>
       <c r="G43" s="4" t="inlineStr">
@@ -2213,11 +2213,11 @@
         </is>
       </c>
       <c r="C44" s="3" t="n">
-        <v>719071</v>
+        <v>719091</v>
       </c>
       <c r="D44" s="3" t="inlineStr">
         <is>
-          <t>PAINEL RIPADO MODULAR 1.4</t>
+          <t>PRATELEIRA CURVA 2.2</t>
         </is>
       </c>
       <c r="E44" s="3" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="F44" s="3" t="inlineStr">
         <is>
-          <t>Remessa</t>
+          <t>N/C</t>
         </is>
       </c>
       <c r="G44" s="3" t="inlineStr">
@@ -2253,11 +2253,11 @@
         </is>
       </c>
       <c r="C45" s="4" t="n">
-        <v>719091</v>
+        <v>719082</v>
       </c>
       <c r="D45" s="4" t="inlineStr">
         <is>
-          <t>PRATELEIRA CURVA 2.2</t>
+          <t>PRATELEIRA CURVA 1.4</t>
         </is>
       </c>
       <c r="E45" s="4" t="inlineStr">
@@ -2284,7 +2284,7 @@
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B46" s="3" t="inlineStr">
@@ -2293,16 +2293,16 @@
         </is>
       </c>
       <c r="C46" s="3" t="n">
-        <v>719082</v>
+        <v>719089</v>
       </c>
       <c r="D46" s="3" t="inlineStr">
         <is>
-          <t>PRATELEIRA CURVA 1.4</t>
+          <t>NICHO CURVO 1.4</t>
         </is>
       </c>
       <c r="E46" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Parcial</t>
         </is>
       </c>
       <c r="F46" s="3" t="inlineStr">
@@ -2312,7 +2312,7 @@
       </c>
       <c r="G46" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Entregue</t>
         </is>
       </c>
       <c r="H46" s="3" t="inlineStr">
@@ -2324,7 +2324,7 @@
     <row r="47">
       <c r="A47" s="4" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="B47" s="4" t="inlineStr">
@@ -2333,16 +2333,16 @@
         </is>
       </c>
       <c r="C47" s="4" t="n">
-        <v>719089</v>
+        <v>719070</v>
       </c>
       <c r="D47" s="4" t="inlineStr">
         <is>
-          <t>NICHO CURVO 1.4</t>
+          <t>NICHO CURVO 2.2</t>
         </is>
       </c>
       <c r="E47" s="4" t="inlineStr">
         <is>
-          <t>Parcial</t>
+          <t>Mapeado</t>
         </is>
       </c>
       <c r="F47" s="4" t="inlineStr">
@@ -2364,7 +2364,7 @@
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B48" s="3" t="inlineStr">
@@ -2373,26 +2373,26 @@
         </is>
       </c>
       <c r="C48" s="3" t="n">
-        <v>719070</v>
+        <v>723251</v>
       </c>
       <c r="D48" s="3" t="inlineStr">
         <is>
-          <t>NICHO CURVO 2.2</t>
+          <t>TORRE QUENTE 0.65M SELENE</t>
         </is>
       </c>
       <c r="E48" s="3" t="inlineStr">
         <is>
-          <t>Mapeado</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F48" s="3" t="inlineStr">
         <is>
-          <t>N/C</t>
+          <t>Remessa</t>
         </is>
       </c>
       <c r="G48" s="3" t="inlineStr">
         <is>
-          <t>Entregue</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H48" s="3" t="inlineStr">
@@ -2404,7 +2404,7 @@
     <row r="49">
       <c r="A49" s="4" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="B49" s="4" t="inlineStr">
@@ -2413,11 +2413,11 @@
         </is>
       </c>
       <c r="C49" s="4" t="n">
-        <v>723251</v>
+        <v>723252</v>
       </c>
       <c r="D49" s="4" t="inlineStr">
         <is>
-          <t>TORRE QUENTE 0.65M SELENE</t>
+          <t>BALCAO 1.2M SELENE</t>
         </is>
       </c>
       <c r="E49" s="4" t="inlineStr">
@@ -2444,20 +2444,20 @@
     <row r="50">
       <c r="A50" s="3" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>13/06/2025</t>
+          <t>16/06/2025</t>
         </is>
       </c>
       <c r="C50" s="3" t="n">
-        <v>723252</v>
+        <v>723254</v>
       </c>
       <c r="D50" s="3" t="inlineStr">
         <is>
-          <t>BALCAO 1.2M SELENE</t>
+          <t>TAMPO BALCAO 1.2M SELENE</t>
         </is>
       </c>
       <c r="E50" s="3" t="inlineStr">
@@ -2467,7 +2467,7 @@
       </c>
       <c r="F50" s="3" t="inlineStr">
         <is>
-          <t>Remessa</t>
+          <t>N/C</t>
         </is>
       </c>
       <c r="G50" s="3" t="inlineStr">
@@ -2484,20 +2484,20 @@
     <row r="51">
       <c r="A51" s="4" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B51" s="4" t="inlineStr">
         <is>
-          <t>13/06/2025</t>
+          <t>16/06/2025</t>
         </is>
       </c>
       <c r="C51" s="4" t="n">
-        <v>723254</v>
+        <v>723255</v>
       </c>
       <c r="D51" s="4" t="inlineStr">
         <is>
-          <t>TAMPO BALCAO 1.2M SELENE</t>
+          <t>RACK ESMERALDA</t>
         </is>
       </c>
       <c r="E51" s="4" t="inlineStr">
@@ -2507,7 +2507,7 @@
       </c>
       <c r="F51" s="4" t="inlineStr">
         <is>
-          <t>N/C</t>
+          <t>Remessa</t>
         </is>
       </c>
       <c r="G51" s="4" t="inlineStr">
@@ -2524,20 +2524,20 @@
     <row r="52">
       <c r="A52" s="3" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>13/06/2025</t>
+          <t>16/06/2025</t>
         </is>
       </c>
       <c r="C52" s="3" t="n">
-        <v>723255</v>
+        <v>723256</v>
       </c>
       <c r="D52" s="3" t="inlineStr">
         <is>
-          <t>RACK ESMERALDA</t>
+          <t>KIT FITA LED LUZ BRANCA QUENTE 2 FITAS (1800MM) (FLOCO ISOPOR)</t>
         </is>
       </c>
       <c r="E52" s="3" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="F52" s="3" t="inlineStr">
         <is>
-          <t>Remessa</t>
+          <t>N/C</t>
         </is>
       </c>
       <c r="G52" s="3" t="inlineStr">
@@ -2564,20 +2564,20 @@
     <row r="53">
       <c r="A53" s="4" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B53" s="4" t="inlineStr">
         <is>
-          <t>13/06/2025</t>
+          <t>16/06/2025</t>
         </is>
       </c>
       <c r="C53" s="4" t="n">
-        <v>723256</v>
+        <v>723257</v>
       </c>
       <c r="D53" s="4" t="inlineStr">
         <is>
-          <t>KIT FITA LED LUZ BRANCA QUENTE 2 FITAS (1800MM) (FLOCO ISOPOR)</t>
+          <t>BALCAO 0.8M SELENE</t>
         </is>
       </c>
       <c r="E53" s="4" t="inlineStr">
@@ -2587,7 +2587,7 @@
       </c>
       <c r="F53" s="4" t="inlineStr">
         <is>
-          <t>N/C</t>
+          <t>Remessa</t>
         </is>
       </c>
       <c r="G53" s="4" t="inlineStr">
@@ -2604,7 +2604,7 @@
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="B54" s="3" t="inlineStr">
@@ -2613,11 +2613,11 @@
         </is>
       </c>
       <c r="C54" s="3" t="n">
-        <v>723257</v>
+        <v>723258</v>
       </c>
       <c r="D54" s="3" t="inlineStr">
         <is>
-          <t>BALCAO 0.8M SELENE</t>
+          <t>HOME ELDORADO 2.0</t>
         </is>
       </c>
       <c r="E54" s="3" t="inlineStr">
@@ -2637,27 +2637,27 @@
       </c>
       <c r="H54" s="3" t="inlineStr">
         <is>
-          <t>N/C</t>
+          <t>Separar</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="4" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B55" s="4" t="inlineStr">
         <is>
-          <t>16/06/2025</t>
+          <t>17/06/2025</t>
         </is>
       </c>
       <c r="C55" s="4" t="n">
-        <v>723258</v>
+        <v>723259</v>
       </c>
       <c r="D55" s="4" t="inlineStr">
         <is>
-          <t>HOME ELDORADO 2.0</t>
+          <t>HOME ATLANTA</t>
         </is>
       </c>
       <c r="E55" s="4" t="inlineStr">
@@ -2677,27 +2677,27 @@
       </c>
       <c r="H55" s="4" t="inlineStr">
         <is>
-          <t>Separar</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t>16/06/2025</t>
+          <t>17/06/2025</t>
         </is>
       </c>
       <c r="C56" s="3" t="n">
-        <v>723259</v>
+        <v>723260</v>
       </c>
       <c r="D56" s="3" t="inlineStr">
         <is>
-          <t>HOME ATLANTA</t>
+          <t>PAINEL RIPADO MODULAR 1.4</t>
         </is>
       </c>
       <c r="E56" s="3" t="inlineStr">
@@ -2724,7 +2724,7 @@
     <row r="57">
       <c r="A57" s="4" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B57" s="4" t="inlineStr">
@@ -2733,11 +2733,11 @@
         </is>
       </c>
       <c r="C57" s="4" t="n">
-        <v>723260</v>
+        <v>723261</v>
       </c>
       <c r="D57" s="4" t="inlineStr">
         <is>
-          <t>PAINEL RIPADO MODULAR 1.4</t>
+          <t>MODULO RIPADO 0.4</t>
         </is>
       </c>
       <c r="E57" s="4" t="inlineStr">
@@ -2747,7 +2747,7 @@
       </c>
       <c r="F57" s="4" t="inlineStr">
         <is>
-          <t>Remessa</t>
+          <t>N/C</t>
         </is>
       </c>
       <c r="G57" s="4" t="inlineStr">
@@ -2764,7 +2764,7 @@
     <row r="58">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="B58" s="3" t="inlineStr">
@@ -2773,11 +2773,11 @@
         </is>
       </c>
       <c r="C58" s="3" t="n">
-        <v>723261</v>
+        <v>723262</v>
       </c>
       <c r="D58" s="3" t="inlineStr">
         <is>
-          <t>MODULO RIPADO 0.4</t>
+          <t>HOME ALAGOAS</t>
         </is>
       </c>
       <c r="E58" s="3" t="inlineStr">
@@ -2804,20 +2804,20 @@
     <row r="59">
       <c r="A59" s="4" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="B59" s="4" t="inlineStr">
         <is>
-          <t>17/06/2025</t>
+          <t>18/06/2025</t>
         </is>
       </c>
       <c r="C59" s="4" t="n">
-        <v>723262</v>
+        <v>723263</v>
       </c>
       <c r="D59" s="4" t="inlineStr">
         <is>
-          <t>HOME ALAGOAS</t>
+          <t>KIT FITA LED LUZ BRANCA QUENTE 1 FITA (1600MM)</t>
         </is>
       </c>
       <c r="E59" s="4" t="inlineStr">
@@ -2844,20 +2844,20 @@
     <row r="60">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>17/06/2025</t>
+          <t>18/06/2025</t>
         </is>
       </c>
       <c r="C60" s="3" t="n">
-        <v>723263</v>
+        <v>723264</v>
       </c>
       <c r="D60" s="3" t="inlineStr">
         <is>
-          <t>KIT FITA LED LUZ BRANCA QUENTE 1 FITA (1600MM)</t>
+          <t>RACK DUBAI 1.6</t>
         </is>
       </c>
       <c r="E60" s="3" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="F60" s="3" t="inlineStr">
         <is>
-          <t>N/C</t>
+          <t>Remessa</t>
         </is>
       </c>
       <c r="G60" s="3" t="inlineStr">
@@ -2884,7 +2884,7 @@
     <row r="61">
       <c r="A61" s="4" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B61" s="4" t="inlineStr">
@@ -2893,11 +2893,11 @@
         </is>
       </c>
       <c r="C61" s="4" t="n">
-        <v>723264</v>
+        <v>723265</v>
       </c>
       <c r="D61" s="4" t="inlineStr">
         <is>
-          <t>RACK DUBAI 1.6</t>
+          <t>CABECEIRA ILHABELA</t>
         </is>
       </c>
       <c r="E61" s="4" t="inlineStr">
@@ -2907,7 +2907,7 @@
       </c>
       <c r="F61" s="4" t="inlineStr">
         <is>
-          <t>Remessa</t>
+          <t>N/C</t>
         </is>
       </c>
       <c r="G61" s="4" t="inlineStr">
@@ -2924,7 +2924,7 @@
     <row r="62">
       <c r="A62" s="3" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B62" s="3" t="inlineStr">
@@ -2933,11 +2933,11 @@
         </is>
       </c>
       <c r="C62" s="3" t="n">
-        <v>723265</v>
+        <v>723266</v>
       </c>
       <c r="D62" s="3" t="inlineStr">
         <is>
-          <t>CABECEIRA ILHABELA</t>
+          <t>PAINEL HOME ARARUNA</t>
         </is>
       </c>
       <c r="E62" s="3" t="inlineStr">
@@ -2964,20 +2964,20 @@
     <row r="63">
       <c r="A63" s="4" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="B63" s="4" t="inlineStr">
         <is>
-          <t>18/06/2025</t>
+          <t>23/06/2025</t>
         </is>
       </c>
       <c r="C63" s="4" t="n">
-        <v>723266</v>
+        <v>723267</v>
       </c>
       <c r="D63" s="4" t="inlineStr">
         <is>
-          <t>PAINEL HOME ARARUNA</t>
+          <t>PAINEL SANTORINI</t>
         </is>
       </c>
       <c r="E63" s="4" t="inlineStr">
@@ -2987,7 +2987,7 @@
       </c>
       <c r="F63" s="4" t="inlineStr">
         <is>
-          <t>N/C</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G63" s="4" t="inlineStr">
@@ -3004,20 +3004,20 @@
     <row r="64">
       <c r="A64" s="3" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>18/06/2025</t>
+          <t>23/06/2025</t>
         </is>
       </c>
       <c r="C64" s="3" t="n">
-        <v>723267</v>
+        <v>720859</v>
       </c>
       <c r="D64" s="3" t="inlineStr">
         <is>
-          <t>PAINEL SANTORINI</t>
+          <t>BUFFET RETRO 1.4 PARTE 1</t>
         </is>
       </c>
       <c r="E64" s="3" t="inlineStr">
@@ -3027,7 +3027,7 @@
       </c>
       <c r="F64" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Remessa</t>
         </is>
       </c>
       <c r="G64" s="3" t="inlineStr">
@@ -3044,7 +3044,7 @@
     <row r="65">
       <c r="A65" s="4" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B65" s="4" t="inlineStr">
@@ -3053,11 +3053,11 @@
         </is>
       </c>
       <c r="C65" s="4" t="n">
-        <v>720859</v>
+        <v>723189</v>
       </c>
       <c r="D65" s="4" t="inlineStr">
         <is>
-          <t>BUFFET RETRO 1.4 PARTE 1</t>
+          <t>HOME MUNIQUE</t>
         </is>
       </c>
       <c r="E65" s="4" t="inlineStr">
@@ -3084,7 +3084,7 @@
     <row r="66">
       <c r="A66" s="3" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B66" s="3" t="inlineStr">
@@ -3093,11 +3093,11 @@
         </is>
       </c>
       <c r="C66" s="3" t="n">
-        <v>723189</v>
+        <v>723268</v>
       </c>
       <c r="D66" s="3" t="inlineStr">
         <is>
-          <t>HOME MUNIQUE</t>
+          <t>CRISTALEIRA 0.65M SELENE</t>
         </is>
       </c>
       <c r="E66" s="3" t="inlineStr">
@@ -3107,7 +3107,7 @@
       </c>
       <c r="F66" s="3" t="inlineStr">
         <is>
-          <t>Remessa</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G66" s="3" t="inlineStr">
@@ -3117,7 +3117,7 @@
       </c>
       <c r="H66" s="3" t="inlineStr">
         <is>
-          <t>N/C</t>
+          <t>Separar</t>
         </is>
       </c>
     </row>
@@ -3129,7 +3129,7 @@
       </c>
       <c r="B67" s="4" t="inlineStr">
         <is>
-          <t>23/06/2025</t>
+          <t>24/06/2025</t>
         </is>
       </c>
       <c r="C67" s="4" t="n">
@@ -3169,7 +3169,7 @@
       </c>
       <c r="B68" s="3" t="inlineStr">
         <is>
-          <t>23/06/2025</t>
+          <t>24/06/2025</t>
         </is>
       </c>
       <c r="C68" s="3" t="n">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="B71" s="4" t="inlineStr">
         <is>
-          <t>24/06/2025</t>
+          <t>25/06/2025</t>
         </is>
       </c>
       <c r="C71" s="4" t="n">
@@ -3409,7 +3409,7 @@
       </c>
       <c r="B74" s="3" t="inlineStr">
         <is>
-          <t>25/06/2025</t>
+          <t>26/06/2025</t>
         </is>
       </c>
       <c r="C74" s="3" t="n">
@@ -3449,7 +3449,7 @@
       </c>
       <c r="B75" s="4" t="inlineStr">
         <is>
-          <t>25/06/2025</t>
+          <t>26/06/2025</t>
         </is>
       </c>
       <c r="C75" s="4" t="n">
@@ -3569,7 +3569,7 @@
       </c>
       <c r="B78" s="3" t="inlineStr">
         <is>
-          <t>26/06/2025</t>
+          <t>27/06/2025</t>
         </is>
       </c>
       <c r="C78" s="3" t="n">
@@ -3689,7 +3689,7 @@
       </c>
       <c r="B81" s="4" t="inlineStr">
         <is>
-          <t>27/06/2025</t>
+          <t>28/06/2025</t>
         </is>
       </c>
       <c r="C81" s="4" t="n">
@@ -3809,7 +3809,7 @@
       </c>
       <c r="B84" s="3" t="inlineStr">
         <is>
-          <t>28/06/2025</t>
+          <t>30/06/2025</t>
         </is>
       </c>
       <c r="C84" s="3" t="n">
@@ -3849,7 +3849,7 @@
       </c>
       <c r="B85" s="4" t="inlineStr">
         <is>
-          <t>28/06/2025</t>
+          <t>30/06/2025</t>
         </is>
       </c>
       <c r="C85" s="4" t="n">

--- a/mapa-producao/Mapa_Producao.xlsx
+++ b/mapa-producao/Mapa_Producao.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Visualização" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Visualização" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -460,7 +460,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H89"/>
+  <dimension ref="A1:H86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -529,25 +529,25 @@
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>03/06/2025</t>
+          <t>10/06/2025</t>
         </is>
       </c>
       <c r="C2" s="3" t="n">
-        <v>719080</v>
+        <v>720841</v>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>PAINEL HOME MARAGOGI</t>
+          <t>PAINEL GENOVA 2.0</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mapeado</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>N/C</t>
+          <t>Remessa</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -557,32 +557,32 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>Entregue</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>03/06/2025</t>
+          <t>10/06/2025</t>
         </is>
       </c>
       <c r="C3" s="4" t="n">
-        <v>720465</v>
+        <v>720843</v>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t>HOME ELDORADO 2.0 + REFORCO EMBALAGEM</t>
+          <t>BUFFET 1.4 LUCCA PARTE 2</t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>Mapeado</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
@@ -609,20 +609,20 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>03/06/2025</t>
+          <t>10/06/2025</t>
         </is>
       </c>
       <c r="C4" s="3" t="n">
-        <v>720466</v>
+        <v>720844</v>
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
-          <t>HOME GUARARAPES + REFORCO EMBALAGEM</t>
+          <t>KIT FITA LED COB 9W BRANCA QUENTE 1 FITA (1150MM) - RACK SANTORINI</t>
         </is>
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>Mapeado</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr">
@@ -632,7 +632,7 @@
       </c>
       <c r="G4" s="3" t="inlineStr">
         <is>
-          <t>N/C</t>
+          <t>Entregue</t>
         </is>
       </c>
       <c r="H4" s="3" t="inlineStr">
@@ -644,35 +644,35 @@
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>03/06/2025</t>
+          <t>10/06/2025</t>
         </is>
       </c>
       <c r="C5" s="4" t="n">
-        <v>720467</v>
+        <v>720845</v>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t>PAINEL HOME ALVORADA + REFORCO EMBALAGEM</t>
+          <t>PAINEL HOME ALVORADA</t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>Mapeado</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t>N/C</t>
+          <t>Remessa</t>
         </is>
       </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
-          <t>N/C</t>
+          <t>Entregue</t>
         </is>
       </c>
       <c r="H5" s="4" t="inlineStr">
@@ -684,35 +684,35 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>03/06/2025</t>
+          <t>11/06/2025</t>
         </is>
       </c>
       <c r="C6" s="3" t="n">
-        <v>719085</v>
+        <v>720846</v>
       </c>
       <c r="D6" s="3" t="inlineStr">
         <is>
-          <t>RACK ISTAMBUL</t>
+          <t>TAMPO BALCAO 1.2M SELENE</t>
         </is>
       </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t>Mapeado</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr">
         <is>
-          <t>Entregue</t>
+          <t>N/C</t>
         </is>
       </c>
       <c r="G6" s="3" t="inlineStr">
         <is>
-          <t>Entregue</t>
+          <t>N/C</t>
         </is>
       </c>
       <c r="H6" s="3" t="inlineStr">
@@ -724,30 +724,30 @@
     <row r="7">
       <c r="A7" s="4" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>03/06/2025</t>
+          <t>11/06/2025</t>
         </is>
       </c>
       <c r="C7" s="4" t="n">
-        <v>719086</v>
+        <v>720847</v>
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t>ESTANTE NEW LARA</t>
+          <t>AEREO 1.2M SELENE</t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>Mapeado</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t>Entregue</t>
+          <t>Remessa</t>
         </is>
       </c>
       <c r="G7" s="4" t="inlineStr">
@@ -764,25 +764,25 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>04/06/2025</t>
+          <t>11/06/2025</t>
         </is>
       </c>
       <c r="C8" s="3" t="n">
-        <v>720837</v>
+        <v>720848</v>
       </c>
       <c r="D8" s="3" t="inlineStr">
         <is>
-          <t>SUPORTE DE TV UNIVERSAL 14 A 71 POLEGADAS + ADAPTADOR</t>
+          <t>PAINEL EXTENSIVEL TULUM</t>
         </is>
       </c>
       <c r="E8" s="3" t="inlineStr">
         <is>
-          <t>N/C</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F8" s="3" t="inlineStr">
@@ -804,35 +804,35 @@
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>04/06/2025</t>
+          <t>11/06/2025</t>
         </is>
       </c>
       <c r="C9" s="4" t="n">
-        <v>719087</v>
+        <v>720850</v>
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t>CABECEIRA LARANJEIRAS 2.4</t>
+          <t>RACK DUBAI 1.8</t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t>Mapeado</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t>N/C</t>
+          <t>Remessa</t>
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
         <is>
-          <t>Entregue</t>
+          <t>Separado</t>
         </is>
       </c>
       <c r="H9" s="4" t="inlineStr">
@@ -844,30 +844,30 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>04/06/2025</t>
+          <t>11/06/2025</t>
         </is>
       </c>
       <c r="C10" s="3" t="n">
-        <v>720849</v>
+        <v>720851</v>
       </c>
       <c r="D10" s="3" t="inlineStr">
         <is>
-          <t>KIT FITA LED LUZ BRANCA QUENTE 1 FITA (1600MM)</t>
+          <t>RACK COLORADO</t>
         </is>
       </c>
       <c r="E10" s="3" t="inlineStr">
         <is>
-          <t>N/C</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F10" s="3" t="inlineStr">
         <is>
-          <t>N/C</t>
+          <t>Remessa</t>
         </is>
       </c>
       <c r="G10" s="3" t="inlineStr">
@@ -884,25 +884,25 @@
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B11" s="4" t="inlineStr">
         <is>
-          <t>04/06/2025</t>
+          <t>12/06/2025</t>
         </is>
       </c>
       <c r="C11" s="4" t="n">
-        <v>719088</v>
+        <v>720852</v>
       </c>
       <c r="D11" s="4" t="inlineStr">
         <is>
-          <t>PAINEL HOME ARARUNA</t>
+          <t>PAINEL HOME FRIBURGO</t>
         </is>
       </c>
       <c r="E11" s="4" t="inlineStr">
         <is>
-          <t>Parcial</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F11" s="4" t="inlineStr">
@@ -924,70 +924,70 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>04/06/2025</t>
+          <t>12/06/2025</t>
         </is>
       </c>
       <c r="C12" s="3" t="n">
-        <v>714585</v>
+        <v>720853</v>
       </c>
       <c r="D12" s="3" t="inlineStr">
         <is>
-          <t>RACK SANTORINI</t>
+          <t>AEREO DUPLO 0.8M SELENE</t>
         </is>
       </c>
       <c r="E12" s="3" t="inlineStr">
         <is>
-          <t>Mapeado</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F12" s="3" t="inlineStr">
         <is>
+          <t>Remessa</t>
+        </is>
+      </c>
+      <c r="G12" s="3" t="inlineStr">
+        <is>
           <t>Entregue</t>
         </is>
       </c>
-      <c r="G12" s="3" t="inlineStr">
-        <is>
-          <t>Entregue</t>
-        </is>
-      </c>
       <c r="H12" s="3" t="inlineStr">
         <is>
-          <t>Entregue</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B13" s="4" t="inlineStr">
         <is>
-          <t>05/06/2025</t>
+          <t>12/06/2025</t>
         </is>
       </c>
       <c r="C13" s="4" t="n">
-        <v>719067</v>
+        <v>720855</v>
       </c>
       <c r="D13" s="4" t="inlineStr">
         <is>
-          <t>HOME GUARARAPES</t>
+          <t>RACK CRONOS 1.8</t>
         </is>
       </c>
       <c r="E13" s="4" t="inlineStr">
         <is>
-          <t>Mapeado</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F13" s="4" t="inlineStr">
         <is>
-          <t>Entregue</t>
+          <t>Remessa</t>
         </is>
       </c>
       <c r="G13" s="4" t="inlineStr">
@@ -1004,30 +1004,30 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>05/06/2025</t>
+          <t>12/06/2025</t>
         </is>
       </c>
       <c r="C14" s="3" t="n">
-        <v>714586</v>
+        <v>720856</v>
       </c>
       <c r="D14" s="3" t="inlineStr">
         <is>
-          <t>APARADOR MONACO</t>
+          <t>HOME VIENA</t>
         </is>
       </c>
       <c r="E14" s="3" t="inlineStr">
         <is>
-          <t>Mapeado</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F14" s="3" t="inlineStr">
         <is>
-          <t>Entregue</t>
+          <t>Remessa</t>
         </is>
       </c>
       <c r="G14" s="3" t="inlineStr">
@@ -1044,35 +1044,35 @@
     <row r="15">
       <c r="A15" s="4" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B15" s="4" t="inlineStr">
         <is>
-          <t>05/06/2025</t>
+          <t>12/06/2025</t>
         </is>
       </c>
       <c r="C15" s="4" t="n">
-        <v>714589</v>
+        <v>720857</v>
       </c>
       <c r="D15" s="4" t="inlineStr">
         <is>
-          <t>MESA DE CENTRO MONACO</t>
+          <t>PRATELEIRA 2.2</t>
         </is>
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
-          <t>Mapeado</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F15" s="4" t="inlineStr">
         <is>
-          <t>Entregue</t>
+          <t>N/C</t>
         </is>
       </c>
       <c r="G15" s="4" t="inlineStr">
         <is>
-          <t>Entregue</t>
+          <t>Parcial</t>
         </is>
       </c>
       <c r="H15" s="4" t="inlineStr">
@@ -1084,35 +1084,35 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>05/06/2025</t>
+          <t>13/06/2025</t>
         </is>
       </c>
       <c r="C16" s="3" t="n">
-        <v>719090</v>
+        <v>720858</v>
       </c>
       <c r="D16" s="3" t="inlineStr">
         <is>
-          <t>HOME NAPOLI</t>
+          <t>MULTIUSO RETRO MARSALA  PARTE 2</t>
         </is>
       </c>
       <c r="E16" s="3" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F16" s="3" t="inlineStr">
+        <is>
+          <t>N/C</t>
+        </is>
+      </c>
+      <c r="G16" s="3" t="inlineStr">
+        <is>
           <t>Parcial</t>
-        </is>
-      </c>
-      <c r="F16" s="3" t="inlineStr">
-        <is>
-          <t>Entregue</t>
-        </is>
-      </c>
-      <c r="G16" s="3" t="inlineStr">
-        <is>
-          <t>Entregue</t>
         </is>
       </c>
       <c r="H16" s="3" t="inlineStr">
@@ -1124,20 +1124,20 @@
     <row r="17">
       <c r="A17" s="4" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="B17" s="4" t="inlineStr">
         <is>
-          <t>06/06/2025</t>
+          <t>13/06/2025</t>
         </is>
       </c>
       <c r="C17" s="4" t="n">
-        <v>720833</v>
+        <v>719069</v>
       </c>
       <c r="D17" s="4" t="inlineStr">
         <is>
-          <t>BUFFET EVORA 1.6</t>
+          <t>MODULO RIPADO 0.4</t>
         </is>
       </c>
       <c r="E17" s="4" t="inlineStr">
@@ -1147,7 +1147,7 @@
       </c>
       <c r="F17" s="4" t="inlineStr">
         <is>
-          <t>Remessa</t>
+          <t>N/C</t>
         </is>
       </c>
       <c r="G17" s="4" t="inlineStr">
@@ -1164,20 +1164,20 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>06/06/2025</t>
+          <t>13/06/2025</t>
         </is>
       </c>
       <c r="C18" s="3" t="n">
-        <v>717275</v>
+        <v>719071</v>
       </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t>HOME ELDORADO 2.0 JAMAR</t>
+          <t>PAINEL RIPADO MODULAR 1.4</t>
         </is>
       </c>
       <c r="E18" s="3" t="inlineStr">
@@ -1192,12 +1192,12 @@
       </c>
       <c r="G18" s="3" t="inlineStr">
         <is>
-          <t>Separado</t>
+          <t>Parcial</t>
         </is>
       </c>
       <c r="H18" s="3" t="inlineStr">
         <is>
-          <t>Entregue</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
@@ -1209,15 +1209,15 @@
       </c>
       <c r="B19" s="4" t="inlineStr">
         <is>
-          <t>06/06/2025</t>
+          <t>13/06/2025</t>
         </is>
       </c>
       <c r="C19" s="4" t="n">
-        <v>715952</v>
+        <v>719091</v>
       </c>
       <c r="D19" s="4" t="inlineStr">
         <is>
-          <t>APARADOR LISBOA</t>
+          <t>PRATELEIRA CURVA 2.2</t>
         </is>
       </c>
       <c r="E19" s="4" t="inlineStr">
@@ -1232,7 +1232,7 @@
       </c>
       <c r="G19" s="4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Entregue</t>
         </is>
       </c>
       <c r="H19" s="4" t="inlineStr">
@@ -1244,20 +1244,20 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>06/06/2025</t>
+          <t>13/06/2025</t>
         </is>
       </c>
       <c r="C20" s="3" t="n">
-        <v>715953</v>
+        <v>719082</v>
       </c>
       <c r="D20" s="3" t="inlineStr">
         <is>
-          <t>MESA DE CENTRO LISBOA</t>
+          <t>PRATELEIRA CURVA 1.4</t>
         </is>
       </c>
       <c r="E20" s="3" t="inlineStr">
@@ -1272,7 +1272,7 @@
       </c>
       <c r="G20" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Entregue</t>
         </is>
       </c>
       <c r="H20" s="3" t="inlineStr">
@@ -1289,25 +1289,25 @@
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
-          <t>06/06/2025</t>
+          <t>13/06/2025</t>
         </is>
       </c>
       <c r="C21" s="4" t="n">
-        <v>720834</v>
+        <v>719089</v>
       </c>
       <c r="D21" s="4" t="inlineStr">
         <is>
-          <t>RACK ESMERALDA</t>
+          <t>NICHO CURVO 1.4</t>
         </is>
       </c>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Parcial</t>
         </is>
       </c>
       <c r="F21" s="4" t="inlineStr">
         <is>
-          <t>Remessa</t>
+          <t>N/C</t>
         </is>
       </c>
       <c r="G21" s="4" t="inlineStr">
@@ -1329,20 +1329,20 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>09/06/2025</t>
+          <t>13/06/2025</t>
         </is>
       </c>
       <c r="C22" s="3" t="n">
-        <v>720835</v>
+        <v>719070</v>
       </c>
       <c r="D22" s="3" t="inlineStr">
         <is>
-          <t>PAINEL HOME HAVANA</t>
+          <t>NICHO CURVO 2.2</t>
         </is>
       </c>
       <c r="E22" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Mapeado</t>
         </is>
       </c>
       <c r="F22" s="3" t="inlineStr">
@@ -1352,7 +1352,7 @@
       </c>
       <c r="G22" s="3" t="inlineStr">
         <is>
-          <t>Parcial</t>
+          <t>Entregue</t>
         </is>
       </c>
       <c r="H22" s="3" t="inlineStr">
@@ -1364,20 +1364,20 @@
     <row r="23">
       <c r="A23" s="4" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
-          <t>09/06/2025</t>
+          <t>13/06/2025</t>
         </is>
       </c>
       <c r="C23" s="4" t="n">
-        <v>720836</v>
+        <v>723251</v>
       </c>
       <c r="D23" s="4" t="inlineStr">
         <is>
-          <t>BUFFET 1.4 LUCCA PARTE 3</t>
+          <t>TORRE QUENTE 0.65M SELENE</t>
         </is>
       </c>
       <c r="E23" s="4" t="inlineStr">
@@ -1387,37 +1387,37 @@
       </c>
       <c r="F23" s="4" t="inlineStr">
         <is>
-          <t>N/C</t>
+          <t>Remessa</t>
         </is>
       </c>
       <c r="G23" s="4" t="inlineStr">
         <is>
-          <t>Parcial</t>
+          <t>Separado</t>
         </is>
       </c>
       <c r="H23" s="4" t="inlineStr">
         <is>
-          <t>Separar</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>09/06/2025</t>
+          <t>13/06/2025</t>
         </is>
       </c>
       <c r="C24" s="3" t="n">
-        <v>720838</v>
+        <v>723252</v>
       </c>
       <c r="D24" s="3" t="inlineStr">
         <is>
-          <t>PAINEL HOME LUGANO</t>
+          <t>BALCAO 1.2M SELENE</t>
         </is>
       </c>
       <c r="E24" s="3" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="F24" s="3" t="inlineStr">
         <is>
-          <t>N/C</t>
+          <t>Remessa</t>
         </is>
       </c>
       <c r="G24" s="3" t="inlineStr">
@@ -1444,20 +1444,20 @@
     <row r="25">
       <c r="A25" s="4" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B25" s="4" t="inlineStr">
         <is>
-          <t>09/06/2025</t>
+          <t>16/06/2025</t>
         </is>
       </c>
       <c r="C25" s="4" t="n">
-        <v>720839</v>
+        <v>723254</v>
       </c>
       <c r="D25" s="4" t="inlineStr">
         <is>
-          <t>AEREO 1.2M ALLURE</t>
+          <t>TAMPO BALCAO 1.2M SELENE</t>
         </is>
       </c>
       <c r="E25" s="4" t="inlineStr">
@@ -1467,37 +1467,37 @@
       </c>
       <c r="F25" s="4" t="inlineStr">
         <is>
-          <t>Remessa</t>
+          <t>N/C</t>
         </is>
       </c>
       <c r="G25" s="4" t="inlineStr">
         <is>
-          <t>Parcial</t>
+          <t>N/C</t>
         </is>
       </c>
       <c r="H25" s="4" t="inlineStr">
         <is>
-          <t>Separar</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>09/06/2025</t>
+          <t>16/06/2025</t>
         </is>
       </c>
       <c r="C26" s="3" t="n">
-        <v>720840</v>
+        <v>723255</v>
       </c>
       <c r="D26" s="3" t="inlineStr">
         <is>
-          <t>HOME ELDORADO 2.0</t>
+          <t>RACK ESMERALDA</t>
         </is>
       </c>
       <c r="E26" s="3" t="inlineStr">
@@ -1512,32 +1512,32 @@
       </c>
       <c r="G26" s="3" t="inlineStr">
         <is>
-          <t>Parcial</t>
+          <t>Separado</t>
         </is>
       </c>
       <c r="H26" s="3" t="inlineStr">
         <is>
-          <t>Separar</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="4" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="B27" s="4" t="inlineStr">
         <is>
-          <t>10/06/2025</t>
+          <t>16/06/2025</t>
         </is>
       </c>
       <c r="C27" s="4" t="n">
-        <v>720841</v>
+        <v>723256</v>
       </c>
       <c r="D27" s="4" t="inlineStr">
         <is>
-          <t>PAINEL GENOVA 2.0</t>
+          <t>KIT FITA LED LUZ BRANCA QUENTE 2 FITAS (1800MM) (FLOCO ISOPOR)</t>
         </is>
       </c>
       <c r="E27" s="4" t="inlineStr">
@@ -1547,7 +1547,7 @@
       </c>
       <c r="F27" s="4" t="inlineStr">
         <is>
-          <t>Remessa</t>
+          <t>N/C</t>
         </is>
       </c>
       <c r="G27" s="4" t="inlineStr">
@@ -1564,20 +1564,20 @@
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>10/06/2025</t>
+          <t>16/06/2025</t>
         </is>
       </c>
       <c r="C28" s="3" t="n">
-        <v>720843</v>
+        <v>723257</v>
       </c>
       <c r="D28" s="3" t="inlineStr">
         <is>
-          <t>BUFFET 1.4 LUCCA PARTE 2</t>
+          <t>BALCAO 0.8M SELENE</t>
         </is>
       </c>
       <c r="E28" s="3" t="inlineStr">
@@ -1587,12 +1587,12 @@
       </c>
       <c r="F28" s="3" t="inlineStr">
         <is>
-          <t>N/C</t>
+          <t>Remessa</t>
         </is>
       </c>
       <c r="G28" s="3" t="inlineStr">
         <is>
-          <t>N/C</t>
+          <t>Parcial</t>
         </is>
       </c>
       <c r="H28" s="3" t="inlineStr">
@@ -1604,20 +1604,20 @@
     <row r="29">
       <c r="A29" s="4" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="B29" s="4" t="inlineStr">
         <is>
-          <t>10/06/2025</t>
+          <t>16/06/2025</t>
         </is>
       </c>
       <c r="C29" s="4" t="n">
-        <v>720844</v>
+        <v>723258</v>
       </c>
       <c r="D29" s="4" t="inlineStr">
         <is>
-          <t>KIT FITA LED COB 9W BRANCA QUENTE 1 FITA (1150MM) - RACK SANTORINI</t>
+          <t>HOME ELDORADO 2.0</t>
         </is>
       </c>
       <c r="E29" s="4" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="F29" s="4" t="inlineStr">
         <is>
-          <t>N/C</t>
+          <t>Remessa</t>
         </is>
       </c>
       <c r="G29" s="4" t="inlineStr">
@@ -1644,20 +1644,20 @@
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>10/06/2025</t>
+          <t>17/06/2025</t>
         </is>
       </c>
       <c r="C30" s="3" t="n">
-        <v>720845</v>
+        <v>723259</v>
       </c>
       <c r="D30" s="3" t="inlineStr">
         <is>
-          <t>PAINEL HOME ALVORADA</t>
+          <t>HOME ATLANTA</t>
         </is>
       </c>
       <c r="E30" s="3" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="G30" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Parcial</t>
         </is>
       </c>
       <c r="H30" s="3" t="inlineStr">
@@ -1684,20 +1684,20 @@
     <row r="31">
       <c r="A31" s="4" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B31" s="4" t="inlineStr">
         <is>
-          <t>11/06/2025</t>
+          <t>17/06/2025</t>
         </is>
       </c>
       <c r="C31" s="4" t="n">
-        <v>720846</v>
+        <v>723260</v>
       </c>
       <c r="D31" s="4" t="inlineStr">
         <is>
-          <t>TAMPO BALCAO 1.2M SELENE</t>
+          <t>PAINEL RIPADO MODULAR 1.4</t>
         </is>
       </c>
       <c r="E31" s="4" t="inlineStr">
@@ -1707,12 +1707,12 @@
       </c>
       <c r="F31" s="4" t="inlineStr">
         <is>
-          <t>N/C</t>
+          <t>Remessa</t>
         </is>
       </c>
       <c r="G31" s="4" t="inlineStr">
         <is>
-          <t>N/C</t>
+          <t>Parcial</t>
         </is>
       </c>
       <c r="H31" s="4" t="inlineStr">
@@ -1724,20 +1724,20 @@
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>11/06/2025</t>
+          <t>17/06/2025</t>
         </is>
       </c>
       <c r="C32" s="3" t="n">
-        <v>720847</v>
+        <v>723261</v>
       </c>
       <c r="D32" s="3" t="inlineStr">
         <is>
-          <t>AEREO 1.2M SELENE</t>
+          <t>MODULO RIPADO 0.4</t>
         </is>
       </c>
       <c r="E32" s="3" t="inlineStr">
@@ -1747,12 +1747,12 @@
       </c>
       <c r="F32" s="3" t="inlineStr">
         <is>
-          <t>Remessa</t>
+          <t>N/C</t>
         </is>
       </c>
       <c r="G32" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Parcial</t>
         </is>
       </c>
       <c r="H32" s="3" t="inlineStr">
@@ -1764,20 +1764,20 @@
     <row r="33">
       <c r="A33" s="4" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="B33" s="4" t="inlineStr">
         <is>
-          <t>11/06/2025</t>
+          <t>17/06/2025</t>
         </is>
       </c>
       <c r="C33" s="4" t="n">
-        <v>720848</v>
+        <v>723262</v>
       </c>
       <c r="D33" s="4" t="inlineStr">
         <is>
-          <t>PAINEL EXTENSIVEL TULUM</t>
+          <t>HOME ALAGOAS</t>
         </is>
       </c>
       <c r="E33" s="4" t="inlineStr">
@@ -1792,7 +1792,7 @@
       </c>
       <c r="G33" s="4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Parcial</t>
         </is>
       </c>
       <c r="H33" s="4" t="inlineStr">
@@ -1804,20 +1804,20 @@
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>11/06/2025</t>
+          <t>18/06/2025</t>
         </is>
       </c>
       <c r="C34" s="3" t="n">
-        <v>720850</v>
+        <v>723263</v>
       </c>
       <c r="D34" s="3" t="inlineStr">
         <is>
-          <t>RACK DUBAI 1.8</t>
+          <t>KIT FITA LED LUZ BRANCA QUENTE 1 FITA (1600MM)</t>
         </is>
       </c>
       <c r="E34" s="3" t="inlineStr">
@@ -1827,7 +1827,7 @@
       </c>
       <c r="F34" s="3" t="inlineStr">
         <is>
-          <t>Remessa</t>
+          <t>N/C</t>
         </is>
       </c>
       <c r="G34" s="3" t="inlineStr">
@@ -1844,20 +1844,20 @@
     <row r="35">
       <c r="A35" s="4" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="B35" s="4" t="inlineStr">
         <is>
-          <t>11/06/2025</t>
+          <t>18/06/2025</t>
         </is>
       </c>
       <c r="C35" s="4" t="n">
-        <v>720851</v>
+        <v>726452</v>
       </c>
       <c r="D35" s="4" t="inlineStr">
         <is>
-          <t>RACK COLORADO</t>
+          <t>APARADOR OLIMPO</t>
         </is>
       </c>
       <c r="E35" s="4" t="inlineStr">
@@ -1867,7 +1867,7 @@
       </c>
       <c r="F35" s="4" t="inlineStr">
         <is>
-          <t>Remessa</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G35" s="4" t="inlineStr">
@@ -1884,20 +1884,20 @@
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>12/06/2025</t>
+          <t>18/06/2025</t>
         </is>
       </c>
       <c r="C36" s="3" t="n">
-        <v>720852</v>
+        <v>726453</v>
       </c>
       <c r="D36" s="3" t="inlineStr">
         <is>
-          <t>PAINEL HOME FRIBURGO</t>
+          <t>MESA DE CENTRO OLIMPO</t>
         </is>
       </c>
       <c r="E36" s="3" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="F36" s="3" t="inlineStr">
         <is>
-          <t>N/C</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G36" s="3" t="inlineStr">
@@ -1924,20 +1924,20 @@
     <row r="37">
       <c r="A37" s="4" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B37" s="4" t="inlineStr">
         <is>
-          <t>12/06/2025</t>
+          <t>18/06/2025</t>
         </is>
       </c>
       <c r="C37" s="4" t="n">
-        <v>720853</v>
+        <v>723264</v>
       </c>
       <c r="D37" s="4" t="inlineStr">
         <is>
-          <t>AEREO DUPLO 0.8M SELENE</t>
+          <t>RACK DUBAI 1.6</t>
         </is>
       </c>
       <c r="E37" s="4" t="inlineStr">
@@ -1964,20 +1964,20 @@
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>12/06/2025</t>
+          <t>18/06/2025</t>
         </is>
       </c>
       <c r="C38" s="3" t="n">
-        <v>720855</v>
+        <v>723265</v>
       </c>
       <c r="D38" s="3" t="inlineStr">
         <is>
-          <t>RACK CRONOS 1.8</t>
+          <t>CABECEIRA ILHABELA</t>
         </is>
       </c>
       <c r="E38" s="3" t="inlineStr">
@@ -1987,12 +1987,12 @@
       </c>
       <c r="F38" s="3" t="inlineStr">
         <is>
-          <t>Remessa</t>
+          <t>N/C</t>
         </is>
       </c>
       <c r="G38" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Parcial</t>
         </is>
       </c>
       <c r="H38" s="3" t="inlineStr">
@@ -2004,20 +2004,20 @@
     <row r="39">
       <c r="A39" s="4" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B39" s="4" t="inlineStr">
         <is>
-          <t>12/06/2025</t>
+          <t>18/06/2025</t>
         </is>
       </c>
       <c r="C39" s="4" t="n">
-        <v>720856</v>
+        <v>723266</v>
       </c>
       <c r="D39" s="4" t="inlineStr">
         <is>
-          <t>HOME VIENA</t>
+          <t>PAINEL HOME ARARUNA</t>
         </is>
       </c>
       <c r="E39" s="4" t="inlineStr">
@@ -2027,7 +2027,7 @@
       </c>
       <c r="F39" s="4" t="inlineStr">
         <is>
-          <t>Remessa</t>
+          <t>N/C</t>
         </is>
       </c>
       <c r="G39" s="4" t="inlineStr">
@@ -2044,20 +2044,20 @@
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>12/06/2025</t>
+          <t>23/06/2025</t>
         </is>
       </c>
       <c r="C40" s="3" t="n">
-        <v>720857</v>
+        <v>723267</v>
       </c>
       <c r="D40" s="3" t="inlineStr">
         <is>
-          <t>PRATELEIRA 2.2</t>
+          <t>PAINEL SANTORINI</t>
         </is>
       </c>
       <c r="E40" s="3" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="F40" s="3" t="inlineStr">
         <is>
-          <t>N/C</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G40" s="3" t="inlineStr">
@@ -2084,20 +2084,20 @@
     <row r="41">
       <c r="A41" s="4" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B41" s="4" t="inlineStr">
         <is>
-          <t>13/06/2025</t>
+          <t>23/06/2025</t>
         </is>
       </c>
       <c r="C41" s="4" t="n">
-        <v>720858</v>
+        <v>720859</v>
       </c>
       <c r="D41" s="4" t="inlineStr">
         <is>
-          <t>MULTIUSO RETRO MARSALA  PARTE 2</t>
+          <t>BUFFET RETRO 1.4 PARTE 1</t>
         </is>
       </c>
       <c r="E41" s="4" t="inlineStr">
@@ -2107,7 +2107,7 @@
       </c>
       <c r="F41" s="4" t="inlineStr">
         <is>
-          <t>N/C</t>
+          <t>Remessa</t>
         </is>
       </c>
       <c r="G41" s="4" t="inlineStr">
@@ -2124,20 +2124,20 @@
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>13/06/2025</t>
+          <t>23/06/2025</t>
         </is>
       </c>
       <c r="C42" s="3" t="n">
-        <v>719069</v>
+        <v>723189</v>
       </c>
       <c r="D42" s="3" t="inlineStr">
         <is>
-          <t>MODULO RIPADO 0.4</t>
+          <t>HOME MUNIQUE</t>
         </is>
       </c>
       <c r="E42" s="3" t="inlineStr">
@@ -2147,7 +2147,7 @@
       </c>
       <c r="F42" s="3" t="inlineStr">
         <is>
-          <t>N/C</t>
+          <t>Remessa</t>
         </is>
       </c>
       <c r="G42" s="3" t="inlineStr">
@@ -2164,20 +2164,20 @@
     <row r="43">
       <c r="A43" s="4" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B43" s="4" t="inlineStr">
         <is>
-          <t>13/06/2025</t>
+          <t>23/06/2025</t>
         </is>
       </c>
       <c r="C43" s="4" t="n">
-        <v>719071</v>
+        <v>723268</v>
       </c>
       <c r="D43" s="4" t="inlineStr">
         <is>
-          <t>PAINEL RIPADO MODULAR 1.4</t>
+          <t>CRISTALEIRA 0.65M SELENE</t>
         </is>
       </c>
       <c r="E43" s="4" t="inlineStr">
@@ -2187,7 +2187,7 @@
       </c>
       <c r="F43" s="4" t="inlineStr">
         <is>
-          <t>Remessa</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G43" s="4" t="inlineStr">
@@ -2197,7 +2197,7 @@
       </c>
       <c r="H43" s="4" t="inlineStr">
         <is>
-          <t>N/C</t>
+          <t>Separar</t>
         </is>
       </c>
     </row>
@@ -2209,15 +2209,15 @@
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>13/06/2025</t>
+          <t>24/06/2025</t>
         </is>
       </c>
       <c r="C44" s="3" t="n">
-        <v>719091</v>
+        <v>723269</v>
       </c>
       <c r="D44" s="3" t="inlineStr">
         <is>
-          <t>PRATELEIRA CURVA 2.2</t>
+          <t>AEREO MICROONDAS 0.8M SELENE</t>
         </is>
       </c>
       <c r="E44" s="3" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="F44" s="3" t="inlineStr">
         <is>
-          <t>N/C</t>
+          <t>Remessa</t>
         </is>
       </c>
       <c r="G44" s="3" t="inlineStr">
@@ -2244,20 +2244,20 @@
     <row r="45">
       <c r="A45" s="4" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B45" s="4" t="inlineStr">
         <is>
-          <t>13/06/2025</t>
+          <t>24/06/2025</t>
         </is>
       </c>
       <c r="C45" s="4" t="n">
-        <v>719082</v>
+        <v>723270</v>
       </c>
       <c r="D45" s="4" t="inlineStr">
         <is>
-          <t>PRATELEIRA CURVA 1.4</t>
+          <t>HOME VIENA</t>
         </is>
       </c>
       <c r="E45" s="4" t="inlineStr">
@@ -2267,7 +2267,7 @@
       </c>
       <c r="F45" s="4" t="inlineStr">
         <is>
-          <t>N/C</t>
+          <t>Remessa</t>
         </is>
       </c>
       <c r="G45" s="4" t="inlineStr">
@@ -2284,35 +2284,35 @@
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>13/06/2025</t>
+          <t>24/06/2025</t>
         </is>
       </c>
       <c r="C46" s="3" t="n">
-        <v>719089</v>
+        <v>724841</v>
       </c>
       <c r="D46" s="3" t="inlineStr">
         <is>
-          <t>NICHO CURVO 1.4</t>
+          <t>MESA DE TV AURUM</t>
         </is>
       </c>
       <c r="E46" s="3" t="inlineStr">
         <is>
-          <t>Parcial</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F46" s="3" t="inlineStr">
         <is>
-          <t>N/C</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G46" s="3" t="inlineStr">
         <is>
-          <t>Entregue</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H46" s="3" t="inlineStr">
@@ -2324,35 +2324,35 @@
     <row r="47">
       <c r="A47" s="4" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B47" s="4" t="inlineStr">
         <is>
-          <t>13/06/2025</t>
+          <t>24/06/2025</t>
         </is>
       </c>
       <c r="C47" s="4" t="n">
-        <v>719070</v>
+        <v>724842</v>
       </c>
       <c r="D47" s="4" t="inlineStr">
         <is>
-          <t>NICHO CURVO 2.2</t>
+          <t>HOME GUARARAPES</t>
         </is>
       </c>
       <c r="E47" s="4" t="inlineStr">
         <is>
-          <t>Mapeado</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F47" s="4" t="inlineStr">
         <is>
-          <t>N/C</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G47" s="4" t="inlineStr">
         <is>
-          <t>Entregue</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H47" s="4" t="inlineStr">
@@ -2364,20 +2364,20 @@
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>13/06/2025</t>
+          <t>25/06/2025</t>
         </is>
       </c>
       <c r="C48" s="3" t="n">
-        <v>723251</v>
+        <v>724862</v>
       </c>
       <c r="D48" s="3" t="inlineStr">
         <is>
-          <t>TORRE QUENTE 0.65M SELENE</t>
+          <t>RACK GOLD</t>
         </is>
       </c>
       <c r="E48" s="3" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="F48" s="3" t="inlineStr">
         <is>
-          <t>Remessa</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G48" s="3" t="inlineStr">
@@ -2404,20 +2404,20 @@
     <row r="49">
       <c r="A49" s="4" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="B49" s="4" t="inlineStr">
         <is>
-          <t>13/06/2025</t>
+          <t>25/06/2025</t>
         </is>
       </c>
       <c r="C49" s="4" t="n">
-        <v>723252</v>
+        <v>724843</v>
       </c>
       <c r="D49" s="4" t="inlineStr">
         <is>
-          <t>BALCAO 1.2M SELENE</t>
+          <t>KIT FITA LED LUZ BRANCA QUENTE 2 FITAS (1800MM) (FLOCO ISOPOR)</t>
         </is>
       </c>
       <c r="E49" s="4" t="inlineStr">
@@ -2427,7 +2427,7 @@
       </c>
       <c r="F49" s="4" t="inlineStr">
         <is>
-          <t>Remessa</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G49" s="4" t="inlineStr">
@@ -2444,20 +2444,20 @@
     <row r="50">
       <c r="A50" s="3" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>16/06/2025</t>
+          <t>25/06/2025</t>
         </is>
       </c>
       <c r="C50" s="3" t="n">
-        <v>723254</v>
+        <v>724844</v>
       </c>
       <c r="D50" s="3" t="inlineStr">
         <is>
-          <t>TAMPO BALCAO 1.2M SELENE</t>
+          <t>TORRE QUENTE 0.65M SELENE</t>
         </is>
       </c>
       <c r="E50" s="3" t="inlineStr">
@@ -2467,7 +2467,7 @@
       </c>
       <c r="F50" s="3" t="inlineStr">
         <is>
-          <t>N/C</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G50" s="3" t="inlineStr">
@@ -2484,20 +2484,20 @@
     <row r="51">
       <c r="A51" s="4" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B51" s="4" t="inlineStr">
         <is>
-          <t>16/06/2025</t>
+          <t>26/06/2025</t>
         </is>
       </c>
       <c r="C51" s="4" t="n">
-        <v>723255</v>
+        <v>724846</v>
       </c>
       <c r="D51" s="4" t="inlineStr">
         <is>
-          <t>RACK ESMERALDA</t>
+          <t>PAINEL HOME FRIBURGO</t>
         </is>
       </c>
       <c r="E51" s="4" t="inlineStr">
@@ -2507,7 +2507,7 @@
       </c>
       <c r="F51" s="4" t="inlineStr">
         <is>
-          <t>Remessa</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G51" s="4" t="inlineStr">
@@ -2524,20 +2524,20 @@
     <row r="52">
       <c r="A52" s="3" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>16/06/2025</t>
+          <t>26/06/2025</t>
         </is>
       </c>
       <c r="C52" s="3" t="n">
-        <v>723256</v>
+        <v>724847</v>
       </c>
       <c r="D52" s="3" t="inlineStr">
         <is>
-          <t>KIT FITA LED LUZ BRANCA QUENTE 2 FITAS (1800MM) (FLOCO ISOPOR)</t>
+          <t>PAINEL HOME MARAGOGI</t>
         </is>
       </c>
       <c r="E52" s="3" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="F52" s="3" t="inlineStr">
         <is>
-          <t>N/C</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G52" s="3" t="inlineStr">
@@ -2557,27 +2557,27 @@
       </c>
       <c r="H52" s="3" t="inlineStr">
         <is>
-          <t>N/C</t>
+          <t>Separar</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="4" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="B53" s="4" t="inlineStr">
         <is>
-          <t>16/06/2025</t>
+          <t>26/06/2025</t>
         </is>
       </c>
       <c r="C53" s="4" t="n">
-        <v>723257</v>
+        <v>724848</v>
       </c>
       <c r="D53" s="4" t="inlineStr">
         <is>
-          <t>BALCAO 0.8M SELENE</t>
+          <t>KIT 8 PES PLASTICO RETANGULAR 100X50X40 ABA U 78X28</t>
         </is>
       </c>
       <c r="E53" s="4" t="inlineStr">
@@ -2587,7 +2587,7 @@
       </c>
       <c r="F53" s="4" t="inlineStr">
         <is>
-          <t>Remessa</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G53" s="4" t="inlineStr">
@@ -2604,20 +2604,20 @@
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>16/06/2025</t>
+          <t>26/06/2025</t>
         </is>
       </c>
       <c r="C54" s="3" t="n">
-        <v>723258</v>
+        <v>724849</v>
       </c>
       <c r="D54" s="3" t="inlineStr">
         <is>
-          <t>HOME ELDORADO 2.0</t>
+          <t>MULTIUSO RETRO  PARTE 1</t>
         </is>
       </c>
       <c r="E54" s="3" t="inlineStr">
@@ -2627,7 +2627,7 @@
       </c>
       <c r="F54" s="3" t="inlineStr">
         <is>
-          <t>Remessa</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G54" s="3" t="inlineStr">
@@ -2637,27 +2637,27 @@
       </c>
       <c r="H54" s="3" t="inlineStr">
         <is>
-          <t>Separar</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="4" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B55" s="4" t="inlineStr">
         <is>
-          <t>17/06/2025</t>
+          <t>27/06/2025</t>
         </is>
       </c>
       <c r="C55" s="4" t="n">
-        <v>723259</v>
+        <v>724851</v>
       </c>
       <c r="D55" s="4" t="inlineStr">
         <is>
-          <t>HOME ATLANTA</t>
+          <t>HOME ELDORADO 2.0</t>
         </is>
       </c>
       <c r="E55" s="4" t="inlineStr">
@@ -2667,7 +2667,7 @@
       </c>
       <c r="F55" s="4" t="inlineStr">
         <is>
-          <t>Remessa</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G55" s="4" t="inlineStr">
@@ -2677,27 +2677,27 @@
       </c>
       <c r="H55" s="4" t="inlineStr">
         <is>
-          <t>N/C</t>
+          <t>Separar</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t>17/06/2025</t>
+          <t>27/06/2025</t>
         </is>
       </c>
       <c r="C56" s="3" t="n">
-        <v>723260</v>
+        <v>724852</v>
       </c>
       <c r="D56" s="3" t="inlineStr">
         <is>
-          <t>PAINEL RIPADO MODULAR 1.4</t>
+          <t>KIT FITA LED LUZ BRANCA QUENTE 1 FITA (1600MM)</t>
         </is>
       </c>
       <c r="E56" s="3" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="F56" s="3" t="inlineStr">
         <is>
-          <t>Remessa</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G56" s="3" t="inlineStr">
@@ -2729,15 +2729,15 @@
       </c>
       <c r="B57" s="4" t="inlineStr">
         <is>
-          <t>17/06/2025</t>
+          <t>27/06/2025</t>
         </is>
       </c>
       <c r="C57" s="4" t="n">
-        <v>723261</v>
+        <v>724856</v>
       </c>
       <c r="D57" s="4" t="inlineStr">
         <is>
-          <t>MODULO RIPADO 0.4</t>
+          <t>BUFFET AURA 1.4</t>
         </is>
       </c>
       <c r="E57" s="4" t="inlineStr">
@@ -2747,7 +2747,7 @@
       </c>
       <c r="F57" s="4" t="inlineStr">
         <is>
-          <t>N/C</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G57" s="4" t="inlineStr">
@@ -2769,15 +2769,15 @@
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>17/06/2025</t>
+          <t>27/06/2025</t>
         </is>
       </c>
       <c r="C58" s="3" t="n">
-        <v>723262</v>
+        <v>724860</v>
       </c>
       <c r="D58" s="3" t="inlineStr">
         <is>
-          <t>HOME ALAGOAS</t>
+          <t>AEREO 1.2M SELENE</t>
         </is>
       </c>
       <c r="E58" s="3" t="inlineStr">
@@ -2787,7 +2787,7 @@
       </c>
       <c r="F58" s="3" t="inlineStr">
         <is>
-          <t>N/C</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G58" s="3" t="inlineStr">
@@ -2804,20 +2804,20 @@
     <row r="59">
       <c r="A59" s="4" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B59" s="4" t="inlineStr">
         <is>
-          <t>18/06/2025</t>
+          <t>28/06/2025</t>
         </is>
       </c>
       <c r="C59" s="4" t="n">
-        <v>723263</v>
+        <v>724861</v>
       </c>
       <c r="D59" s="4" t="inlineStr">
         <is>
-          <t>KIT FITA LED LUZ BRANCA QUENTE 1 FITA (1600MM)</t>
+          <t>RACK CRONOS 2.2</t>
         </is>
       </c>
       <c r="E59" s="4" t="inlineStr">
@@ -2827,7 +2827,7 @@
       </c>
       <c r="F59" s="4" t="inlineStr">
         <is>
-          <t>N/C</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G59" s="4" t="inlineStr">
@@ -2844,20 +2844,20 @@
     <row r="60">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>18/06/2025</t>
+          <t>28/06/2025</t>
         </is>
       </c>
       <c r="C60" s="3" t="n">
-        <v>723264</v>
+        <v>724863</v>
       </c>
       <c r="D60" s="3" t="inlineStr">
         <is>
-          <t>RACK DUBAI 1.6</t>
+          <t>BALCAO 0.8M SELENE</t>
         </is>
       </c>
       <c r="E60" s="3" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="F60" s="3" t="inlineStr">
         <is>
-          <t>Remessa</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G60" s="3" t="inlineStr">
@@ -2884,20 +2884,20 @@
     <row r="61">
       <c r="A61" s="4" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="B61" s="4" t="inlineStr">
         <is>
-          <t>18/06/2025</t>
+          <t>28/06/2025</t>
         </is>
       </c>
       <c r="C61" s="4" t="n">
-        <v>723265</v>
+        <v>724865</v>
       </c>
       <c r="D61" s="4" t="inlineStr">
         <is>
-          <t>CABECEIRA ILHABELA</t>
+          <t>TAMPO BALCAO 1.2M ALLURE/ATENA</t>
         </is>
       </c>
       <c r="E61" s="4" t="inlineStr">
@@ -2907,7 +2907,7 @@
       </c>
       <c r="F61" s="4" t="inlineStr">
         <is>
-          <t>N/C</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G61" s="4" t="inlineStr">
@@ -2924,20 +2924,20 @@
     <row r="62">
       <c r="A62" s="3" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B62" s="3" t="inlineStr">
         <is>
-          <t>18/06/2025</t>
+          <t>30/06/2025</t>
         </is>
       </c>
       <c r="C62" s="3" t="n">
-        <v>723266</v>
+        <v>724866</v>
       </c>
       <c r="D62" s="3" t="inlineStr">
         <is>
-          <t>PAINEL HOME ARARUNA</t>
+          <t>PAINEL HOME HAVANA</t>
         </is>
       </c>
       <c r="E62" s="3" t="inlineStr">
@@ -2947,7 +2947,7 @@
       </c>
       <c r="F62" s="3" t="inlineStr">
         <is>
-          <t>N/C</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G62" s="3" t="inlineStr">
@@ -2964,20 +2964,20 @@
     <row r="63">
       <c r="A63" s="4" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B63" s="4" t="inlineStr">
         <is>
-          <t>23/06/2025</t>
+          <t>30/06/2025</t>
         </is>
       </c>
       <c r="C63" s="4" t="n">
-        <v>723267</v>
+        <v>724867</v>
       </c>
       <c r="D63" s="4" t="inlineStr">
         <is>
-          <t>PAINEL SANTORINI</t>
+          <t>PRATELEIRA 1.4</t>
         </is>
       </c>
       <c r="E63" s="4" t="inlineStr">
@@ -3009,15 +3009,15 @@
       </c>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>23/06/2025</t>
+          <t>30/06/2025</t>
         </is>
       </c>
       <c r="C64" s="3" t="n">
-        <v>720859</v>
+        <v>724868</v>
       </c>
       <c r="D64" s="3" t="inlineStr">
         <is>
-          <t>BUFFET RETRO 1.4 PARTE 1</t>
+          <t>PAINEL HOME LUGANO</t>
         </is>
       </c>
       <c r="E64" s="3" t="inlineStr">
@@ -3027,7 +3027,7 @@
       </c>
       <c r="F64" s="3" t="inlineStr">
         <is>
-          <t>Remessa</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G64" s="3" t="inlineStr">
@@ -3044,20 +3044,20 @@
     <row r="65">
       <c r="A65" s="4" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="B65" s="4" t="inlineStr">
         <is>
-          <t>23/06/2025</t>
+          <t>30/06/2025</t>
         </is>
       </c>
       <c r="C65" s="4" t="n">
-        <v>723189</v>
+        <v>723271</v>
       </c>
       <c r="D65" s="4" t="inlineStr">
         <is>
-          <t>HOME MUNIQUE</t>
+          <t>CRISTALEIRA 0.7M ALLURE</t>
         </is>
       </c>
       <c r="E65" s="4" t="inlineStr">
@@ -3077,7 +3077,7 @@
       </c>
       <c r="H65" s="4" t="inlineStr">
         <is>
-          <t>N/C</t>
+          <t>Separar</t>
         </is>
       </c>
     </row>
@@ -3089,15 +3089,15 @@
       </c>
       <c r="B66" s="3" t="inlineStr">
         <is>
-          <t>23/06/2025</t>
+          <t>01/07/2025</t>
         </is>
       </c>
       <c r="C66" s="3" t="n">
-        <v>723268</v>
+        <v>726236</v>
       </c>
       <c r="D66" s="3" t="inlineStr">
         <is>
-          <t>CRISTALEIRA 0.65M SELENE</t>
+          <t>AEREO 1.2M ALLURE</t>
         </is>
       </c>
       <c r="E66" s="3" t="inlineStr">
@@ -3129,15 +3129,15 @@
       </c>
       <c r="B67" s="4" t="inlineStr">
         <is>
-          <t>24/06/2025</t>
+          <t>01/07/2025</t>
         </is>
       </c>
       <c r="C67" s="4" t="n">
-        <v>723269</v>
+        <v>726237</v>
       </c>
       <c r="D67" s="4" t="inlineStr">
         <is>
-          <t>AEREO MICROONDAS 0.8M SELENE</t>
+          <t>PAINEL EXTENSIVEL TUTI</t>
         </is>
       </c>
       <c r="E67" s="4" t="inlineStr">
@@ -3147,7 +3147,7 @@
       </c>
       <c r="F67" s="4" t="inlineStr">
         <is>
-          <t>Remessa</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G67" s="4" t="inlineStr">
@@ -3169,15 +3169,15 @@
       </c>
       <c r="B68" s="3" t="inlineStr">
         <is>
-          <t>24/06/2025</t>
+          <t>01/07/2025</t>
         </is>
       </c>
       <c r="C68" s="3" t="n">
-        <v>723270</v>
+        <v>726238</v>
       </c>
       <c r="D68" s="3" t="inlineStr">
         <is>
-          <t>HOME VIENA</t>
+          <t>RACK RECIFE</t>
         </is>
       </c>
       <c r="E68" s="3" t="inlineStr">
@@ -3187,7 +3187,7 @@
       </c>
       <c r="F68" s="3" t="inlineStr">
         <is>
-          <t>Remessa</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G68" s="3" t="inlineStr">
@@ -3197,27 +3197,27 @@
       </c>
       <c r="H68" s="3" t="inlineStr">
         <is>
-          <t>N/C</t>
+          <t>Separar</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="4" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="B69" s="4" t="inlineStr">
         <is>
-          <t>24/06/2025</t>
+          <t>01/07/2025</t>
         </is>
       </c>
       <c r="C69" s="4" t="n">
-        <v>724841</v>
+        <v>726239</v>
       </c>
       <c r="D69" s="4" t="inlineStr">
         <is>
-          <t>MESA DE TV AURUM</t>
+          <t>KIT FITA LED LUZ BRANCA QUENTE 1 FITA (2000MM)</t>
         </is>
       </c>
       <c r="E69" s="4" t="inlineStr">
@@ -3244,20 +3244,20 @@
     <row r="70">
       <c r="A70" s="3" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="B70" s="3" t="inlineStr">
         <is>
-          <t>24/06/2025</t>
+          <t>02/07/2025</t>
         </is>
       </c>
       <c r="C70" s="3" t="n">
-        <v>724842</v>
+        <v>726240</v>
       </c>
       <c r="D70" s="3" t="inlineStr">
         <is>
-          <t>HOME GUARARAPES</t>
+          <t>HOME NAPOLI</t>
         </is>
       </c>
       <c r="E70" s="3" t="inlineStr">
@@ -3284,20 +3284,20 @@
     <row r="71">
       <c r="A71" s="4" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B71" s="4" t="inlineStr">
         <is>
-          <t>25/06/2025</t>
+          <t>02/07/2025</t>
         </is>
       </c>
       <c r="C71" s="4" t="n">
-        <v>724843</v>
+        <v>726241</v>
       </c>
       <c r="D71" s="4" t="inlineStr">
         <is>
-          <t>KIT FITA LED LUZ BRANCA QUENTE 2 FITAS (1800MM) (FLOCO ISOPOR)</t>
+          <t>CABECEIRA LARANJEIRAS 2.4</t>
         </is>
       </c>
       <c r="E71" s="4" t="inlineStr">
@@ -3329,15 +3329,15 @@
       </c>
       <c r="B72" s="3" t="inlineStr">
         <is>
-          <t>25/06/2025</t>
+          <t>02/07/2025</t>
         </is>
       </c>
       <c r="C72" s="3" t="n">
-        <v>724844</v>
+        <v>726242</v>
       </c>
       <c r="D72" s="3" t="inlineStr">
         <is>
-          <t>TORRE QUENTE 0.65M SELENE</t>
+          <t>RACK SAO FRANCISCO</t>
         </is>
       </c>
       <c r="E72" s="3" t="inlineStr">
@@ -3364,20 +3364,20 @@
     <row r="73">
       <c r="A73" s="4" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="B73" s="4" t="inlineStr">
         <is>
-          <t>25/06/2025</t>
+          <t>02/07/2025</t>
         </is>
       </c>
       <c r="C73" s="4" t="n">
-        <v>724846</v>
+        <v>726243</v>
       </c>
       <c r="D73" s="4" t="inlineStr">
         <is>
-          <t>PAINEL HOME FRIBURGO</t>
+          <t>KIT FITA LED LUZ BRANCA QUENTE 1 FITA (1600MM)</t>
         </is>
       </c>
       <c r="E73" s="4" t="inlineStr">
@@ -3404,20 +3404,20 @@
     <row r="74">
       <c r="A74" s="3" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B74" s="3" t="inlineStr">
         <is>
-          <t>26/06/2025</t>
+          <t>03/07/2025</t>
         </is>
       </c>
       <c r="C74" s="3" t="n">
-        <v>724847</v>
+        <v>726244</v>
       </c>
       <c r="D74" s="3" t="inlineStr">
         <is>
-          <t>PAINEL HOME MARAGOGI</t>
+          <t>RACK NEW BLUMENAU</t>
         </is>
       </c>
       <c r="E74" s="3" t="inlineStr">
@@ -3437,27 +3437,27 @@
       </c>
       <c r="H74" s="3" t="inlineStr">
         <is>
-          <t>Separar</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="4" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="B75" s="4" t="inlineStr">
         <is>
-          <t>26/06/2025</t>
+          <t>03/07/2025</t>
         </is>
       </c>
       <c r="C75" s="4" t="n">
-        <v>724848</v>
+        <v>726245</v>
       </c>
       <c r="D75" s="4" t="inlineStr">
         <is>
-          <t>KIT 8 PES PLASTICO RETANGULAR 100X50X40 ABA U 78X28</t>
+          <t>RACK ARACATUBA</t>
         </is>
       </c>
       <c r="E75" s="4" t="inlineStr">
@@ -3489,15 +3489,15 @@
       </c>
       <c r="B76" s="3" t="inlineStr">
         <is>
-          <t>26/06/2025</t>
+          <t>03/07/2025</t>
         </is>
       </c>
       <c r="C76" s="3" t="n">
-        <v>724849</v>
+        <v>726246</v>
       </c>
       <c r="D76" s="3" t="inlineStr">
         <is>
-          <t>MULTIUSO RETRO  PARTE 1</t>
+          <t>AEREO DUPLO 0.8M SELENE</t>
         </is>
       </c>
       <c r="E76" s="3" t="inlineStr">
@@ -3529,15 +3529,15 @@
       </c>
       <c r="B77" s="4" t="inlineStr">
         <is>
-          <t>26/06/2025</t>
+          <t>03/07/2025</t>
         </is>
       </c>
       <c r="C77" s="4" t="n">
-        <v>724851</v>
+        <v>726247</v>
       </c>
       <c r="D77" s="4" t="inlineStr">
         <is>
-          <t>HOME ELDORADO 2.0</t>
+          <t>PAINEL HOME CRETA</t>
         </is>
       </c>
       <c r="E77" s="4" t="inlineStr">
@@ -3557,27 +3557,27 @@
       </c>
       <c r="H77" s="4" t="inlineStr">
         <is>
-          <t>Separar</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="3" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B78" s="3" t="inlineStr">
         <is>
-          <t>27/06/2025</t>
+          <t>04/07/2025</t>
         </is>
       </c>
       <c r="C78" s="3" t="n">
-        <v>724852</v>
+        <v>726248</v>
       </c>
       <c r="D78" s="3" t="inlineStr">
         <is>
-          <t>KIT FITA LED LUZ BRANCA QUENTE 1 FITA (1600MM)</t>
+          <t>BUFFET EVORA 1.6</t>
         </is>
       </c>
       <c r="E78" s="3" t="inlineStr">
@@ -3609,15 +3609,15 @@
       </c>
       <c r="B79" s="4" t="inlineStr">
         <is>
-          <t>27/06/2025</t>
+          <t>04/07/2025</t>
         </is>
       </c>
       <c r="C79" s="4" t="n">
-        <v>724860</v>
+        <v>726249</v>
       </c>
       <c r="D79" s="4" t="inlineStr">
         <is>
-          <t>AEREO 1.2M SELENE</t>
+          <t>RACK RUBI</t>
         </is>
       </c>
       <c r="E79" s="4" t="inlineStr">
@@ -3649,15 +3649,15 @@
       </c>
       <c r="B80" s="3" t="inlineStr">
         <is>
-          <t>27/06/2025</t>
+          <t>04/07/2025</t>
         </is>
       </c>
       <c r="C80" s="3" t="n">
-        <v>724861</v>
+        <v>726251</v>
       </c>
       <c r="D80" s="3" t="inlineStr">
         <is>
-          <t>RACK CRONOS 2.2</t>
+          <t>BALCAO 0.8M ALLURE</t>
         </is>
       </c>
       <c r="E80" s="3" t="inlineStr">
@@ -3689,15 +3689,15 @@
       </c>
       <c r="B81" s="4" t="inlineStr">
         <is>
-          <t>28/06/2025</t>
+          <t>07/07/2025</t>
         </is>
       </c>
       <c r="C81" s="4" t="n">
-        <v>724862</v>
+        <v>726252</v>
       </c>
       <c r="D81" s="4" t="inlineStr">
         <is>
-          <t>RACK GOLD</t>
+          <t>CRISTALEIRA 0.7M ALLURE</t>
         </is>
       </c>
       <c r="E81" s="4" t="inlineStr">
@@ -3717,27 +3717,27 @@
       </c>
       <c r="H81" s="4" t="inlineStr">
         <is>
-          <t>N/C</t>
+          <t>Separar</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="3" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B82" s="3" t="inlineStr">
         <is>
-          <t>28/06/2025</t>
+          <t>07/07/2025</t>
         </is>
       </c>
       <c r="C82" s="3" t="n">
-        <v>724863</v>
+        <v>726254</v>
       </c>
       <c r="D82" s="3" t="inlineStr">
         <is>
-          <t>BALCAO 0.8M SELENE</t>
+          <t>TORRE SIMPLES 0.7M ALLURE</t>
         </is>
       </c>
       <c r="E82" s="3" t="inlineStr">
@@ -3769,15 +3769,15 @@
       </c>
       <c r="B83" s="4" t="inlineStr">
         <is>
-          <t>28/06/2025</t>
+          <t>07/07/2025</t>
         </is>
       </c>
       <c r="C83" s="4" t="n">
-        <v>724865</v>
+        <v>720860</v>
       </c>
       <c r="D83" s="4" t="inlineStr">
         <is>
-          <t>TAMPO BALCAO 1.2M ALLURE/ATENA</t>
+          <t>APARADOR MONACO</t>
         </is>
       </c>
       <c r="E83" s="4" t="inlineStr">
@@ -3787,7 +3787,7 @@
       </c>
       <c r="F83" s="4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Remessa</t>
         </is>
       </c>
       <c r="G83" s="4" t="inlineStr">
@@ -3809,15 +3809,15 @@
       </c>
       <c r="B84" s="3" t="inlineStr">
         <is>
-          <t>30/06/2025</t>
+          <t>07/07/2025</t>
         </is>
       </c>
       <c r="C84" s="3" t="n">
-        <v>724866</v>
+        <v>720861</v>
       </c>
       <c r="D84" s="3" t="inlineStr">
         <is>
-          <t>PAINEL HOME HAVANA</t>
+          <t>MESA DE CENTRO MONACO</t>
         </is>
       </c>
       <c r="E84" s="3" t="inlineStr">
@@ -3827,7 +3827,7 @@
       </c>
       <c r="F84" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Remessa</t>
         </is>
       </c>
       <c r="G84" s="3" t="inlineStr">
@@ -3849,15 +3849,15 @@
       </c>
       <c r="B85" s="4" t="inlineStr">
         <is>
-          <t>30/06/2025</t>
+          <t>08/07/2025</t>
         </is>
       </c>
       <c r="C85" s="4" t="n">
-        <v>724867</v>
+        <v>726256</v>
       </c>
       <c r="D85" s="4" t="inlineStr">
         <is>
-          <t>PRATELEIRA 1.4</t>
+          <t>PAINEL HOME ZURIQUE</t>
         </is>
       </c>
       <c r="E85" s="4" t="inlineStr">
@@ -3889,15 +3889,15 @@
       </c>
       <c r="B86" s="3" t="inlineStr">
         <is>
-          <t>30/06/2025</t>
+          <t>08/07/2025</t>
         </is>
       </c>
       <c r="C86" s="3" t="n">
-        <v>724868</v>
+        <v>726259</v>
       </c>
       <c r="D86" s="3" t="inlineStr">
         <is>
-          <t>PAINEL HOME LUGANO</t>
+          <t>ESTANTE IPANEMA</t>
         </is>
       </c>
       <c r="E86" s="3" t="inlineStr">
@@ -3916,126 +3916,6 @@
         </is>
       </c>
       <c r="H86" s="3" t="inlineStr">
-        <is>
-          <t>N/C</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="4" t="inlineStr">
-        <is>
-          <t>AZUL</t>
-        </is>
-      </c>
-      <c r="B87" s="4" t="inlineStr">
-        <is>
-          <t>30/06/2025</t>
-        </is>
-      </c>
-      <c r="C87" s="4" t="n">
-        <v>723271</v>
-      </c>
-      <c r="D87" s="4" t="inlineStr">
-        <is>
-          <t>CRISTALEIRA 0.7M ALLURE</t>
-        </is>
-      </c>
-      <c r="E87" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F87" s="4" t="inlineStr">
-        <is>
-          <t>Remessa</t>
-        </is>
-      </c>
-      <c r="G87" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H87" s="4" t="inlineStr">
-        <is>
-          <t>Separar</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="3" t="inlineStr">
-        <is>
-          <t>AZUL</t>
-        </is>
-      </c>
-      <c r="B88" s="3" t="inlineStr">
-        <is>
-          <t>07/07/2025</t>
-        </is>
-      </c>
-      <c r="C88" s="3" t="n">
-        <v>720860</v>
-      </c>
-      <c r="D88" s="3" t="inlineStr">
-        <is>
-          <t>APARADOR MONACO</t>
-        </is>
-      </c>
-      <c r="E88" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F88" s="3" t="inlineStr">
-        <is>
-          <t>Remessa</t>
-        </is>
-      </c>
-      <c r="G88" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H88" s="3" t="inlineStr">
-        <is>
-          <t>N/C</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="4" t="inlineStr">
-        <is>
-          <t>AMARELO</t>
-        </is>
-      </c>
-      <c r="B89" s="4" t="inlineStr">
-        <is>
-          <t>07/07/2025</t>
-        </is>
-      </c>
-      <c r="C89" s="4" t="n">
-        <v>720861</v>
-      </c>
-      <c r="D89" s="4" t="inlineStr">
-        <is>
-          <t>MESA DE CENTRO MONACO</t>
-        </is>
-      </c>
-      <c r="E89" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F89" s="4" t="inlineStr">
-        <is>
-          <t>Remessa</t>
-        </is>
-      </c>
-      <c r="G89" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H89" s="4" t="inlineStr">
         <is>
           <t>N/C</t>
         </is>

--- a/mapa-producao/Mapa_Producao.xlsx
+++ b/mapa-producao/Mapa_Producao.xlsx
@@ -529,7 +529,7 @@
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>10/06/2025</t>
+          <t>11/06/2025</t>
         </is>
       </c>
       <c r="C2" s="3" t="n">
@@ -569,7 +569,7 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>10/06/2025</t>
+          <t>11/06/2025</t>
         </is>
       </c>
       <c r="C3" s="4" t="n">
@@ -609,7 +609,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>10/06/2025</t>
+          <t>11/06/2025</t>
         </is>
       </c>
       <c r="C4" s="3" t="n">
@@ -649,7 +649,7 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>10/06/2025</t>
+          <t>11/06/2025</t>
         </is>
       </c>
       <c r="C5" s="4" t="n">
@@ -729,7 +729,7 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>11/06/2025</t>
+          <t>12/06/2025</t>
         </is>
       </c>
       <c r="C7" s="4" t="n">
@@ -769,7 +769,7 @@
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>11/06/2025</t>
+          <t>12/06/2025</t>
         </is>
       </c>
       <c r="C8" s="3" t="n">
@@ -809,7 +809,7 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>11/06/2025</t>
+          <t>12/06/2025</t>
         </is>
       </c>
       <c r="C9" s="4" t="n">
@@ -849,7 +849,7 @@
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>11/06/2025</t>
+          <t>12/06/2025</t>
         </is>
       </c>
       <c r="C10" s="3" t="n">
@@ -889,7 +889,7 @@
       </c>
       <c r="B11" s="4" t="inlineStr">
         <is>
-          <t>12/06/2025</t>
+          <t>13/06/2025</t>
         </is>
       </c>
       <c r="C11" s="4" t="n">
@@ -929,7 +929,7 @@
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>12/06/2025</t>
+          <t>13/06/2025</t>
         </is>
       </c>
       <c r="C12" s="3" t="n">
@@ -969,7 +969,7 @@
       </c>
       <c r="B13" s="4" t="inlineStr">
         <is>
-          <t>12/06/2025</t>
+          <t>13/06/2025</t>
         </is>
       </c>
       <c r="C13" s="4" t="n">
@@ -1009,7 +1009,7 @@
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>12/06/2025</t>
+          <t>13/06/2025</t>
         </is>
       </c>
       <c r="C14" s="3" t="n">
@@ -1044,20 +1044,20 @@
     <row r="15">
       <c r="A15" s="4" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B15" s="4" t="inlineStr">
         <is>
-          <t>12/06/2025</t>
+          <t>16/06/2025</t>
         </is>
       </c>
       <c r="C15" s="4" t="n">
-        <v>720857</v>
+        <v>720858</v>
       </c>
       <c r="D15" s="4" t="inlineStr">
         <is>
-          <t>PRATELEIRA 2.2</t>
+          <t>MULTIUSO RETRO MARSALA  PARTE 2</t>
         </is>
       </c>
       <c r="E15" s="4" t="inlineStr">
@@ -1084,20 +1084,20 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>13/06/2025</t>
+          <t>16/06/2025</t>
         </is>
       </c>
       <c r="C16" s="3" t="n">
-        <v>720858</v>
+        <v>719069</v>
       </c>
       <c r="D16" s="3" t="inlineStr">
         <is>
-          <t>MULTIUSO RETRO MARSALA  PARTE 2</t>
+          <t>MODULO RIPADO 0.4</t>
         </is>
       </c>
       <c r="E16" s="3" t="inlineStr">
@@ -1112,7 +1112,7 @@
       </c>
       <c r="G16" s="3" t="inlineStr">
         <is>
-          <t>Parcial</t>
+          <t>Entregue</t>
         </is>
       </c>
       <c r="H16" s="3" t="inlineStr">
@@ -1124,20 +1124,20 @@
     <row r="17">
       <c r="A17" s="4" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B17" s="4" t="inlineStr">
         <is>
-          <t>13/06/2025</t>
+          <t>16/06/2025</t>
         </is>
       </c>
       <c r="C17" s="4" t="n">
-        <v>719069</v>
+        <v>719071</v>
       </c>
       <c r="D17" s="4" t="inlineStr">
         <is>
-          <t>MODULO RIPADO 0.4</t>
+          <t>PAINEL RIPADO MODULAR 1.4</t>
         </is>
       </c>
       <c r="E17" s="4" t="inlineStr">
@@ -1147,12 +1147,12 @@
       </c>
       <c r="F17" s="4" t="inlineStr">
         <is>
-          <t>N/C</t>
+          <t>Remessa</t>
         </is>
       </c>
       <c r="G17" s="4" t="inlineStr">
         <is>
-          <t>Entregue</t>
+          <t>Parcial</t>
         </is>
       </c>
       <c r="H17" s="4" t="inlineStr">
@@ -1169,15 +1169,15 @@
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>13/06/2025</t>
+          <t>16/06/2025</t>
         </is>
       </c>
       <c r="C18" s="3" t="n">
-        <v>719071</v>
+        <v>719091</v>
       </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t>PAINEL RIPADO MODULAR 1.4</t>
+          <t>PRATELEIRA CURVA 2.2</t>
         </is>
       </c>
       <c r="E18" s="3" t="inlineStr">
@@ -1187,12 +1187,12 @@
       </c>
       <c r="F18" s="3" t="inlineStr">
         <is>
-          <t>Remessa</t>
+          <t>N/C</t>
         </is>
       </c>
       <c r="G18" s="3" t="inlineStr">
         <is>
-          <t>Parcial</t>
+          <t>Entregue</t>
         </is>
       </c>
       <c r="H18" s="3" t="inlineStr">
@@ -1209,15 +1209,15 @@
       </c>
       <c r="B19" s="4" t="inlineStr">
         <is>
-          <t>13/06/2025</t>
+          <t>16/06/2025</t>
         </is>
       </c>
       <c r="C19" s="4" t="n">
-        <v>719091</v>
+        <v>719082</v>
       </c>
       <c r="D19" s="4" t="inlineStr">
         <is>
-          <t>PRATELEIRA CURVA 2.2</t>
+          <t>PRATELEIRA CURVA 1.4</t>
         </is>
       </c>
       <c r="E19" s="4" t="inlineStr">
@@ -1244,25 +1244,25 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>13/06/2025</t>
+          <t>16/06/2025</t>
         </is>
       </c>
       <c r="C20" s="3" t="n">
-        <v>719082</v>
+        <v>719089</v>
       </c>
       <c r="D20" s="3" t="inlineStr">
         <is>
-          <t>PRATELEIRA CURVA 1.4</t>
+          <t>NICHO CURVO 1.4</t>
         </is>
       </c>
       <c r="E20" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Parcial</t>
         </is>
       </c>
       <c r="F20" s="3" t="inlineStr">
@@ -1284,25 +1284,25 @@
     <row r="21">
       <c r="A21" s="4" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
-          <t>13/06/2025</t>
+          <t>16/06/2025</t>
         </is>
       </c>
       <c r="C21" s="4" t="n">
-        <v>719089</v>
+        <v>719070</v>
       </c>
       <c r="D21" s="4" t="inlineStr">
         <is>
-          <t>NICHO CURVO 1.4</t>
+          <t>NICHO CURVO 2.2</t>
         </is>
       </c>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>Parcial</t>
+          <t>Mapeado</t>
         </is>
       </c>
       <c r="F21" s="4" t="inlineStr">
@@ -1324,35 +1324,35 @@
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>13/06/2025</t>
+          <t>16/06/2025</t>
         </is>
       </c>
       <c r="C22" s="3" t="n">
-        <v>719070</v>
+        <v>723251</v>
       </c>
       <c r="D22" s="3" t="inlineStr">
         <is>
-          <t>NICHO CURVO 2.2</t>
+          <t>TORRE QUENTE 0.65M SELENE</t>
         </is>
       </c>
       <c r="E22" s="3" t="inlineStr">
         <is>
-          <t>Mapeado</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F22" s="3" t="inlineStr">
         <is>
-          <t>N/C</t>
+          <t>Remessa</t>
         </is>
       </c>
       <c r="G22" s="3" t="inlineStr">
         <is>
-          <t>Entregue</t>
+          <t>Separado</t>
         </is>
       </c>
       <c r="H22" s="3" t="inlineStr">
@@ -1364,20 +1364,20 @@
     <row r="23">
       <c r="A23" s="4" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
-          <t>13/06/2025</t>
+          <t>16/06/2025</t>
         </is>
       </c>
       <c r="C23" s="4" t="n">
-        <v>723251</v>
+        <v>723252</v>
       </c>
       <c r="D23" s="4" t="inlineStr">
         <is>
-          <t>TORRE QUENTE 0.65M SELENE</t>
+          <t>BALCAO 1.2M SELENE</t>
         </is>
       </c>
       <c r="E23" s="4" t="inlineStr">
@@ -1392,7 +1392,7 @@
       </c>
       <c r="G23" s="4" t="inlineStr">
         <is>
-          <t>Separado</t>
+          <t>Parcial</t>
         </is>
       </c>
       <c r="H23" s="4" t="inlineStr">
@@ -1404,20 +1404,20 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>13/06/2025</t>
+          <t>17/06/2025</t>
         </is>
       </c>
       <c r="C24" s="3" t="n">
-        <v>723252</v>
+        <v>723254</v>
       </c>
       <c r="D24" s="3" t="inlineStr">
         <is>
-          <t>BALCAO 1.2M SELENE</t>
+          <t>TAMPO BALCAO 1.2M SELENE</t>
         </is>
       </c>
       <c r="E24" s="3" t="inlineStr">
@@ -1427,12 +1427,12 @@
       </c>
       <c r="F24" s="3" t="inlineStr">
         <is>
-          <t>Remessa</t>
+          <t>N/C</t>
         </is>
       </c>
       <c r="G24" s="3" t="inlineStr">
         <is>
-          <t>Parcial</t>
+          <t>N/C</t>
         </is>
       </c>
       <c r="H24" s="3" t="inlineStr">
@@ -1444,20 +1444,20 @@
     <row r="25">
       <c r="A25" s="4" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B25" s="4" t="inlineStr">
         <is>
-          <t>16/06/2025</t>
+          <t>17/06/2025</t>
         </is>
       </c>
       <c r="C25" s="4" t="n">
-        <v>723254</v>
+        <v>723255</v>
       </c>
       <c r="D25" s="4" t="inlineStr">
         <is>
-          <t>TAMPO BALCAO 1.2M SELENE</t>
+          <t>RACK ESMERALDA</t>
         </is>
       </c>
       <c r="E25" s="4" t="inlineStr">
@@ -1467,12 +1467,12 @@
       </c>
       <c r="F25" s="4" t="inlineStr">
         <is>
-          <t>N/C</t>
+          <t>Remessa</t>
         </is>
       </c>
       <c r="G25" s="4" t="inlineStr">
         <is>
-          <t>N/C</t>
+          <t>Separado</t>
         </is>
       </c>
       <c r="H25" s="4" t="inlineStr">
@@ -1484,20 +1484,20 @@
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>16/06/2025</t>
+          <t>17/06/2025</t>
         </is>
       </c>
       <c r="C26" s="3" t="n">
-        <v>723255</v>
+        <v>723256</v>
       </c>
       <c r="D26" s="3" t="inlineStr">
         <is>
-          <t>RACK ESMERALDA</t>
+          <t>KIT FITA LED LUZ BRANCA QUENTE 2 FITAS (1800MM) (FLOCO ISOPOR)</t>
         </is>
       </c>
       <c r="E26" s="3" t="inlineStr">
@@ -1507,12 +1507,12 @@
       </c>
       <c r="F26" s="3" t="inlineStr">
         <is>
-          <t>Remessa</t>
+          <t>N/C</t>
         </is>
       </c>
       <c r="G26" s="3" t="inlineStr">
         <is>
-          <t>Separado</t>
+          <t>Parcial</t>
         </is>
       </c>
       <c r="H26" s="3" t="inlineStr">
@@ -1524,20 +1524,20 @@
     <row r="27">
       <c r="A27" s="4" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B27" s="4" t="inlineStr">
         <is>
-          <t>16/06/2025</t>
+          <t>17/06/2025</t>
         </is>
       </c>
       <c r="C27" s="4" t="n">
-        <v>723256</v>
+        <v>723257</v>
       </c>
       <c r="D27" s="4" t="inlineStr">
         <is>
-          <t>KIT FITA LED LUZ BRANCA QUENTE 2 FITAS (1800MM) (FLOCO ISOPOR)</t>
+          <t>BALCAO 0.8M SELENE</t>
         </is>
       </c>
       <c r="E27" s="4" t="inlineStr">
@@ -1547,7 +1547,7 @@
       </c>
       <c r="F27" s="4" t="inlineStr">
         <is>
-          <t>N/C</t>
+          <t>Remessa</t>
         </is>
       </c>
       <c r="G27" s="4" t="inlineStr">
@@ -1564,20 +1564,20 @@
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>16/06/2025</t>
+          <t>17/06/2025</t>
         </is>
       </c>
       <c r="C28" s="3" t="n">
-        <v>723257</v>
+        <v>723258</v>
       </c>
       <c r="D28" s="3" t="inlineStr">
         <is>
-          <t>BALCAO 0.8M SELENE</t>
+          <t>HOME ELDORADO 2.0</t>
         </is>
       </c>
       <c r="E28" s="3" t="inlineStr">
@@ -1604,20 +1604,20 @@
     <row r="29">
       <c r="A29" s="4" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B29" s="4" t="inlineStr">
         <is>
-          <t>16/06/2025</t>
+          <t>18/06/2025</t>
         </is>
       </c>
       <c r="C29" s="4" t="n">
-        <v>723258</v>
+        <v>723259</v>
       </c>
       <c r="D29" s="4" t="inlineStr">
         <is>
-          <t>HOME ELDORADO 2.0</t>
+          <t>HOME ATLANTA</t>
         </is>
       </c>
       <c r="E29" s="4" t="inlineStr">
@@ -1644,20 +1644,20 @@
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>17/06/2025</t>
+          <t>18/06/2025</t>
         </is>
       </c>
       <c r="C30" s="3" t="n">
-        <v>723259</v>
+        <v>726452</v>
       </c>
       <c r="D30" s="3" t="inlineStr">
         <is>
-          <t>HOME ATLANTA</t>
+          <t>APARADOR OLIMPO</t>
         </is>
       </c>
       <c r="E30" s="3" t="inlineStr">
@@ -1667,12 +1667,12 @@
       </c>
       <c r="F30" s="3" t="inlineStr">
         <is>
-          <t>Remessa</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G30" s="3" t="inlineStr">
         <is>
-          <t>Parcial</t>
+          <t>N/C</t>
         </is>
       </c>
       <c r="H30" s="3" t="inlineStr">
@@ -1684,20 +1684,20 @@
     <row r="31">
       <c r="A31" s="4" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="B31" s="4" t="inlineStr">
         <is>
-          <t>17/06/2025</t>
+          <t>18/06/2025</t>
         </is>
       </c>
       <c r="C31" s="4" t="n">
-        <v>723260</v>
+        <v>726453</v>
       </c>
       <c r="D31" s="4" t="inlineStr">
         <is>
-          <t>PAINEL RIPADO MODULAR 1.4</t>
+          <t>MESA DE CENTRO OLIMPO</t>
         </is>
       </c>
       <c r="E31" s="4" t="inlineStr">
@@ -1707,12 +1707,12 @@
       </c>
       <c r="F31" s="4" t="inlineStr">
         <is>
-          <t>Remessa</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G31" s="4" t="inlineStr">
         <is>
-          <t>Parcial</t>
+          <t>N/C</t>
         </is>
       </c>
       <c r="H31" s="4" t="inlineStr">
@@ -1724,20 +1724,20 @@
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>17/06/2025</t>
+          <t>18/06/2025</t>
         </is>
       </c>
       <c r="C32" s="3" t="n">
-        <v>723261</v>
+        <v>723260</v>
       </c>
       <c r="D32" s="3" t="inlineStr">
         <is>
-          <t>MODULO RIPADO 0.4</t>
+          <t>PAINEL RIPADO MODULAR 1.4</t>
         </is>
       </c>
       <c r="E32" s="3" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="F32" s="3" t="inlineStr">
         <is>
-          <t>N/C</t>
+          <t>Remessa</t>
         </is>
       </c>
       <c r="G32" s="3" t="inlineStr">
@@ -1764,20 +1764,20 @@
     <row r="33">
       <c r="A33" s="4" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B33" s="4" t="inlineStr">
         <is>
-          <t>17/06/2025</t>
+          <t>18/06/2025</t>
         </is>
       </c>
       <c r="C33" s="4" t="n">
-        <v>723262</v>
+        <v>723261</v>
       </c>
       <c r="D33" s="4" t="inlineStr">
         <is>
-          <t>HOME ALAGOAS</t>
+          <t>MODULO RIPADO 0.4</t>
         </is>
       </c>
       <c r="E33" s="4" t="inlineStr">
@@ -1804,7 +1804,7 @@
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
@@ -1813,11 +1813,11 @@
         </is>
       </c>
       <c r="C34" s="3" t="n">
-        <v>723263</v>
+        <v>723262</v>
       </c>
       <c r="D34" s="3" t="inlineStr">
         <is>
-          <t>KIT FITA LED LUZ BRANCA QUENTE 1 FITA (1600MM)</t>
+          <t>HOME ALAGOAS</t>
         </is>
       </c>
       <c r="E34" s="3" t="inlineStr">
@@ -1832,7 +1832,7 @@
       </c>
       <c r="G34" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Parcial</t>
         </is>
       </c>
       <c r="H34" s="3" t="inlineStr">
@@ -1849,15 +1849,15 @@
       </c>
       <c r="B35" s="4" t="inlineStr">
         <is>
-          <t>18/06/2025</t>
+          <t>23/06/2025</t>
         </is>
       </c>
       <c r="C35" s="4" t="n">
-        <v>726452</v>
+        <v>723263</v>
       </c>
       <c r="D35" s="4" t="inlineStr">
         <is>
-          <t>APARADOR OLIMPO</t>
+          <t>KIT FITA LED LUZ BRANCA QUENTE 1 FITA (1600MM)</t>
         </is>
       </c>
       <c r="E35" s="4" t="inlineStr">
@@ -1867,12 +1867,12 @@
       </c>
       <c r="F35" s="4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/C</t>
         </is>
       </c>
       <c r="G35" s="4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Parcial</t>
         </is>
       </c>
       <c r="H35" s="4" t="inlineStr">
@@ -1884,20 +1884,20 @@
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>18/06/2025</t>
+          <t>23/06/2025</t>
         </is>
       </c>
       <c r="C36" s="3" t="n">
-        <v>726453</v>
+        <v>723264</v>
       </c>
       <c r="D36" s="3" t="inlineStr">
         <is>
-          <t>MESA DE CENTRO OLIMPO</t>
+          <t>RACK DUBAI 1.6</t>
         </is>
       </c>
       <c r="E36" s="3" t="inlineStr">
@@ -1907,12 +1907,12 @@
       </c>
       <c r="F36" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Remessa</t>
         </is>
       </c>
       <c r="G36" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Parcial</t>
         </is>
       </c>
       <c r="H36" s="3" t="inlineStr">
@@ -1924,20 +1924,20 @@
     <row r="37">
       <c r="A37" s="4" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B37" s="4" t="inlineStr">
         <is>
-          <t>18/06/2025</t>
+          <t>23/06/2025</t>
         </is>
       </c>
       <c r="C37" s="4" t="n">
-        <v>723264</v>
+        <v>723265</v>
       </c>
       <c r="D37" s="4" t="inlineStr">
         <is>
-          <t>RACK DUBAI 1.6</t>
+          <t>CABECEIRA ILHABELA</t>
         </is>
       </c>
       <c r="E37" s="4" t="inlineStr">
@@ -1947,12 +1947,12 @@
       </c>
       <c r="F37" s="4" t="inlineStr">
         <is>
-          <t>Remessa</t>
+          <t>N/C</t>
         </is>
       </c>
       <c r="G37" s="4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Parcial</t>
         </is>
       </c>
       <c r="H37" s="4" t="inlineStr">
@@ -1964,20 +1964,20 @@
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>18/06/2025</t>
+          <t>23/06/2025</t>
         </is>
       </c>
       <c r="C38" s="3" t="n">
-        <v>723265</v>
+        <v>723266</v>
       </c>
       <c r="D38" s="3" t="inlineStr">
         <is>
-          <t>CABECEIRA ILHABELA</t>
+          <t>PAINEL HOME ARARUNA</t>
         </is>
       </c>
       <c r="E38" s="3" t="inlineStr">
@@ -1992,7 +1992,7 @@
       </c>
       <c r="G38" s="3" t="inlineStr">
         <is>
-          <t>Parcial</t>
+          <t>Separado</t>
         </is>
       </c>
       <c r="H38" s="3" t="inlineStr">
@@ -2004,20 +2004,20 @@
     <row r="39">
       <c r="A39" s="4" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="B39" s="4" t="inlineStr">
         <is>
-          <t>18/06/2025</t>
+          <t>24/06/2025</t>
         </is>
       </c>
       <c r="C39" s="4" t="n">
-        <v>723266</v>
+        <v>723267</v>
       </c>
       <c r="D39" s="4" t="inlineStr">
         <is>
-          <t>PAINEL HOME ARARUNA</t>
+          <t>PAINEL SANTORINI</t>
         </is>
       </c>
       <c r="E39" s="4" t="inlineStr">
@@ -2027,7 +2027,7 @@
       </c>
       <c r="F39" s="4" t="inlineStr">
         <is>
-          <t>N/C</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G39" s="4" t="inlineStr">
@@ -2044,20 +2044,20 @@
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>23/06/2025</t>
+          <t>24/06/2025</t>
         </is>
       </c>
       <c r="C40" s="3" t="n">
-        <v>723267</v>
+        <v>720859</v>
       </c>
       <c r="D40" s="3" t="inlineStr">
         <is>
-          <t>PAINEL SANTORINI</t>
+          <t>BUFFET RETRO 1.4 PARTE 1</t>
         </is>
       </c>
       <c r="E40" s="3" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="F40" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Remessa</t>
         </is>
       </c>
       <c r="G40" s="3" t="inlineStr">
@@ -2084,20 +2084,20 @@
     <row r="41">
       <c r="A41" s="4" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B41" s="4" t="inlineStr">
         <is>
-          <t>23/06/2025</t>
+          <t>24/06/2025</t>
         </is>
       </c>
       <c r="C41" s="4" t="n">
-        <v>720859</v>
+        <v>723189</v>
       </c>
       <c r="D41" s="4" t="inlineStr">
         <is>
-          <t>BUFFET RETRO 1.4 PARTE 1</t>
+          <t>HOME MUNIQUE</t>
         </is>
       </c>
       <c r="E41" s="4" t="inlineStr">
@@ -2124,20 +2124,20 @@
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>23/06/2025</t>
+          <t>24/06/2025</t>
         </is>
       </c>
       <c r="C42" s="3" t="n">
-        <v>723189</v>
+        <v>723268</v>
       </c>
       <c r="D42" s="3" t="inlineStr">
         <is>
-          <t>HOME MUNIQUE</t>
+          <t>CRISTALEIRA 0.65M SELENE</t>
         </is>
       </c>
       <c r="E42" s="3" t="inlineStr">
@@ -2147,7 +2147,7 @@
       </c>
       <c r="F42" s="3" t="inlineStr">
         <is>
-          <t>Remessa</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G42" s="3" t="inlineStr">
@@ -2157,27 +2157,27 @@
       </c>
       <c r="H42" s="3" t="inlineStr">
         <is>
-          <t>N/C</t>
+          <t>Separar</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="4" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B43" s="4" t="inlineStr">
         <is>
-          <t>23/06/2025</t>
+          <t>25/06/2025</t>
         </is>
       </c>
       <c r="C43" s="4" t="n">
-        <v>723268</v>
+        <v>723269</v>
       </c>
       <c r="D43" s="4" t="inlineStr">
         <is>
-          <t>CRISTALEIRA 0.65M SELENE</t>
+          <t>AEREO MICROONDAS 0.8M SELENE</t>
         </is>
       </c>
       <c r="E43" s="4" t="inlineStr">
@@ -2187,7 +2187,7 @@
       </c>
       <c r="F43" s="4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Remessa</t>
         </is>
       </c>
       <c r="G43" s="4" t="inlineStr">
@@ -2197,27 +2197,27 @@
       </c>
       <c r="H43" s="4" t="inlineStr">
         <is>
-          <t>Separar</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="3" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>24/06/2025</t>
+          <t>25/06/2025</t>
         </is>
       </c>
       <c r="C44" s="3" t="n">
-        <v>723269</v>
+        <v>723270</v>
       </c>
       <c r="D44" s="3" t="inlineStr">
         <is>
-          <t>AEREO MICROONDAS 0.8M SELENE</t>
+          <t>HOME VIENA</t>
         </is>
       </c>
       <c r="E44" s="3" t="inlineStr">
@@ -2244,20 +2244,20 @@
     <row r="45">
       <c r="A45" s="4" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="B45" s="4" t="inlineStr">
         <is>
-          <t>24/06/2025</t>
+          <t>25/06/2025</t>
         </is>
       </c>
       <c r="C45" s="4" t="n">
-        <v>723270</v>
+        <v>724841</v>
       </c>
       <c r="D45" s="4" t="inlineStr">
         <is>
-          <t>HOME VIENA</t>
+          <t>MESA DE TV AURUM</t>
         </is>
       </c>
       <c r="E45" s="4" t="inlineStr">
@@ -2267,7 +2267,7 @@
       </c>
       <c r="F45" s="4" t="inlineStr">
         <is>
-          <t>Remessa</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G45" s="4" t="inlineStr">
@@ -2284,20 +2284,20 @@
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>24/06/2025</t>
+          <t>25/06/2025</t>
         </is>
       </c>
       <c r="C46" s="3" t="n">
-        <v>724841</v>
+        <v>724842</v>
       </c>
       <c r="D46" s="3" t="inlineStr">
         <is>
-          <t>MESA DE TV AURUM</t>
+          <t>HOME GUARARAPES</t>
         </is>
       </c>
       <c r="E46" s="3" t="inlineStr">
@@ -2324,20 +2324,20 @@
     <row r="47">
       <c r="A47" s="4" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B47" s="4" t="inlineStr">
         <is>
-          <t>24/06/2025</t>
+          <t>26/06/2025</t>
         </is>
       </c>
       <c r="C47" s="4" t="n">
-        <v>724842</v>
+        <v>724862</v>
       </c>
       <c r="D47" s="4" t="inlineStr">
         <is>
-          <t>HOME GUARARAPES</t>
+          <t>RACK GOLD</t>
         </is>
       </c>
       <c r="E47" s="4" t="inlineStr">
@@ -2364,20 +2364,20 @@
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>25/06/2025</t>
+          <t>26/06/2025</t>
         </is>
       </c>
       <c r="C48" s="3" t="n">
-        <v>724862</v>
+        <v>724843</v>
       </c>
       <c r="D48" s="3" t="inlineStr">
         <is>
-          <t>RACK GOLD</t>
+          <t>KIT FITA LED LUZ BRANCA QUENTE 2 FITAS (1800MM) (FLOCO ISOPOR)</t>
         </is>
       </c>
       <c r="E48" s="3" t="inlineStr">
@@ -2404,20 +2404,20 @@
     <row r="49">
       <c r="A49" s="4" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B49" s="4" t="inlineStr">
         <is>
-          <t>25/06/2025</t>
+          <t>26/06/2025</t>
         </is>
       </c>
       <c r="C49" s="4" t="n">
-        <v>724843</v>
+        <v>724844</v>
       </c>
       <c r="D49" s="4" t="inlineStr">
         <is>
-          <t>KIT FITA LED LUZ BRANCA QUENTE 2 FITAS (1800MM) (FLOCO ISOPOR)</t>
+          <t>TORRE QUENTE 0.65M SELENE</t>
         </is>
       </c>
       <c r="E49" s="4" t="inlineStr">
@@ -2444,20 +2444,20 @@
     <row r="50">
       <c r="A50" s="3" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>25/06/2025</t>
+          <t>27/06/2025</t>
         </is>
       </c>
       <c r="C50" s="3" t="n">
-        <v>724844</v>
+        <v>724846</v>
       </c>
       <c r="D50" s="3" t="inlineStr">
         <is>
-          <t>TORRE QUENTE 0.65M SELENE</t>
+          <t>PAINEL HOME FRIBURGO</t>
         </is>
       </c>
       <c r="E50" s="3" t="inlineStr">
@@ -2484,20 +2484,20 @@
     <row r="51">
       <c r="A51" s="4" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="B51" s="4" t="inlineStr">
         <is>
-          <t>26/06/2025</t>
+          <t>27/06/2025</t>
         </is>
       </c>
       <c r="C51" s="4" t="n">
-        <v>724846</v>
+        <v>724847</v>
       </c>
       <c r="D51" s="4" t="inlineStr">
         <is>
-          <t>PAINEL HOME FRIBURGO</t>
+          <t>PAINEL HOME MARAGOGI</t>
         </is>
       </c>
       <c r="E51" s="4" t="inlineStr">
@@ -2517,27 +2517,27 @@
       </c>
       <c r="H51" s="4" t="inlineStr">
         <is>
-          <t>N/C</t>
+          <t>Separar</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="3" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>26/06/2025</t>
+          <t>27/06/2025</t>
         </is>
       </c>
       <c r="C52" s="3" t="n">
-        <v>724847</v>
+        <v>724848</v>
       </c>
       <c r="D52" s="3" t="inlineStr">
         <is>
-          <t>PAINEL HOME MARAGOGI</t>
+          <t>KIT 8 PES PLASTICO RETANGULAR 100X50X40 ABA U 78X28</t>
         </is>
       </c>
       <c r="E52" s="3" t="inlineStr">
@@ -2557,27 +2557,27 @@
       </c>
       <c r="H52" s="3" t="inlineStr">
         <is>
-          <t>Separar</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="4" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B53" s="4" t="inlineStr">
         <is>
-          <t>26/06/2025</t>
+          <t>27/06/2025</t>
         </is>
       </c>
       <c r="C53" s="4" t="n">
-        <v>724848</v>
+        <v>720857</v>
       </c>
       <c r="D53" s="4" t="inlineStr">
         <is>
-          <t>KIT 8 PES PLASTICO RETANGULAR 100X50X40 ABA U 78X28</t>
+          <t>PRATELEIRA 2.2</t>
         </is>
       </c>
       <c r="E53" s="4" t="inlineStr">
@@ -2587,12 +2587,12 @@
       </c>
       <c r="F53" s="4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/C</t>
         </is>
       </c>
       <c r="G53" s="4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Parcial</t>
         </is>
       </c>
       <c r="H53" s="4" t="inlineStr">
@@ -2609,7 +2609,7 @@
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>26/06/2025</t>
+          <t>27/06/2025</t>
         </is>
       </c>
       <c r="C54" s="3" t="n">
@@ -2649,7 +2649,7 @@
       </c>
       <c r="B55" s="4" t="inlineStr">
         <is>
-          <t>27/06/2025</t>
+          <t>28/06/2025</t>
         </is>
       </c>
       <c r="C55" s="4" t="n">
@@ -2689,7 +2689,7 @@
       </c>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t>27/06/2025</t>
+          <t>28/06/2025</t>
         </is>
       </c>
       <c r="C56" s="3" t="n">
@@ -2729,7 +2729,7 @@
       </c>
       <c r="B57" s="4" t="inlineStr">
         <is>
-          <t>27/06/2025</t>
+          <t>30/06/2025</t>
         </is>
       </c>
       <c r="C57" s="4" t="n">
@@ -2769,7 +2769,7 @@
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>27/06/2025</t>
+          <t>30/06/2025</t>
         </is>
       </c>
       <c r="C58" s="3" t="n">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="B59" s="4" t="inlineStr">
         <is>
-          <t>28/06/2025</t>
+          <t>30/06/2025</t>
         </is>
       </c>
       <c r="C59" s="4" t="n">
@@ -2849,7 +2849,7 @@
       </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>28/06/2025</t>
+          <t>30/06/2025</t>
         </is>
       </c>
       <c r="C60" s="3" t="n">
@@ -2889,7 +2889,7 @@
       </c>
       <c r="B61" s="4" t="inlineStr">
         <is>
-          <t>28/06/2025</t>
+          <t>30/06/2025</t>
         </is>
       </c>
       <c r="C61" s="4" t="n">
@@ -2929,7 +2929,7 @@
       </c>
       <c r="B62" s="3" t="inlineStr">
         <is>
-          <t>30/06/2025</t>
+          <t>01/07/2025</t>
         </is>
       </c>
       <c r="C62" s="3" t="n">
@@ -2969,7 +2969,7 @@
       </c>
       <c r="B63" s="4" t="inlineStr">
         <is>
-          <t>30/06/2025</t>
+          <t>01/07/2025</t>
         </is>
       </c>
       <c r="C63" s="4" t="n">
@@ -3009,7 +3009,7 @@
       </c>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>30/06/2025</t>
+          <t>01/07/2025</t>
         </is>
       </c>
       <c r="C64" s="3" t="n">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="B65" s="4" t="inlineStr">
         <is>
-          <t>30/06/2025</t>
+          <t>01/07/2025</t>
         </is>
       </c>
       <c r="C65" s="4" t="n">
@@ -3129,7 +3129,7 @@
       </c>
       <c r="B67" s="4" t="inlineStr">
         <is>
-          <t>01/07/2025</t>
+          <t>02/07/2025</t>
         </is>
       </c>
       <c r="C67" s="4" t="n">
@@ -3169,7 +3169,7 @@
       </c>
       <c r="B68" s="3" t="inlineStr">
         <is>
-          <t>01/07/2025</t>
+          <t>02/07/2025</t>
         </is>
       </c>
       <c r="C68" s="3" t="n">
@@ -3209,7 +3209,7 @@
       </c>
       <c r="B69" s="4" t="inlineStr">
         <is>
-          <t>01/07/2025</t>
+          <t>02/07/2025</t>
         </is>
       </c>
       <c r="C69" s="4" t="n">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="B71" s="4" t="inlineStr">
         <is>
-          <t>02/07/2025</t>
+          <t>03/07/2025</t>
         </is>
       </c>
       <c r="C71" s="4" t="n">
@@ -3329,7 +3329,7 @@
       </c>
       <c r="B72" s="3" t="inlineStr">
         <is>
-          <t>02/07/2025</t>
+          <t>03/07/2025</t>
         </is>
       </c>
       <c r="C72" s="3" t="n">
@@ -3369,7 +3369,7 @@
       </c>
       <c r="B73" s="4" t="inlineStr">
         <is>
-          <t>02/07/2025</t>
+          <t>03/07/2025</t>
         </is>
       </c>
       <c r="C73" s="4" t="n">
@@ -3489,7 +3489,7 @@
       </c>
       <c r="B76" s="3" t="inlineStr">
         <is>
-          <t>03/07/2025</t>
+          <t>04/07/2025</t>
         </is>
       </c>
       <c r="C76" s="3" t="n">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="B77" s="4" t="inlineStr">
         <is>
-          <t>03/07/2025</t>
+          <t>04/07/2025</t>
         </is>
       </c>
       <c r="C77" s="4" t="n">
@@ -3649,7 +3649,7 @@
       </c>
       <c r="B80" s="3" t="inlineStr">
         <is>
-          <t>04/07/2025</t>
+          <t>07/07/2025</t>
         </is>
       </c>
       <c r="C80" s="3" t="n">
@@ -3729,7 +3729,7 @@
       </c>
       <c r="B82" s="3" t="inlineStr">
         <is>
-          <t>07/07/2025</t>
+          <t>08/07/2025</t>
         </is>
       </c>
       <c r="C82" s="3" t="n">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="B83" s="4" t="inlineStr">
         <is>
-          <t>07/07/2025</t>
+          <t>08/07/2025</t>
         </is>
       </c>
       <c r="C83" s="4" t="n">
@@ -3809,7 +3809,7 @@
       </c>
       <c r="B84" s="3" t="inlineStr">
         <is>
-          <t>07/07/2025</t>
+          <t>08/07/2025</t>
         </is>
       </c>
       <c r="C84" s="3" t="n">

--- a/mapa-producao/Mapa_Producao.xlsx
+++ b/mapa-producao/Mapa_Producao.xlsx
@@ -460,7 +460,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H86"/>
+  <dimension ref="A1:H81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -529,15 +529,15 @@
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>11/06/2025</t>
+          <t>12/06/2025</t>
         </is>
       </c>
       <c r="C2" s="3" t="n">
-        <v>720841</v>
+        <v>720847</v>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>PAINEL GENOVA 2.0</t>
+          <t>AEREO 1.2M SELENE</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -569,15 +569,15 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>11/06/2025</t>
+          <t>12/06/2025</t>
         </is>
       </c>
       <c r="C3" s="4" t="n">
-        <v>720843</v>
+        <v>720848</v>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t>BUFFET 1.4 LUCCA PARTE 2</t>
+          <t>PAINEL EXTENSIVEL TULUM</t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
@@ -592,7 +592,7 @@
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t>N/C</t>
+          <t>Entregue</t>
         </is>
       </c>
       <c r="H3" s="4" t="inlineStr">
@@ -604,20 +604,20 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>11/06/2025</t>
+          <t>12/06/2025</t>
         </is>
       </c>
       <c r="C4" s="3" t="n">
-        <v>720844</v>
+        <v>720850</v>
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
-          <t>KIT FITA LED COB 9W BRANCA QUENTE 1 FITA (1150MM) - RACK SANTORINI</t>
+          <t>RACK DUBAI 1.8</t>
         </is>
       </c>
       <c r="E4" s="3" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="F4" s="3" t="inlineStr">
         <is>
-          <t>N/C</t>
+          <t>Remessa</t>
         </is>
       </c>
       <c r="G4" s="3" t="inlineStr">
@@ -644,20 +644,20 @@
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>11/06/2025</t>
+          <t>12/06/2025</t>
         </is>
       </c>
       <c r="C5" s="4" t="n">
-        <v>720845</v>
+        <v>720851</v>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t>PAINEL HOME ALVORADA</t>
+          <t>RACK COLORADO</t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -684,20 +684,20 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>11/06/2025</t>
+          <t>13/06/2025</t>
         </is>
       </c>
       <c r="C6" s="3" t="n">
-        <v>720846</v>
+        <v>720852</v>
       </c>
       <c r="D6" s="3" t="inlineStr">
         <is>
-          <t>TAMPO BALCAO 1.2M SELENE</t>
+          <t>PAINEL HOME FRIBURGO</t>
         </is>
       </c>
       <c r="E6" s="3" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="G6" s="3" t="inlineStr">
         <is>
-          <t>N/C</t>
+          <t>Entregue</t>
         </is>
       </c>
       <c r="H6" s="3" t="inlineStr">
@@ -724,20 +724,20 @@
     <row r="7">
       <c r="A7" s="4" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>12/06/2025</t>
+          <t>13/06/2025</t>
         </is>
       </c>
       <c r="C7" s="4" t="n">
-        <v>720847</v>
+        <v>720853</v>
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t>AEREO 1.2M SELENE</t>
+          <t>AEREO DUPLO 0.8M SELENE</t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
@@ -764,20 +764,20 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>12/06/2025</t>
+          <t>13/06/2025</t>
         </is>
       </c>
       <c r="C8" s="3" t="n">
-        <v>720848</v>
+        <v>720855</v>
       </c>
       <c r="D8" s="3" t="inlineStr">
         <is>
-          <t>PAINEL EXTENSIVEL TULUM</t>
+          <t>RACK CRONOS 1.8</t>
         </is>
       </c>
       <c r="E8" s="3" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="F8" s="3" t="inlineStr">
         <is>
-          <t>N/C</t>
+          <t>Remessa</t>
         </is>
       </c>
       <c r="G8" s="3" t="inlineStr">
@@ -804,20 +804,20 @@
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>12/06/2025</t>
+          <t>13/06/2025</t>
         </is>
       </c>
       <c r="C9" s="4" t="n">
-        <v>720850</v>
+        <v>720856</v>
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t>RACK DUBAI 1.8</t>
+          <t>HOME VIENA</t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
@@ -832,7 +832,7 @@
       </c>
       <c r="G9" s="4" t="inlineStr">
         <is>
-          <t>Separado</t>
+          <t>Entregue</t>
         </is>
       </c>
       <c r="H9" s="4" t="inlineStr">
@@ -844,20 +844,20 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>12/06/2025</t>
+          <t>16/06/2025</t>
         </is>
       </c>
       <c r="C10" s="3" t="n">
-        <v>720851</v>
+        <v>720858</v>
       </c>
       <c r="D10" s="3" t="inlineStr">
         <is>
-          <t>RACK COLORADO</t>
+          <t>MULTIUSO RETRO MARSALA  PARTE 2</t>
         </is>
       </c>
       <c r="E10" s="3" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="F10" s="3" t="inlineStr">
         <is>
-          <t>Remessa</t>
+          <t>N/C</t>
         </is>
       </c>
       <c r="G10" s="3" t="inlineStr">
@@ -884,20 +884,20 @@
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="B11" s="4" t="inlineStr">
         <is>
-          <t>13/06/2025</t>
+          <t>16/06/2025</t>
         </is>
       </c>
       <c r="C11" s="4" t="n">
-        <v>720852</v>
+        <v>719069</v>
       </c>
       <c r="D11" s="4" t="inlineStr">
         <is>
-          <t>PAINEL HOME FRIBURGO</t>
+          <t>MODULO RIPADO 0.4</t>
         </is>
       </c>
       <c r="E11" s="4" t="inlineStr">
@@ -929,15 +929,15 @@
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>13/06/2025</t>
+          <t>16/06/2025</t>
         </is>
       </c>
       <c r="C12" s="3" t="n">
-        <v>720853</v>
+        <v>719071</v>
       </c>
       <c r="D12" s="3" t="inlineStr">
         <is>
-          <t>AEREO DUPLO 0.8M SELENE</t>
+          <t>PAINEL RIPADO MODULAR 1.4</t>
         </is>
       </c>
       <c r="E12" s="3" t="inlineStr">
@@ -964,20 +964,20 @@
     <row r="13">
       <c r="A13" s="4" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B13" s="4" t="inlineStr">
         <is>
-          <t>13/06/2025</t>
+          <t>16/06/2025</t>
         </is>
       </c>
       <c r="C13" s="4" t="n">
-        <v>720855</v>
+        <v>719091</v>
       </c>
       <c r="D13" s="4" t="inlineStr">
         <is>
-          <t>RACK CRONOS 1.8</t>
+          <t>PRATELEIRA CURVA 2.2</t>
         </is>
       </c>
       <c r="E13" s="4" t="inlineStr">
@@ -987,7 +987,7 @@
       </c>
       <c r="F13" s="4" t="inlineStr">
         <is>
-          <t>Remessa</t>
+          <t>N/C</t>
         </is>
       </c>
       <c r="G13" s="4" t="inlineStr">
@@ -1004,20 +1004,20 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>13/06/2025</t>
+          <t>16/06/2025</t>
         </is>
       </c>
       <c r="C14" s="3" t="n">
-        <v>720856</v>
+        <v>719082</v>
       </c>
       <c r="D14" s="3" t="inlineStr">
         <is>
-          <t>HOME VIENA</t>
+          <t>PRATELEIRA CURVA 1.4</t>
         </is>
       </c>
       <c r="E14" s="3" t="inlineStr">
@@ -1027,7 +1027,7 @@
       </c>
       <c r="F14" s="3" t="inlineStr">
         <is>
-          <t>Remessa</t>
+          <t>N/C</t>
         </is>
       </c>
       <c r="G14" s="3" t="inlineStr">
@@ -1044,7 +1044,7 @@
     <row r="15">
       <c r="A15" s="4" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B15" s="4" t="inlineStr">
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="C15" s="4" t="n">
-        <v>720858</v>
+        <v>719089</v>
       </c>
       <c r="D15" s="4" t="inlineStr">
         <is>
-          <t>MULTIUSO RETRO MARSALA  PARTE 2</t>
+          <t>NICHO CURVO 1.4</t>
         </is>
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Parcial</t>
         </is>
       </c>
       <c r="F15" s="4" t="inlineStr">
@@ -1072,7 +1072,7 @@
       </c>
       <c r="G15" s="4" t="inlineStr">
         <is>
-          <t>Parcial</t>
+          <t>Entregue</t>
         </is>
       </c>
       <c r="H15" s="4" t="inlineStr">
@@ -1093,16 +1093,16 @@
         </is>
       </c>
       <c r="C16" s="3" t="n">
-        <v>719069</v>
+        <v>719070</v>
       </c>
       <c r="D16" s="3" t="inlineStr">
         <is>
-          <t>MODULO RIPADO 0.4</t>
+          <t>NICHO CURVO 2.2</t>
         </is>
       </c>
       <c r="E16" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Mapeado</t>
         </is>
       </c>
       <c r="F16" s="3" t="inlineStr">
@@ -1124,7 +1124,7 @@
     <row r="17">
       <c r="A17" s="4" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B17" s="4" t="inlineStr">
@@ -1133,11 +1133,11 @@
         </is>
       </c>
       <c r="C17" s="4" t="n">
-        <v>719071</v>
+        <v>723251</v>
       </c>
       <c r="D17" s="4" t="inlineStr">
         <is>
-          <t>PAINEL RIPADO MODULAR 1.4</t>
+          <t>TORRE QUENTE 0.65M SELENE</t>
         </is>
       </c>
       <c r="E17" s="4" t="inlineStr">
@@ -1152,7 +1152,7 @@
       </c>
       <c r="G17" s="4" t="inlineStr">
         <is>
-          <t>Parcial</t>
+          <t>Entregue</t>
         </is>
       </c>
       <c r="H17" s="4" t="inlineStr">
@@ -1164,7 +1164,7 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
@@ -1173,11 +1173,11 @@
         </is>
       </c>
       <c r="C18" s="3" t="n">
-        <v>719091</v>
+        <v>723252</v>
       </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t>PRATELEIRA CURVA 2.2</t>
+          <t>BALCAO 1.2M SELENE</t>
         </is>
       </c>
       <c r="E18" s="3" t="inlineStr">
@@ -1187,7 +1187,7 @@
       </c>
       <c r="F18" s="3" t="inlineStr">
         <is>
-          <t>N/C</t>
+          <t>Remessa</t>
         </is>
       </c>
       <c r="G18" s="3" t="inlineStr">
@@ -1204,20 +1204,20 @@
     <row r="19">
       <c r="A19" s="4" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B19" s="4" t="inlineStr">
         <is>
-          <t>16/06/2025</t>
+          <t>17/06/2025</t>
         </is>
       </c>
       <c r="C19" s="4" t="n">
-        <v>719082</v>
+        <v>723254</v>
       </c>
       <c r="D19" s="4" t="inlineStr">
         <is>
-          <t>PRATELEIRA CURVA 1.4</t>
+          <t>TAMPO BALCAO 1.2M SELENE</t>
         </is>
       </c>
       <c r="E19" s="4" t="inlineStr">
@@ -1232,7 +1232,7 @@
       </c>
       <c r="G19" s="4" t="inlineStr">
         <is>
-          <t>Entregue</t>
+          <t>N/C</t>
         </is>
       </c>
       <c r="H19" s="4" t="inlineStr">
@@ -1244,30 +1244,30 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>16/06/2025</t>
+          <t>17/06/2025</t>
         </is>
       </c>
       <c r="C20" s="3" t="n">
-        <v>719089</v>
+        <v>723255</v>
       </c>
       <c r="D20" s="3" t="inlineStr">
         <is>
-          <t>NICHO CURVO 1.4</t>
+          <t>RACK ESMERALDA</t>
         </is>
       </c>
       <c r="E20" s="3" t="inlineStr">
         <is>
-          <t>Parcial</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F20" s="3" t="inlineStr">
         <is>
-          <t>N/C</t>
+          <t>Remessa</t>
         </is>
       </c>
       <c r="G20" s="3" t="inlineStr">
@@ -1284,25 +1284,25 @@
     <row r="21">
       <c r="A21" s="4" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
-          <t>16/06/2025</t>
+          <t>17/06/2025</t>
         </is>
       </c>
       <c r="C21" s="4" t="n">
-        <v>719070</v>
+        <v>723256</v>
       </c>
       <c r="D21" s="4" t="inlineStr">
         <is>
-          <t>NICHO CURVO 2.2</t>
+          <t>KIT FITA LED LUZ BRANCA QUENTE 2 FITAS (1800MM) (FLOCO ISOPOR)</t>
         </is>
       </c>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>Mapeado</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F21" s="4" t="inlineStr">
@@ -1312,7 +1312,7 @@
       </c>
       <c r="G21" s="4" t="inlineStr">
         <is>
-          <t>Entregue</t>
+          <t>Parcial</t>
         </is>
       </c>
       <c r="H21" s="4" t="inlineStr">
@@ -1329,15 +1329,15 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>16/06/2025</t>
+          <t>17/06/2025</t>
         </is>
       </c>
       <c r="C22" s="3" t="n">
-        <v>723251</v>
+        <v>723257</v>
       </c>
       <c r="D22" s="3" t="inlineStr">
         <is>
-          <t>TORRE QUENTE 0.65M SELENE</t>
+          <t>BALCAO 0.8M SELENE</t>
         </is>
       </c>
       <c r="E22" s="3" t="inlineStr">
@@ -1352,7 +1352,7 @@
       </c>
       <c r="G22" s="3" t="inlineStr">
         <is>
-          <t>Separado</t>
+          <t>Parcial</t>
         </is>
       </c>
       <c r="H22" s="3" t="inlineStr">
@@ -1369,15 +1369,15 @@
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
-          <t>16/06/2025</t>
+          <t>17/06/2025</t>
         </is>
       </c>
       <c r="C23" s="4" t="n">
-        <v>723252</v>
+        <v>723258</v>
       </c>
       <c r="D23" s="4" t="inlineStr">
         <is>
-          <t>BALCAO 1.2M SELENE</t>
+          <t>HOME ELDORADO 2.0</t>
         </is>
       </c>
       <c r="E23" s="4" t="inlineStr">
@@ -1409,15 +1409,15 @@
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>17/06/2025</t>
+          <t>18/06/2025</t>
         </is>
       </c>
       <c r="C24" s="3" t="n">
-        <v>723254</v>
+        <v>723259</v>
       </c>
       <c r="D24" s="3" t="inlineStr">
         <is>
-          <t>TAMPO BALCAO 1.2M SELENE</t>
+          <t>HOME ATLANTA</t>
         </is>
       </c>
       <c r="E24" s="3" t="inlineStr">
@@ -1427,12 +1427,12 @@
       </c>
       <c r="F24" s="3" t="inlineStr">
         <is>
-          <t>N/C</t>
+          <t>Remessa</t>
         </is>
       </c>
       <c r="G24" s="3" t="inlineStr">
         <is>
-          <t>N/C</t>
+          <t>Parcial</t>
         </is>
       </c>
       <c r="H24" s="3" t="inlineStr">
@@ -1444,20 +1444,20 @@
     <row r="25">
       <c r="A25" s="4" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="B25" s="4" t="inlineStr">
         <is>
-          <t>17/06/2025</t>
+          <t>18/06/2025</t>
         </is>
       </c>
       <c r="C25" s="4" t="n">
-        <v>723255</v>
+        <v>726452</v>
       </c>
       <c r="D25" s="4" t="inlineStr">
         <is>
-          <t>RACK ESMERALDA</t>
+          <t>APARADOR OLIMPO</t>
         </is>
       </c>
       <c r="E25" s="4" t="inlineStr">
@@ -1467,12 +1467,12 @@
       </c>
       <c r="F25" s="4" t="inlineStr">
         <is>
-          <t>Remessa</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G25" s="4" t="inlineStr">
         <is>
-          <t>Separado</t>
+          <t>N/C</t>
         </is>
       </c>
       <c r="H25" s="4" t="inlineStr">
@@ -1489,15 +1489,15 @@
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>17/06/2025</t>
+          <t>18/06/2025</t>
         </is>
       </c>
       <c r="C26" s="3" t="n">
-        <v>723256</v>
+        <v>726453</v>
       </c>
       <c r="D26" s="3" t="inlineStr">
         <is>
-          <t>KIT FITA LED LUZ BRANCA QUENTE 2 FITAS (1800MM) (FLOCO ISOPOR)</t>
+          <t>MESA DE CENTRO OLIMPO</t>
         </is>
       </c>
       <c r="E26" s="3" t="inlineStr">
@@ -1507,12 +1507,12 @@
       </c>
       <c r="F26" s="3" t="inlineStr">
         <is>
-          <t>N/C</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G26" s="3" t="inlineStr">
         <is>
-          <t>Parcial</t>
+          <t>N/C</t>
         </is>
       </c>
       <c r="H26" s="3" t="inlineStr">
@@ -1524,20 +1524,20 @@
     <row r="27">
       <c r="A27" s="4" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B27" s="4" t="inlineStr">
         <is>
-          <t>17/06/2025</t>
+          <t>18/06/2025</t>
         </is>
       </c>
       <c r="C27" s="4" t="n">
-        <v>723257</v>
+        <v>723260</v>
       </c>
       <c r="D27" s="4" t="inlineStr">
         <is>
-          <t>BALCAO 0.8M SELENE</t>
+          <t>PAINEL RIPADO MODULAR 1.4</t>
         </is>
       </c>
       <c r="E27" s="4" t="inlineStr">
@@ -1564,20 +1564,20 @@
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>17/06/2025</t>
+          <t>18/06/2025</t>
         </is>
       </c>
       <c r="C28" s="3" t="n">
-        <v>723258</v>
+        <v>723261</v>
       </c>
       <c r="D28" s="3" t="inlineStr">
         <is>
-          <t>HOME ELDORADO 2.0</t>
+          <t>MODULO RIPADO 0.4</t>
         </is>
       </c>
       <c r="E28" s="3" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="F28" s="3" t="inlineStr">
         <is>
-          <t>Remessa</t>
+          <t>N/C</t>
         </is>
       </c>
       <c r="G28" s="3" t="inlineStr">
@@ -1604,7 +1604,7 @@
     <row r="29">
       <c r="A29" s="4" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="B29" s="4" t="inlineStr">
@@ -1613,11 +1613,11 @@
         </is>
       </c>
       <c r="C29" s="4" t="n">
-        <v>723259</v>
+        <v>723262</v>
       </c>
       <c r="D29" s="4" t="inlineStr">
         <is>
-          <t>HOME ATLANTA</t>
+          <t>HOME ALAGOAS</t>
         </is>
       </c>
       <c r="E29" s="4" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="F29" s="4" t="inlineStr">
         <is>
-          <t>Remessa</t>
+          <t>N/C</t>
         </is>
       </c>
       <c r="G29" s="4" t="inlineStr">
@@ -1649,15 +1649,15 @@
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>18/06/2025</t>
+          <t>23/06/2025</t>
         </is>
       </c>
       <c r="C30" s="3" t="n">
-        <v>726452</v>
+        <v>723263</v>
       </c>
       <c r="D30" s="3" t="inlineStr">
         <is>
-          <t>APARADOR OLIMPO</t>
+          <t>KIT FITA LED LUZ BRANCA QUENTE 1 FITA (1600MM)</t>
         </is>
       </c>
       <c r="E30" s="3" t="inlineStr">
@@ -1667,12 +1667,12 @@
       </c>
       <c r="F30" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/C</t>
         </is>
       </c>
       <c r="G30" s="3" t="inlineStr">
         <is>
-          <t>N/C</t>
+          <t>Parcial</t>
         </is>
       </c>
       <c r="H30" s="3" t="inlineStr">
@@ -1684,20 +1684,20 @@
     <row r="31">
       <c r="A31" s="4" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B31" s="4" t="inlineStr">
         <is>
-          <t>18/06/2025</t>
+          <t>23/06/2025</t>
         </is>
       </c>
       <c r="C31" s="4" t="n">
-        <v>726453</v>
+        <v>723264</v>
       </c>
       <c r="D31" s="4" t="inlineStr">
         <is>
-          <t>MESA DE CENTRO OLIMPO</t>
+          <t>RACK DUBAI 1.6</t>
         </is>
       </c>
       <c r="E31" s="4" t="inlineStr">
@@ -1707,12 +1707,12 @@
       </c>
       <c r="F31" s="4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Remessa</t>
         </is>
       </c>
       <c r="G31" s="4" t="inlineStr">
         <is>
-          <t>N/C</t>
+          <t>Parcial</t>
         </is>
       </c>
       <c r="H31" s="4" t="inlineStr">
@@ -1729,15 +1729,15 @@
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>18/06/2025</t>
+          <t>23/06/2025</t>
         </is>
       </c>
       <c r="C32" s="3" t="n">
-        <v>723260</v>
+        <v>723265</v>
       </c>
       <c r="D32" s="3" t="inlineStr">
         <is>
-          <t>PAINEL RIPADO MODULAR 1.4</t>
+          <t>CABECEIRA ILHABELA</t>
         </is>
       </c>
       <c r="E32" s="3" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="F32" s="3" t="inlineStr">
         <is>
-          <t>Remessa</t>
+          <t>N/C</t>
         </is>
       </c>
       <c r="G32" s="3" t="inlineStr">
@@ -1769,15 +1769,15 @@
       </c>
       <c r="B33" s="4" t="inlineStr">
         <is>
-          <t>18/06/2025</t>
+          <t>23/06/2025</t>
         </is>
       </c>
       <c r="C33" s="4" t="n">
-        <v>723261</v>
+        <v>723266</v>
       </c>
       <c r="D33" s="4" t="inlineStr">
         <is>
-          <t>MODULO RIPADO 0.4</t>
+          <t>PAINEL HOME ARARUNA</t>
         </is>
       </c>
       <c r="E33" s="4" t="inlineStr">
@@ -1792,7 +1792,7 @@
       </c>
       <c r="G33" s="4" t="inlineStr">
         <is>
-          <t>Parcial</t>
+          <t>Separado</t>
         </is>
       </c>
       <c r="H33" s="4" t="inlineStr">
@@ -1809,15 +1809,15 @@
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>18/06/2025</t>
+          <t>24/06/2025</t>
         </is>
       </c>
       <c r="C34" s="3" t="n">
-        <v>723262</v>
+        <v>723267</v>
       </c>
       <c r="D34" s="3" t="inlineStr">
         <is>
-          <t>HOME ALAGOAS</t>
+          <t>PAINEL SANTORINI</t>
         </is>
       </c>
       <c r="E34" s="3" t="inlineStr">
@@ -1827,7 +1827,7 @@
       </c>
       <c r="F34" s="3" t="inlineStr">
         <is>
-          <t>N/C</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G34" s="3" t="inlineStr">
@@ -1844,20 +1844,20 @@
     <row r="35">
       <c r="A35" s="4" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B35" s="4" t="inlineStr">
         <is>
-          <t>23/06/2025</t>
+          <t>24/06/2025</t>
         </is>
       </c>
       <c r="C35" s="4" t="n">
-        <v>723263</v>
+        <v>720859</v>
       </c>
       <c r="D35" s="4" t="inlineStr">
         <is>
-          <t>KIT FITA LED LUZ BRANCA QUENTE 1 FITA (1600MM)</t>
+          <t>BUFFET RETRO 1.4 PARTE 1</t>
         </is>
       </c>
       <c r="E35" s="4" t="inlineStr">
@@ -1867,7 +1867,7 @@
       </c>
       <c r="F35" s="4" t="inlineStr">
         <is>
-          <t>N/C</t>
+          <t>Remessa</t>
         </is>
       </c>
       <c r="G35" s="4" t="inlineStr">
@@ -1884,20 +1884,20 @@
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>23/06/2025</t>
+          <t>24/06/2025</t>
         </is>
       </c>
       <c r="C36" s="3" t="n">
-        <v>723264</v>
+        <v>723189</v>
       </c>
       <c r="D36" s="3" t="inlineStr">
         <is>
-          <t>RACK DUBAI 1.6</t>
+          <t>HOME MUNIQUE</t>
         </is>
       </c>
       <c r="E36" s="3" t="inlineStr">
@@ -1924,20 +1924,20 @@
     <row r="37">
       <c r="A37" s="4" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B37" s="4" t="inlineStr">
         <is>
-          <t>23/06/2025</t>
+          <t>24/06/2025</t>
         </is>
       </c>
       <c r="C37" s="4" t="n">
-        <v>723265</v>
+        <v>723268</v>
       </c>
       <c r="D37" s="4" t="inlineStr">
         <is>
-          <t>CABECEIRA ILHABELA</t>
+          <t>CRISTALEIRA 0.65M SELENE</t>
         </is>
       </c>
       <c r="E37" s="4" t="inlineStr">
@@ -1947,37 +1947,37 @@
       </c>
       <c r="F37" s="4" t="inlineStr">
         <is>
-          <t>N/C</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G37" s="4" t="inlineStr">
         <is>
-          <t>Parcial</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H37" s="4" t="inlineStr">
         <is>
-          <t>N/C</t>
+          <t>Separar</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>23/06/2025</t>
+          <t>25/06/2025</t>
         </is>
       </c>
       <c r="C38" s="3" t="n">
-        <v>723266</v>
+        <v>723269</v>
       </c>
       <c r="D38" s="3" t="inlineStr">
         <is>
-          <t>PAINEL HOME ARARUNA</t>
+          <t>AEREO MICROONDAS 0.8M SELENE</t>
         </is>
       </c>
       <c r="E38" s="3" t="inlineStr">
@@ -1987,12 +1987,12 @@
       </c>
       <c r="F38" s="3" t="inlineStr">
         <is>
-          <t>N/C</t>
+          <t>Remessa</t>
         </is>
       </c>
       <c r="G38" s="3" t="inlineStr">
         <is>
-          <t>Separado</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H38" s="3" t="inlineStr">
@@ -2004,20 +2004,20 @@
     <row r="39">
       <c r="A39" s="4" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B39" s="4" t="inlineStr">
         <is>
-          <t>24/06/2025</t>
+          <t>25/06/2025</t>
         </is>
       </c>
       <c r="C39" s="4" t="n">
-        <v>723267</v>
+        <v>723270</v>
       </c>
       <c r="D39" s="4" t="inlineStr">
         <is>
-          <t>PAINEL SANTORINI</t>
+          <t>HOME VIENA</t>
         </is>
       </c>
       <c r="E39" s="4" t="inlineStr">
@@ -2027,7 +2027,7 @@
       </c>
       <c r="F39" s="4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Remessa</t>
         </is>
       </c>
       <c r="G39" s="4" t="inlineStr">
@@ -2044,20 +2044,20 @@
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>24/06/2025</t>
+          <t>25/06/2025</t>
         </is>
       </c>
       <c r="C40" s="3" t="n">
-        <v>720859</v>
+        <v>724841</v>
       </c>
       <c r="D40" s="3" t="inlineStr">
         <is>
-          <t>BUFFET RETRO 1.4 PARTE 1</t>
+          <t>MESA DE TV AURUM</t>
         </is>
       </c>
       <c r="E40" s="3" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="F40" s="3" t="inlineStr">
         <is>
-          <t>Remessa</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G40" s="3" t="inlineStr">
@@ -2084,20 +2084,20 @@
     <row r="41">
       <c r="A41" s="4" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B41" s="4" t="inlineStr">
         <is>
-          <t>24/06/2025</t>
+          <t>25/06/2025</t>
         </is>
       </c>
       <c r="C41" s="4" t="n">
-        <v>723189</v>
+        <v>724842</v>
       </c>
       <c r="D41" s="4" t="inlineStr">
         <is>
-          <t>HOME MUNIQUE</t>
+          <t>HOME GUARARAPES</t>
         </is>
       </c>
       <c r="E41" s="4" t="inlineStr">
@@ -2107,7 +2107,7 @@
       </c>
       <c r="F41" s="4" t="inlineStr">
         <is>
-          <t>Remessa</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G41" s="4" t="inlineStr">
@@ -2124,20 +2124,20 @@
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>24/06/2025</t>
+          <t>26/06/2025</t>
         </is>
       </c>
       <c r="C42" s="3" t="n">
-        <v>723268</v>
+        <v>724862</v>
       </c>
       <c r="D42" s="3" t="inlineStr">
         <is>
-          <t>CRISTALEIRA 0.65M SELENE</t>
+          <t>RACK GOLD</t>
         </is>
       </c>
       <c r="E42" s="3" t="inlineStr">
@@ -2157,27 +2157,27 @@
       </c>
       <c r="H42" s="3" t="inlineStr">
         <is>
-          <t>Separar</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="4" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="B43" s="4" t="inlineStr">
         <is>
-          <t>25/06/2025</t>
+          <t>26/06/2025</t>
         </is>
       </c>
       <c r="C43" s="4" t="n">
-        <v>723269</v>
+        <v>724843</v>
       </c>
       <c r="D43" s="4" t="inlineStr">
         <is>
-          <t>AEREO MICROONDAS 0.8M SELENE</t>
+          <t>KIT FITA LED LUZ BRANCA QUENTE 2 FITAS (1800MM) (FLOCO ISOPOR)</t>
         </is>
       </c>
       <c r="E43" s="4" t="inlineStr">
@@ -2187,7 +2187,7 @@
       </c>
       <c r="F43" s="4" t="inlineStr">
         <is>
-          <t>Remessa</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G43" s="4" t="inlineStr">
@@ -2204,20 +2204,20 @@
     <row r="44">
       <c r="A44" s="3" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>25/06/2025</t>
+          <t>26/06/2025</t>
         </is>
       </c>
       <c r="C44" s="3" t="n">
-        <v>723270</v>
+        <v>724844</v>
       </c>
       <c r="D44" s="3" t="inlineStr">
         <is>
-          <t>HOME VIENA</t>
+          <t>TORRE QUENTE 0.65M SELENE</t>
         </is>
       </c>
       <c r="E44" s="3" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="F44" s="3" t="inlineStr">
         <is>
-          <t>Remessa</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G44" s="3" t="inlineStr">
@@ -2244,20 +2244,20 @@
     <row r="45">
       <c r="A45" s="4" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B45" s="4" t="inlineStr">
         <is>
-          <t>25/06/2025</t>
+          <t>27/06/2025</t>
         </is>
       </c>
       <c r="C45" s="4" t="n">
-        <v>724841</v>
+        <v>724846</v>
       </c>
       <c r="D45" s="4" t="inlineStr">
         <is>
-          <t>MESA DE TV AURUM</t>
+          <t>PAINEL HOME FRIBURGO</t>
         </is>
       </c>
       <c r="E45" s="4" t="inlineStr">
@@ -2284,20 +2284,20 @@
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>25/06/2025</t>
+          <t>27/06/2025</t>
         </is>
       </c>
       <c r="C46" s="3" t="n">
-        <v>724842</v>
+        <v>724847</v>
       </c>
       <c r="D46" s="3" t="inlineStr">
         <is>
-          <t>HOME GUARARAPES</t>
+          <t>PAINEL HOME MARAGOGI</t>
         </is>
       </c>
       <c r="E46" s="3" t="inlineStr">
@@ -2317,27 +2317,27 @@
       </c>
       <c r="H46" s="3" t="inlineStr">
         <is>
-          <t>N/C</t>
+          <t>Separar</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="4" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="B47" s="4" t="inlineStr">
         <is>
-          <t>26/06/2025</t>
+          <t>27/06/2025</t>
         </is>
       </c>
       <c r="C47" s="4" t="n">
-        <v>724862</v>
+        <v>724848</v>
       </c>
       <c r="D47" s="4" t="inlineStr">
         <is>
-          <t>RACK GOLD</t>
+          <t>KIT 8 PES PLASTICO RETANGULAR 100X50X40 ABA U 78X28</t>
         </is>
       </c>
       <c r="E47" s="4" t="inlineStr">
@@ -2364,20 +2364,20 @@
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>26/06/2025</t>
+          <t>27/06/2025</t>
         </is>
       </c>
       <c r="C48" s="3" t="n">
-        <v>724843</v>
+        <v>720857</v>
       </c>
       <c r="D48" s="3" t="inlineStr">
         <is>
-          <t>KIT FITA LED LUZ BRANCA QUENTE 2 FITAS (1800MM) (FLOCO ISOPOR)</t>
+          <t>PRATELEIRA 2.2</t>
         </is>
       </c>
       <c r="E48" s="3" t="inlineStr">
@@ -2387,12 +2387,12 @@
       </c>
       <c r="F48" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>N/C</t>
         </is>
       </c>
       <c r="G48" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Parcial</t>
         </is>
       </c>
       <c r="H48" s="3" t="inlineStr">
@@ -2404,20 +2404,20 @@
     <row r="49">
       <c r="A49" s="4" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B49" s="4" t="inlineStr">
         <is>
-          <t>26/06/2025</t>
+          <t>27/06/2025</t>
         </is>
       </c>
       <c r="C49" s="4" t="n">
-        <v>724844</v>
+        <v>724849</v>
       </c>
       <c r="D49" s="4" t="inlineStr">
         <is>
-          <t>TORRE QUENTE 0.65M SELENE</t>
+          <t>MULTIUSO RETRO  PARTE 1</t>
         </is>
       </c>
       <c r="E49" s="4" t="inlineStr">
@@ -2444,20 +2444,20 @@
     <row r="50">
       <c r="A50" s="3" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>27/06/2025</t>
+          <t>28/06/2025</t>
         </is>
       </c>
       <c r="C50" s="3" t="n">
-        <v>724846</v>
+        <v>724851</v>
       </c>
       <c r="D50" s="3" t="inlineStr">
         <is>
-          <t>PAINEL HOME FRIBURGO</t>
+          <t>HOME ELDORADO 2.0</t>
         </is>
       </c>
       <c r="E50" s="3" t="inlineStr">
@@ -2477,27 +2477,27 @@
       </c>
       <c r="H50" s="3" t="inlineStr">
         <is>
-          <t>N/C</t>
+          <t>Separar</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="4" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="B51" s="4" t="inlineStr">
         <is>
-          <t>27/06/2025</t>
+          <t>28/06/2025</t>
         </is>
       </c>
       <c r="C51" s="4" t="n">
-        <v>724847</v>
+        <v>724852</v>
       </c>
       <c r="D51" s="4" t="inlineStr">
         <is>
-          <t>PAINEL HOME MARAGOGI</t>
+          <t>KIT FITA LED LUZ BRANCA QUENTE 1 FITA (1600MM)</t>
         </is>
       </c>
       <c r="E51" s="4" t="inlineStr">
@@ -2517,27 +2517,27 @@
       </c>
       <c r="H51" s="4" t="inlineStr">
         <is>
-          <t>Separar</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="3" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>27/06/2025</t>
+          <t>30/06/2025</t>
         </is>
       </c>
       <c r="C52" s="3" t="n">
-        <v>724848</v>
+        <v>724856</v>
       </c>
       <c r="D52" s="3" t="inlineStr">
         <is>
-          <t>KIT 8 PES PLASTICO RETANGULAR 100X50X40 ABA U 78X28</t>
+          <t>BUFFET AURA 1.4</t>
         </is>
       </c>
       <c r="E52" s="3" t="inlineStr">
@@ -2564,20 +2564,20 @@
     <row r="53">
       <c r="A53" s="4" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="B53" s="4" t="inlineStr">
         <is>
-          <t>27/06/2025</t>
+          <t>30/06/2025</t>
         </is>
       </c>
       <c r="C53" s="4" t="n">
-        <v>720857</v>
+        <v>724860</v>
       </c>
       <c r="D53" s="4" t="inlineStr">
         <is>
-          <t>PRATELEIRA 2.2</t>
+          <t>AEREO 1.2M SELENE</t>
         </is>
       </c>
       <c r="E53" s="4" t="inlineStr">
@@ -2587,12 +2587,12 @@
       </c>
       <c r="F53" s="4" t="inlineStr">
         <is>
-          <t>N/C</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G53" s="4" t="inlineStr">
         <is>
-          <t>Parcial</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H53" s="4" t="inlineStr">
@@ -2609,15 +2609,15 @@
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>27/06/2025</t>
+          <t>30/06/2025</t>
         </is>
       </c>
       <c r="C54" s="3" t="n">
-        <v>724849</v>
+        <v>724861</v>
       </c>
       <c r="D54" s="3" t="inlineStr">
         <is>
-          <t>MULTIUSO RETRO  PARTE 1</t>
+          <t>RACK CRONOS 2.2</t>
         </is>
       </c>
       <c r="E54" s="3" t="inlineStr">
@@ -2644,20 +2644,20 @@
     <row r="55">
       <c r="A55" s="4" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B55" s="4" t="inlineStr">
         <is>
-          <t>28/06/2025</t>
+          <t>30/06/2025</t>
         </is>
       </c>
       <c r="C55" s="4" t="n">
-        <v>724851</v>
+        <v>724863</v>
       </c>
       <c r="D55" s="4" t="inlineStr">
         <is>
-          <t>HOME ELDORADO 2.0</t>
+          <t>BALCAO 0.8M SELENE</t>
         </is>
       </c>
       <c r="E55" s="4" t="inlineStr">
@@ -2677,27 +2677,27 @@
       </c>
       <c r="H55" s="4" t="inlineStr">
         <is>
-          <t>Separar</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t>28/06/2025</t>
+          <t>30/06/2025</t>
         </is>
       </c>
       <c r="C56" s="3" t="n">
-        <v>724852</v>
+        <v>724865</v>
       </c>
       <c r="D56" s="3" t="inlineStr">
         <is>
-          <t>KIT FITA LED LUZ BRANCA QUENTE 1 FITA (1600MM)</t>
+          <t>TAMPO BALCAO 1.2M ALLURE/ATENA</t>
         </is>
       </c>
       <c r="E56" s="3" t="inlineStr">
@@ -2724,20 +2724,20 @@
     <row r="57">
       <c r="A57" s="4" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B57" s="4" t="inlineStr">
         <is>
-          <t>30/06/2025</t>
+          <t>01/07/2025</t>
         </is>
       </c>
       <c r="C57" s="4" t="n">
-        <v>724856</v>
+        <v>724866</v>
       </c>
       <c r="D57" s="4" t="inlineStr">
         <is>
-          <t>BUFFET AURA 1.4</t>
+          <t>PAINEL HOME HAVANA</t>
         </is>
       </c>
       <c r="E57" s="4" t="inlineStr">
@@ -2764,20 +2764,20 @@
     <row r="58">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>30/06/2025</t>
+          <t>01/07/2025</t>
         </is>
       </c>
       <c r="C58" s="3" t="n">
-        <v>724860</v>
+        <v>724867</v>
       </c>
       <c r="D58" s="3" t="inlineStr">
         <is>
-          <t>AEREO 1.2M SELENE</t>
+          <t>PRATELEIRA 1.4</t>
         </is>
       </c>
       <c r="E58" s="3" t="inlineStr">
@@ -2804,20 +2804,20 @@
     <row r="59">
       <c r="A59" s="4" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B59" s="4" t="inlineStr">
         <is>
-          <t>30/06/2025</t>
+          <t>01/07/2025</t>
         </is>
       </c>
       <c r="C59" s="4" t="n">
-        <v>724861</v>
+        <v>724868</v>
       </c>
       <c r="D59" s="4" t="inlineStr">
         <is>
-          <t>RACK CRONOS 2.2</t>
+          <t>PAINEL HOME LUGANO</t>
         </is>
       </c>
       <c r="E59" s="4" t="inlineStr">
@@ -2844,20 +2844,20 @@
     <row r="60">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>30/06/2025</t>
+          <t>01/07/2025</t>
         </is>
       </c>
       <c r="C60" s="3" t="n">
-        <v>724863</v>
+        <v>723271</v>
       </c>
       <c r="D60" s="3" t="inlineStr">
         <is>
-          <t>BALCAO 0.8M SELENE</t>
+          <t>CRISTALEIRA 0.7M ALLURE</t>
         </is>
       </c>
       <c r="E60" s="3" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="F60" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Remessa</t>
         </is>
       </c>
       <c r="G60" s="3" t="inlineStr">
@@ -2877,27 +2877,27 @@
       </c>
       <c r="H60" s="3" t="inlineStr">
         <is>
-          <t>N/C</t>
+          <t>Separar</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="4" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B61" s="4" t="inlineStr">
         <is>
-          <t>30/06/2025</t>
+          <t>01/07/2025</t>
         </is>
       </c>
       <c r="C61" s="4" t="n">
-        <v>724865</v>
+        <v>726236</v>
       </c>
       <c r="D61" s="4" t="inlineStr">
         <is>
-          <t>TAMPO BALCAO 1.2M ALLURE/ATENA</t>
+          <t>AEREO 1.2M ALLURE</t>
         </is>
       </c>
       <c r="E61" s="4" t="inlineStr">
@@ -2917,27 +2917,27 @@
       </c>
       <c r="H61" s="4" t="inlineStr">
         <is>
-          <t>N/C</t>
+          <t>Separar</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="3" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B62" s="3" t="inlineStr">
         <is>
-          <t>01/07/2025</t>
+          <t>02/07/2025</t>
         </is>
       </c>
       <c r="C62" s="3" t="n">
-        <v>724866</v>
+        <v>726237</v>
       </c>
       <c r="D62" s="3" t="inlineStr">
         <is>
-          <t>PAINEL HOME HAVANA</t>
+          <t>PAINEL EXTENSIVEL TUTI</t>
         </is>
       </c>
       <c r="E62" s="3" t="inlineStr">
@@ -2964,20 +2964,20 @@
     <row r="63">
       <c r="A63" s="4" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B63" s="4" t="inlineStr">
         <is>
-          <t>01/07/2025</t>
+          <t>02/07/2025</t>
         </is>
       </c>
       <c r="C63" s="4" t="n">
-        <v>724867</v>
+        <v>726259</v>
       </c>
       <c r="D63" s="4" t="inlineStr">
         <is>
-          <t>PRATELEIRA 1.4</t>
+          <t>ESTANTE IPANEMA</t>
         </is>
       </c>
       <c r="E63" s="4" t="inlineStr">
@@ -3009,15 +3009,15 @@
       </c>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>01/07/2025</t>
+          <t>02/07/2025</t>
         </is>
       </c>
       <c r="C64" s="3" t="n">
-        <v>724868</v>
+        <v>726238</v>
       </c>
       <c r="D64" s="3" t="inlineStr">
         <is>
-          <t>PAINEL HOME LUGANO</t>
+          <t>RACK RECIFE</t>
         </is>
       </c>
       <c r="E64" s="3" t="inlineStr">
@@ -3037,27 +3037,27 @@
       </c>
       <c r="H64" s="3" t="inlineStr">
         <is>
-          <t>N/C</t>
+          <t>Separar</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="4" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="B65" s="4" t="inlineStr">
         <is>
-          <t>01/07/2025</t>
+          <t>02/07/2025</t>
         </is>
       </c>
       <c r="C65" s="4" t="n">
-        <v>723271</v>
+        <v>726239</v>
       </c>
       <c r="D65" s="4" t="inlineStr">
         <is>
-          <t>CRISTALEIRA 0.7M ALLURE</t>
+          <t>KIT FITA LED LUZ BRANCA QUENTE 1 FITA (2000MM)</t>
         </is>
       </c>
       <c r="E65" s="4" t="inlineStr">
@@ -3067,7 +3067,7 @@
       </c>
       <c r="F65" s="4" t="inlineStr">
         <is>
-          <t>Remessa</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G65" s="4" t="inlineStr">
@@ -3077,27 +3077,27 @@
       </c>
       <c r="H65" s="4" t="inlineStr">
         <is>
-          <t>Separar</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="3" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="B66" s="3" t="inlineStr">
         <is>
-          <t>01/07/2025</t>
+          <t>03/07/2025</t>
         </is>
       </c>
       <c r="C66" s="3" t="n">
-        <v>726236</v>
+        <v>726240</v>
       </c>
       <c r="D66" s="3" t="inlineStr">
         <is>
-          <t>AEREO 1.2M ALLURE</t>
+          <t>HOME NAPOLI</t>
         </is>
       </c>
       <c r="E66" s="3" t="inlineStr">
@@ -3117,27 +3117,27 @@
       </c>
       <c r="H66" s="3" t="inlineStr">
         <is>
-          <t>Separar</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="4" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B67" s="4" t="inlineStr">
         <is>
-          <t>02/07/2025</t>
+          <t>03/07/2025</t>
         </is>
       </c>
       <c r="C67" s="4" t="n">
-        <v>726237</v>
+        <v>726241</v>
       </c>
       <c r="D67" s="4" t="inlineStr">
         <is>
-          <t>PAINEL EXTENSIVEL TUTI</t>
+          <t>CABECEIRA LARANJEIRAS 2.4</t>
         </is>
       </c>
       <c r="E67" s="4" t="inlineStr">
@@ -3164,20 +3164,20 @@
     <row r="68">
       <c r="A68" s="3" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B68" s="3" t="inlineStr">
         <is>
-          <t>02/07/2025</t>
+          <t>03/07/2025</t>
         </is>
       </c>
       <c r="C68" s="3" t="n">
-        <v>726238</v>
+        <v>726242</v>
       </c>
       <c r="D68" s="3" t="inlineStr">
         <is>
-          <t>RACK RECIFE</t>
+          <t>RACK SAO FRANCISCO</t>
         </is>
       </c>
       <c r="E68" s="3" t="inlineStr">
@@ -3197,7 +3197,7 @@
       </c>
       <c r="H68" s="3" t="inlineStr">
         <is>
-          <t>Separar</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
@@ -3209,15 +3209,15 @@
       </c>
       <c r="B69" s="4" t="inlineStr">
         <is>
-          <t>02/07/2025</t>
+          <t>03/07/2025</t>
         </is>
       </c>
       <c r="C69" s="4" t="n">
-        <v>726239</v>
+        <v>726243</v>
       </c>
       <c r="D69" s="4" t="inlineStr">
         <is>
-          <t>KIT FITA LED LUZ BRANCA QUENTE 1 FITA (2000MM)</t>
+          <t>KIT FITA LED LUZ BRANCA QUENTE 1 FITA (1600MM)</t>
         </is>
       </c>
       <c r="E69" s="4" t="inlineStr">
@@ -3244,20 +3244,20 @@
     <row r="70">
       <c r="A70" s="3" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B70" s="3" t="inlineStr">
         <is>
-          <t>02/07/2025</t>
+          <t>04/07/2025</t>
         </is>
       </c>
       <c r="C70" s="3" t="n">
-        <v>726240</v>
+        <v>726244</v>
       </c>
       <c r="D70" s="3" t="inlineStr">
         <is>
-          <t>HOME NAPOLI</t>
+          <t>RACK NEW BLUMENAU</t>
         </is>
       </c>
       <c r="E70" s="3" t="inlineStr">
@@ -3284,20 +3284,20 @@
     <row r="71">
       <c r="A71" s="4" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="B71" s="4" t="inlineStr">
         <is>
-          <t>03/07/2025</t>
+          <t>04/07/2025</t>
         </is>
       </c>
       <c r="C71" s="4" t="n">
-        <v>726241</v>
+        <v>726245</v>
       </c>
       <c r="D71" s="4" t="inlineStr">
         <is>
-          <t>CABECEIRA LARANJEIRAS 2.4</t>
+          <t>RACK ARACATUBA</t>
         </is>
       </c>
       <c r="E71" s="4" t="inlineStr">
@@ -3324,20 +3324,20 @@
     <row r="72">
       <c r="A72" s="3" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B72" s="3" t="inlineStr">
         <is>
-          <t>03/07/2025</t>
+          <t>04/07/2025</t>
         </is>
       </c>
       <c r="C72" s="3" t="n">
-        <v>726242</v>
+        <v>726246</v>
       </c>
       <c r="D72" s="3" t="inlineStr">
         <is>
-          <t>RACK SAO FRANCISCO</t>
+          <t>AEREO DUPLO 0.8M SELENE</t>
         </is>
       </c>
       <c r="E72" s="3" t="inlineStr">
@@ -3364,20 +3364,20 @@
     <row r="73">
       <c r="A73" s="4" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B73" s="4" t="inlineStr">
         <is>
-          <t>03/07/2025</t>
+          <t>04/07/2025</t>
         </is>
       </c>
       <c r="C73" s="4" t="n">
-        <v>726243</v>
+        <v>726247</v>
       </c>
       <c r="D73" s="4" t="inlineStr">
         <is>
-          <t>KIT FITA LED LUZ BRANCA QUENTE 1 FITA (1600MM)</t>
+          <t>PAINEL HOME CRETA</t>
         </is>
       </c>
       <c r="E73" s="4" t="inlineStr">
@@ -3409,15 +3409,15 @@
       </c>
       <c r="B74" s="3" t="inlineStr">
         <is>
-          <t>03/07/2025</t>
+          <t>07/07/2025</t>
         </is>
       </c>
       <c r="C74" s="3" t="n">
-        <v>726244</v>
+        <v>726248</v>
       </c>
       <c r="D74" s="3" t="inlineStr">
         <is>
-          <t>RACK NEW BLUMENAU</t>
+          <t>BUFFET EVORA 1.6</t>
         </is>
       </c>
       <c r="E74" s="3" t="inlineStr">
@@ -3449,15 +3449,15 @@
       </c>
       <c r="B75" s="4" t="inlineStr">
         <is>
-          <t>03/07/2025</t>
+          <t>07/07/2025</t>
         </is>
       </c>
       <c r="C75" s="4" t="n">
-        <v>726245</v>
+        <v>726249</v>
       </c>
       <c r="D75" s="4" t="inlineStr">
         <is>
-          <t>RACK ARACATUBA</t>
+          <t>RACK RUBI</t>
         </is>
       </c>
       <c r="E75" s="4" t="inlineStr">
@@ -3489,15 +3489,15 @@
       </c>
       <c r="B76" s="3" t="inlineStr">
         <is>
-          <t>04/07/2025</t>
+          <t>07/07/2025</t>
         </is>
       </c>
       <c r="C76" s="3" t="n">
-        <v>726246</v>
+        <v>726251</v>
       </c>
       <c r="D76" s="3" t="inlineStr">
         <is>
-          <t>AEREO DUPLO 0.8M SELENE</t>
+          <t>BALCAO 0.8M ALLURE</t>
         </is>
       </c>
       <c r="E76" s="3" t="inlineStr">
@@ -3529,15 +3529,15 @@
       </c>
       <c r="B77" s="4" t="inlineStr">
         <is>
-          <t>04/07/2025</t>
+          <t>07/07/2025</t>
         </is>
       </c>
       <c r="C77" s="4" t="n">
-        <v>726247</v>
+        <v>726252</v>
       </c>
       <c r="D77" s="4" t="inlineStr">
         <is>
-          <t>PAINEL HOME CRETA</t>
+          <t>CRISTALEIRA 0.7M ALLURE</t>
         </is>
       </c>
       <c r="E77" s="4" t="inlineStr">
@@ -3557,27 +3557,27 @@
       </c>
       <c r="H77" s="4" t="inlineStr">
         <is>
-          <t>N/C</t>
+          <t>Separar</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="3" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B78" s="3" t="inlineStr">
         <is>
-          <t>04/07/2025</t>
+          <t>08/07/2025</t>
         </is>
       </c>
       <c r="C78" s="3" t="n">
-        <v>726248</v>
+        <v>726254</v>
       </c>
       <c r="D78" s="3" t="inlineStr">
         <is>
-          <t>BUFFET EVORA 1.6</t>
+          <t>TORRE SIMPLES 0.7M ALLURE</t>
         </is>
       </c>
       <c r="E78" s="3" t="inlineStr">
@@ -3609,15 +3609,15 @@
       </c>
       <c r="B79" s="4" t="inlineStr">
         <is>
-          <t>04/07/2025</t>
+          <t>08/07/2025</t>
         </is>
       </c>
       <c r="C79" s="4" t="n">
-        <v>726249</v>
+        <v>720860</v>
       </c>
       <c r="D79" s="4" t="inlineStr">
         <is>
-          <t>RACK RUBI</t>
+          <t>APARADOR MONACO</t>
         </is>
       </c>
       <c r="E79" s="4" t="inlineStr">
@@ -3627,7 +3627,7 @@
       </c>
       <c r="F79" s="4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Remessa</t>
         </is>
       </c>
       <c r="G79" s="4" t="inlineStr">
@@ -3649,15 +3649,15 @@
       </c>
       <c r="B80" s="3" t="inlineStr">
         <is>
-          <t>07/07/2025</t>
+          <t>08/07/2025</t>
         </is>
       </c>
       <c r="C80" s="3" t="n">
-        <v>726251</v>
+        <v>720861</v>
       </c>
       <c r="D80" s="3" t="inlineStr">
         <is>
-          <t>BALCAO 0.8M ALLURE</t>
+          <t>MESA DE CENTRO MONACO</t>
         </is>
       </c>
       <c r="E80" s="3" t="inlineStr">
@@ -3667,7 +3667,7 @@
       </c>
       <c r="F80" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Remessa</t>
         </is>
       </c>
       <c r="G80" s="3" t="inlineStr">
@@ -3689,15 +3689,15 @@
       </c>
       <c r="B81" s="4" t="inlineStr">
         <is>
-          <t>07/07/2025</t>
+          <t>08/07/2025</t>
         </is>
       </c>
       <c r="C81" s="4" t="n">
-        <v>726252</v>
+        <v>726256</v>
       </c>
       <c r="D81" s="4" t="inlineStr">
         <is>
-          <t>CRISTALEIRA 0.7M ALLURE</t>
+          <t>PAINEL HOME ZURIQUE</t>
         </is>
       </c>
       <c r="E81" s="4" t="inlineStr">
@@ -3716,206 +3716,6 @@
         </is>
       </c>
       <c r="H81" s="4" t="inlineStr">
-        <is>
-          <t>Separar</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="3" t="inlineStr">
-        <is>
-          <t>AMARELO</t>
-        </is>
-      </c>
-      <c r="B82" s="3" t="inlineStr">
-        <is>
-          <t>08/07/2025</t>
-        </is>
-      </c>
-      <c r="C82" s="3" t="n">
-        <v>726254</v>
-      </c>
-      <c r="D82" s="3" t="inlineStr">
-        <is>
-          <t>TORRE SIMPLES 0.7M ALLURE</t>
-        </is>
-      </c>
-      <c r="E82" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F82" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G82" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H82" s="3" t="inlineStr">
-        <is>
-          <t>N/C</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="4" t="inlineStr">
-        <is>
-          <t>AZUL</t>
-        </is>
-      </c>
-      <c r="B83" s="4" t="inlineStr">
-        <is>
-          <t>08/07/2025</t>
-        </is>
-      </c>
-      <c r="C83" s="4" t="n">
-        <v>720860</v>
-      </c>
-      <c r="D83" s="4" t="inlineStr">
-        <is>
-          <t>APARADOR MONACO</t>
-        </is>
-      </c>
-      <c r="E83" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F83" s="4" t="inlineStr">
-        <is>
-          <t>Remessa</t>
-        </is>
-      </c>
-      <c r="G83" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H83" s="4" t="inlineStr">
-        <is>
-          <t>N/C</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="3" t="inlineStr">
-        <is>
-          <t>AMARELO</t>
-        </is>
-      </c>
-      <c r="B84" s="3" t="inlineStr">
-        <is>
-          <t>08/07/2025</t>
-        </is>
-      </c>
-      <c r="C84" s="3" t="n">
-        <v>720861</v>
-      </c>
-      <c r="D84" s="3" t="inlineStr">
-        <is>
-          <t>MESA DE CENTRO MONACO</t>
-        </is>
-      </c>
-      <c r="E84" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F84" s="3" t="inlineStr">
-        <is>
-          <t>Remessa</t>
-        </is>
-      </c>
-      <c r="G84" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H84" s="3" t="inlineStr">
-        <is>
-          <t>N/C</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="4" t="inlineStr">
-        <is>
-          <t>VERDE</t>
-        </is>
-      </c>
-      <c r="B85" s="4" t="inlineStr">
-        <is>
-          <t>08/07/2025</t>
-        </is>
-      </c>
-      <c r="C85" s="4" t="n">
-        <v>726256</v>
-      </c>
-      <c r="D85" s="4" t="inlineStr">
-        <is>
-          <t>PAINEL HOME ZURIQUE</t>
-        </is>
-      </c>
-      <c r="E85" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F85" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G85" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H85" s="4" t="inlineStr">
-        <is>
-          <t>N/C</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="3" t="inlineStr">
-        <is>
-          <t>ROSA</t>
-        </is>
-      </c>
-      <c r="B86" s="3" t="inlineStr">
-        <is>
-          <t>08/07/2025</t>
-        </is>
-      </c>
-      <c r="C86" s="3" t="n">
-        <v>726259</v>
-      </c>
-      <c r="D86" s="3" t="inlineStr">
-        <is>
-          <t>ESTANTE IPANEMA</t>
-        </is>
-      </c>
-      <c r="E86" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F86" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G86" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H86" s="3" t="inlineStr">
         <is>
           <t>N/C</t>
         </is>
